--- a/examples/Australia OGD/victim_assistance/profile.xlsx
+++ b/examples/Australia OGD/victim_assistance/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,22 @@
       <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>999810</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>71767</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>11859</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['1000505', '1000589', '1000651', '1000676', '1000705', '1000764', '1001581', '1001616', '1001656', '1001669', '1001727', '1001745', '1001807', '1001855', '1001962', '1001987', '10020', '1002254', '1002283', '1002302', '1002329', '1002389', '1002437', '1002450', '1002510', '1002534', '1002618', '1002654', '1002706', '1002768', '1002811', '1003111', '1003178', '1003211', '1003224', '1003284', '1003365', '1003411', '1003425', '1003497', '1003572', '1004267', '1004297', '1004314', '1004364', '1004393', '1004448', '1004480', '1004511', '1004566', '1004604', '1004637', '1004661', '1004766', '1004798', '1004839', '1005123', '1005244', '1005285', '1005302', '1005362', '1005414', '1005491', '1005522', '10058', '1005942', '1005993', '1006074', '1006131', '1006166', '1006195', '1006251', '1006592', '1006652', '1006695', '1006792', '1006818', '1007129', '1007221', '1007269', '1007320', '10076', '1008053', '1008115', '1008135', '1008149', '1008170', '1008243', '1008283', '1008375', '1008490', '1008872', '1008902', '1008937', '1008968', '1009010', '1009088', '1009103', '1009140', '1009195', '1009229', '1009347', '1009409', '1009764', '1009809', '1009858', '1009962', '1009990', '1010012', '1010048', '1010074', '1010339', '1010399', '1010522', '1010542', '1010583', '1010628', '1010726', '1010751', '10109', '1011171', '1011238', '1011274', '1011389', '1011422', '1012088', '1012167', '1012197', '1012230', '1012261', '1012318', '1012331', '1012387', '1012438', '1012747', '1012786', '10128', '1012818', '1012852', '1012900', '1012971', '1012990', '1013029', '1013063', '1013081', '1013448', '1013484', '1013578', '1013939', '1013979', '1014007', '1014019', '1014056', '1014084', '1014108', '1014139', '1014151', '1014177', '1014227', '1014249', '1014288', '1014329', '1014376', '1014404', '1014452', '1014483', '1014885', '1014910', '1014924', '1014938', '1015027', '1015058', '1015084', '1015105', '1015129', '1015155', '1015216', '1015907', '1015941', '1015970', '1016008', '1016083', '1016132', '1016235', '1016268', '1016304', '1016362', '1016477', '1016514', '1016763', '1016797', '10168', '1016840', '1016888', '1017066', '1017087', '1017120', '1017162', '1017353', '1017639', '1017742', '1017790', '1017805', '1017833', '1017851', '1017913', '1017963', '1017989', '1019125', '1019166', '10192', '1019229', '1019309', '1019341', '1019383', '1019395', '1019437', '1019479', '1019520', '1019560', '1019941', '1020009', '1020068', '1020084', '1020127', '1020184', '1020215', '1020273', '1020305', '10208', '1021189', '1021270', '1021299', '1021361', '1021563', '1021840', '1021884', '1021913', '1021994', '1022040', '1022091', '1022128', '1022164', '1022202', '1022228', '1022258', '1022285', '1022329', '1022410', '1022423', '1022452', '1022485', '1022503', '1022522', '1022798', '1022882', '1022965', '1023008', '1023021', '1023036', '1023083', '1023109', '1023160', '1023446', '1023459', '1023501', '1023583', '1023616', '1023634', '1023676', '1023688', '1023720', '1023767', '1024172', '1024258', '1024337', '1024419', '1024532', '10247', '102519', '1025262', '1025360', '1025425', '1025469', '1025486', '1025519', '1025531', '1025568', '1025598', '1025644', '1026110', '1026166', '1026236', '1026273', '1026293', '1026344', '1026376', '1026764', '1026864', '1026900', '1026915', '1026960', '1026995', '1027019', '1027072', '1027130', '1027548', '1027584', '1027653', '1028063', '1028195', '1028265', '1028927', '1028969', '1029002', '1029029', '1029092', '1029125', '1029167', '1029200', '1029261', '1029314', '1029351', '1029390', '1029676', '1029706', '1029734', '1029768', '1029810', '1029823', '1029866', '1029911', '1029950', '1029966', '1029987', '1030036', '1030092', '1030185', '1030539', '1030618', '1030676', '1030712', '1030852', '1031115', '1031164', '1031373', '1031451', '1031709', '1031763', '1031808', '1031845', '1031880', '1031936', '1031976', '1032033', '1032058', '1032076', '1032122', '1032860', '1032919', '1032962', '1033003', '1033038', '1033058', '1033132', '1033153', '1033193', '1033301', '1033611', '1033714', '1033749', '1033834', '1033890', '1033918', '1035083', '1035130', '1035202', '1035241', '1035300', '1035350', '1035430', '1035477', '1035542', '1035587', '1035631', '1036356', '1036440', '1036471', '1036489', '1036524', '1036568', '1036581', '1036596', '1036640', '1036652', '1036687', '1036722', '1036773', '1036787', '1036840', '1036852', '1036891', '1036921', '1037329', '1037361', '1037379', '1037421', '1037526', '1037543', '1037586', '1037609', '1037628', '1037660', '1037716', '1037753', '1038282', '1038335', '1038372', '1038406', '1038419', '1038455', '1038537', '1038620', '1039081', '1039108', '1039181', '103936', '1039472', '1039513', '1039571', '1039600', '1039651', '1039685', '1039718', '1039769', '1039844', '1039890', '1040570', '1040604', '1040636', '1040688', '1040755', '1040830', '1040891', '1041009', '1041360', '1041392', '1041484', '1041532', '1041563', '1041598', '1041653', '1041734', '1041809', '1041830', '1041917', '1042414', '1042538', '1042593', '1042652', '1043098', '1043120', '10435', '1043564', '1043585', '1043625', '1043640', '1043707', '1043745', '1043798', '1043810', '1043876', '1043906', '1043937', '1043959', '1043983', '1044012', '1044062', '1044094', '1044131', '1044188', '1044224', '1044914', '1045023', '1045111', '1045187', '1045735', '1045787', '1045815', '1045837', '1045883', '1045954', '1045970', '1046019', '1046046', '1046113', '1046465', '1046501', '1046575', '1046664', '1046699', '1046734', '1046808', '10472', '1047258', '1047709', '1047815', '1047970', '1048646', '1048702', '1048787', '1048800', '1048847', '1048883', '1048935', '1048978', '1049028', '1049078', '1049105', '1049129', '1049165', '1049235', '1049651', '1049779', '1049796', '1049849', '1049873', '1050015', '1050345', '1050401', '1050447', '1050474', '1050494', '1050884', '1050968', '1051076', '1051355', '1051400', '1051460', '1051503', '1051545', '1051610', '1051674', '1051713', '1051757', '1051792', '1051824', '1051845', '1051875', '1052619', '1052656', '1052721', '1052792', '1052828', '1052881', '1052922', '1052976', '1053459', '1053527', '1053673', '1054014', '1054073', '1054157', '1054194', '1054235', '1054271', '1054312', '1054398', '1054411', '1054483', '1054506', '1054535', '1054821', '1054868', '1054894', '10549', '1054923', '1055302', '1055327', '1055347', '1055372', '1055402', '1055432', '1055471', '1055512', '1055547', '1055578', '1055628', '1055686', '1055716', '1055761', '1055776', '1056573', '1056611', '1056643', '1056688', '1056737', '1056780', '1056850', '1056871', '1056938', '1056952', '1056993', '1057032', '1057064', '1057108', '1057408', '1057425', '1057486', '1057534', '1057562', '1057665', '1057691', '1057771', '1057825', '1057857', '1057917', '1057948', '1058032', '1058260', '1058332', '1058374', '1058481', '1058507', '1058917', '1059027', '1059108', '1059372', '1059399', '1059412', '1059442', '1059474', '1059522', '1059563', '1059578', '1059624', '1059669', '1059707', '1059734', '1059774', '1059811', '1059845', '1059896', '1059945', '1059968', '1060018', '1060659', '1060686', '1060796', '1060888', '1060982', '1061020', '1061333', '1061359', '1061407', '1061445', '1061491', '1061552', '1061606', '1061683', '1061716', '1061742', '1062126', '1062170', '10622', '1062232', '1062245', '1062336', '1062364', '1062405', '1062451', '1062884', '1062902', '1063015', '1063106', '1063542', '1063596', '1063695', '1064635', '1064667', '1064716', '1064738', '1064753', '1064787', '1064806', '1064818', '1064844', '1064885', '1064897', '1064949', '1064992', '106504', '1065040', '1065071', '1065089', '1065128', '1065160', '1065195', '1065238', '106524', '1065536', '1065569', '1065600', '1065626', '1065641', '1065772', '1065813', '106584', '1065889', '1065911', '1066405', '1066733', '1066771', '1066798', '1066812', '1066850', '1066895', '1067048', '1067085', '1067806', '1067838', '1067994', '10680', '1068016', '1068076', '1068192', '1068227', '1068247', '1068544', '1068629', '1068653', '1068699', '1068716', '1068812', '1068905', '1068937', '1068958', '1068989', '1069078', '1069108', '1069392', '1069415', '1069449', '1069532', '1069589', '1069628', '1069666', '1069702', '1070586', '1070621', '1070649', '1070683', '1070723', '1070760', '1070811', '1070872', '1070917', '1070966', '1071699', '107172', '1071737', '1071769', '1071785', '1071833', '1071885', '1071936', '1071970', '1072024', '1072036', '1072083', '1072120', '1072176', '1072230', '1072253', '1072298', '107238', '107261', '1072614', '1072653', '1072665', '1072702', '1072754', '1072818', '1072835', '1072898', '1072953', '1073008', '1073100', '1073150', '1073198', '10733', '1073480', '1073531', '1073565', '1073641', '1073698', '1073732', '1073790', '1073859', '1073925', '1073967', '1073985', '107431', '1074381', '1074474', '1074543', '1074603', '1074657', '1074693', '1074956', '1074971', '1075004', '1075033', '1075045', '1075074', '1075222', '1075262', '1075294', '1075307', '1075345', '1075399', '1076127', '1076176', '1076294', '1076330', '1076365', '1076377', '1076421', '1076490', '1076610', '1076845', '1076905', '1076974', '1077100', '1077449', '1077506', '1077520', '1077628', '1077642', '1077782', '1077794', '1078070', '1078097', '1078219', '1079295', '10793', '1079371', '1079417', '1079491', '1079526', '1079578', '1080362', '1080399', '1080432', '1080510', '1080567', '1080608', '1080620', '1080665', '1080688', '1080725', '1080773', '1080803', '1080866', '1080923', '1080984', '1081270', '1081303', '1081355', '1081432', '1081509', '1081550', '1081914', '1081936', '1081989', '1082026', '1082059', '1082124', '1082151', '1082238', '1082300', '1082622', '1082652', '1082706', '1082922', '1083000', '1083238', '1083266', '1083299', '1083316', '1083355', '1083399', '1083443', '1083458', '1083492', '1083541', '1083554', '1083584', '1083653', '1084327', '1084368', '1084430', '1084467', '1084485', '1084549', '1084580', '1084631', '1084664', '1084725', '1084813', '1085156', '1085195', '1085236', '1085313', '1085803', '1085864', '1086206', '1086232', '1086259', '1086316', '1086398', '1086458', '1086547', '10880', '1088124', '1088803', '1088829', '1088844', '1088877', '1088905', '1088954', '1088994', '1089007', '1089057', '1089106', '1089158', '1089204', '1089247', '1089581', '1089910', '1090279', '1090318', '1090337', '1090386', '1090463', '1090528', '1090584', '1090627', '1090684', '1090993', '1091049', '1091071', '1091150', '1091201', '1091244', '1091317', '1091365', '1091394', '1091779', '1091842', '1091885', '1091938', '1091969', '1091997', '1092034', '1092046', '1092766', '1092785', '1092809', '1092821', '1092859', '1092909', '1092954', '1092978', '1093014', '1093027', '1093047', '1093064', '1093077', '1093095', '1093120', '1093148', '1093180', '1093205', '1093239', '1093266', '1093309', '1093354', '1093754', '1094021', '1094055', '1094097', '1094135', '1094366', '1094383', '1094419', '1094535', '1094610', '1094641', '1094736', '1094836', '1095153', '1095185', '1095237', '1095303', '1095383', '1095411', '1095433', '1095490', '1095508', '1095554', '1095874', '1095926', '1095960', '1096012', '1096071', '1096114', '1096139', '1096156', '1096193', '1096226', '1096242', '1096997', '1097020', '1097072', '1097100', '1097130', '1097146', '1097169', '1097186', '1097206', '1097246', '1097265', '1097305', '1097320', '1097338', '1097448', '1097470', '1097488', '1097514', '1097526', '1097582', '1097635', '1098372', '1098420', '1098779', '10988', '1098848', '1098905', '1098962', '1098976', '1099070', '1099112', '1099213', '1099242', '1099573', '1099595', '1099622', '1099639', '1099669', '1099682', '1099695', '1099718', '1099741', '1099762', '1099823', '1099856', '1099893', '1099936', '1099984', '1100021', '1100928', '1100944', '1100960', '1100988', '1101005', '1101034', '1101046', '1101105', '1101126', '1101157', '1101182', '1101198', '1101220', '1101261', '1101276', '1101324', '1101359', '1101397', '1101415', '1101450', '1101535', '1101584', '1101610', '1101951', '1101978', '1102014', '1102101', '1102132', '1102169', '1102196', '1102237', '1102253', '1102329', '1102425', '1102480', '1102785', '1102860', '1102963', '1103003', '1103024', '1103053', '1103089', '1103130', '1103529', '1103549', '1103670', '1103737', '1103835', '1104245', '1104295', '1104315', '1104348', '1104363', '1104384', '1105149', '1105161', '1105182', '1105211', '1105223', '1105244', '1105263', '1105282', '1105313', '1105326', '1105360', '1105390', '1105494', '1105529', '11057', '1105862', '1105961', '1106039', '1106106', '1106140', '1106165', '1106465', '1106507', '1106534', '1106583', '1106686', '1106751', '1106841', '1106868', '1106921', '1107161', '1107180', '1107223', '1107335', '1107400', '1107519', '1107858', '1107892', '1107916', '1107960', '1108012', '1108054', '11083', '1108732', '1108827', '1108872', '1108884', '1108939', '1108959', '1109038', '1109074', '1109093', '1109166', '1109198', '1109297', '1109602', '1109657', '1109719', '1109759', '1109809', '1109921', '1109959', '1110188', '1110206', '1110234', '1110256', '1110277', '1110417', '1110447', '1110773', '1110786', '1110826', '1110850', '1110886', '1110906', '1110918', '1110935', '11115', '1113132', '1113150', '1113168', '1113186', '1113210', '1113228', '1113302', '1113336', '1113354', '1113406', '1113422', '1113474', '1113526', '1113621', '1113997', '1114044', '1114065', '1114099', '1114166', '1114203', '1114258', '1114277', '1114296', '1114326', '1114853', '1114890', '1115245', '1115317', '1115372', '1115481', '1115526', '1115635', '1115910', '1115954', '1116095', '11166', '1116855', '1116938', '1116957', '1116976', '1117010', '1117030', '1117050', '1117107', '1117155', '1117179', '1117216', '1117260', '1117289', '1117314', '1117357', '1117715', '1117735', '1117794', '1117902', '1118271', '1118381', '1118424', '1118461', '1118921', '1119012', '1119041', '1119064', '1119092', '11191', '1119120', '1119136', '1119222', '1119283', '1119575', '1119588', '1119652', '1119687', '111969', '1119715', '1119739', '1119758', '1119782', '1119802', '1119867', '1120607', '1120630', '1120643', '1120724', '1120753', '112076', '1120768', '1120829', '1120845', '1120918', '1120938', '1121033', '1121074', '1121169', '112117', '1121183', '1121610', '1121642', '1121676', '112172', '1121727', '1121743', '1121779', '1121820', '1121869', '1121877', '1121924', '1121939', '1122332', '1122353', '1122376', '1122427', '1122448', '1122871', '1122979', '1123036', '1123388', '1123412', '1123464', '11235', '1123511', '1123534', '1123589', '1123630', '1123680', '1124365', '1124378', '1124391', '1124406', '1124446', '1124506', '1124541', '1124567', '1124583', '112460', '1124605', '1124686', '1124796', '1124843', '112501', '1125402', '1125487', '1125541', '1125561', '1125593', '1125625', '1125678', '112581', '1125974', '1125993', '1126108', '1126199', '1126235', '1126261', '1126613', '1126634', '1126655', '1126697', '1126719', '1126746', '1126780', '112681', '1126814', '1126908', '1126981', '112749', '1127880', '1127911', '1127933', '1127987', '1128059', '1128089', '1128112', '1128150', '1128180', '1128198', '1128211', '1128237', '1128263', '1128278', '1128351', '1128728', '1128813', '1128857', '1128884', '1128916', '1128948', '1128976', '1129029', '1129073', '1129124', '1129171', '11295', '113000', '113012', '113078', '113179', '11337', '113465', '113497', '113587', '113663', '113718', '113775', '113818', '11426', '114330', '114396', '11444', '114547', '114607', '114865', '114901', '114913', '114927', '114964', '11499', '115054', '115100', '115183', '115707', '115767', '115822', '115846', '115918', '11607', '116222', '11625', '116258', '116273', '116301', '116373', '11639', '116423', '116944', '117025', '11703', '117109', '117138', '117170', '11733', '117471', '11750', '117515', '117556', '117579', '117643', '117686', '117716', '117833', '117874', '118229', '118253', '118338', '118361', '118473', '11871', '118807', '118835', '118908', '11899', '119183', '119222', '119237', '119294', '119349', '119402', '119414', '119455', '119487', '119517', '11952', '11990', '120081', '120101', '120133', '120155', '120231', '120261', '120290', '120305', '120350', '120369', '12043', '120615', '120627', '120746', '120790', '12108', '121166', '121199', '121242', '121325', '121587', '121628', '121664', '121685', '121734', '121755', '121775', '121832', '121861', '121906', '12205', '122139', '122167', '122251', '122334', '122421', '122457', '12251', '123038', '123085', '123164', '123232', '123435', '123453', '123477', '123492', '123575', '123629', '123663', '123689', '123721', '12373', '12397', '124048', '124119', '124133', '124194', '124249', '12428', '124286', '124321', '124376', '124410', '124426', '124467', '124494', '124541', '12460', '124744', '12480', '124807', '124827', '124908', '124932', '124989', '125015', '12518', '125226', '12531', '125314', '125356', '125397', '125488', '12559', '12571', '125914', '12603', '126060', '126080', '12625', '126314', '126347', '126385', '12640', '126419', '126434', '126499', '126573', '126587', '126632', '126656', '126700', '126742', '126927', '12700', '127007', '127036', '127062', '127120', '127160', '127249', '127261', '127274', '127286', '12730', '127359', '127594', '12765', '127684', '127757', '127781', '127899', '127922', '127963', '128005', '128245', '128289', '128337', '128350', '128362', '128379', '128446', '12861', '12883', '129012', '129067', '129083', '129124', '129163', '12918', '129199', '12935', '129517', '129529', '129660', '12974', '129870', '129904', '12996', '129984', '130015', '130040', '130081', '130210', '13025', '130253', '130309', '130403', '130453', '130473', '13050', '130520', '130557', '130638', '130680', '130770', '130783', '130798', '130837', '130866', '130892', '130910', '130930', '130990', '131041', '131066', '131085', '131099', '13130', '131414', '131451', '131524', '131569', '13166', '131691', '131752', '131765', '131861', '131893', '131931', '131943', '13199', '132009', '132258', '132326', '132374', '132413', '132465', '132521', '132571', '132597', '13268', '132831', '13286', '132881', '132920', '132937', '13298', '133017', '133051', '133269', '133287', '133346', '133387', '13339', '133399', '133425', '13375', '134045', '134148', '13420', '134217', '134245', '134307', '13434', '134499', '134517', '134557', '134574', '134638', '134659', '134703', '134766', '13501', '135068', '135097', '135115', '135157', '135224', '13528', '135322', '135349', '135367', '135428', '13547', '135472', '135496', '135536', '135658', '135846', '135878', '135932', '13596', '135976', '136063', '136132', '136152', '136212', '13651', '136525', '136632', '137028', '137076', '137124', '13719', '137201', '137248', '137489', '137518', '137582', '137645', '13766', '137696', '137720', '137982', '138006', '138049', '138068', '138137', '138166', '138220', '13840', '138454', '138530', '138546', '138565', '13858', '138590', '138609', '138631', '138671', '13873', '139133', '139285', '13930', '139310', '139324', '139370', '13967', '13986', '140034', '140051', '140086', '140130', '140199', '140211', '140241', '140306', '140352', '140408', '140461', '14055', '140702', '140765', '140833', '140862', '140899', '140938', '140957', '140982', '140995', '141112', '14116', '141208', '141226', '141254', '141492', '14150', '141554', '141574', '141624', '141660', '141714', '142104', '14212', '142172', '142474', '142491', '142560', '142594', '14268', '142741', '14284', '14315', '143296', '143378', '143758', '143782', '143957', '14418', '144227', '14450', '144674', '144708', '144762', '144807', '144905', '144919', '144933', '145239', '14530', '145306', '145769', '145814', '145848', '145940', '14610', '146196', '146269', '14640', '146471', '146551', '14660', '146633', '146748', '146761', '14680', '146843', '146920', '146977', '147048', '147124', '147144', '14720', '147211', '147229', '147286', '14732', '147329', '147877', '14796', '148048', '14821', '148278', '148441', '14867', '148897', '148923', '148940', '148957', '14899', '149110', '14920', '149351', '149377', '149417', '149574', '14963', '149901', '149933', '149945', '149967', '150654', '151041', '151097', '151249', '151572', '151592', '151680', '151701', '152052', '152142', '152229', '152421', '152453', '152521', '152537', '152570', '152609', '152641', '152674', '153212', '153239', '153305', '153362', '153414', '153716', '153735', '153794', '153834', '153925', '154201', '154266', '154297', '154420', '154533', '154814', '155293', '155376', '155408', '155422', '155454', '156168', '156192', '156503', '156569', '156581', '156634', '156653', '156700', '156910', '157041', '157141', '157155', '157225', '157410', '157478', '157575', '157701', '157741', '158093', '158132', '158179', '158792', '158820', '158900', '159234', '159269', '159329', '159347', '159397', '159412', '159496', '159509', '159909', '159923', '159976', '160000', '160056', '160108', '160144', '160178', '160453', '160492', '160516', '160576', '160883', '160935', '160999', '161019', '161075', '161120', '161148', '161175', '161302', '161376', '161444', '161456', '161471', '161513', '161542', '161556', '161649', '161741', '161794', '161975', '161987', '162016', '162033', '162115', '162188', '162214', '162238', '162272', '162292', '162306', '162476', '162501', '162635', '162678', '162699', '162728', '162960', '162998', '163035', '163049', '163124', '163161', '163187', '163202', '163220', '163269', '163320', '163336', '163348', '163389', '163442', '163471', '163499', '163544', '163618', '163664', '163676', '163780', '163828', '163918', '163935', '163962', '164008', '164053', '164148', '164187', '164582', '164659', '164867', '164967', '165246', '165275', '165311', '165348', '165490', '165575', '165885', '165988', '166070', '166316', '166342', '166385', '166521', '166621', '166660', '166748', '166871', '166913', '166990', '167052', '167174', '167224', '167254', '167892', '167935', '167985', '168046', '168079', '168105', '168140', '168293', '168312', '168662', '168680', '168762', '168778', '168792', '168913', '168925', '169039', '169127', '169158', '169231', '169481', '169516', '169541', '169575', '169683', '169702', '169842', '169891', '169938', '169977', '170000', '170024', '171879', '171899', '171912', '172011', '172058', '172073', '172206', '172340', '172390', '172405', '172446', '172526', '172562', '172591', '172610', '172652', '172710', '172897', '172932', '172946', '172993', '173019', '173052', '173097', '173115', '173127', '173177', '173250', '173278', '173361', '173527', '173586', '173616', '173654', '173713', '173745', '173770', '173791', '173818', '173906', '174457', '174492', '174521', '174594', '174611', '174649', '174679', '174753', '174769', '174790', '174838', '174877', '175905', '175919', '175974', '176230', '176300', '176337', '176587', '176612', '176641', '176675', '176710', '177020', '177058', '177092', '177138', '177220', '177475', '177521', '177552', '177610', '177657', '177683', '178119', '178136', '178425', '178459', '178521', '178559', '178625', '178657', '178699', '178769', '179082', '179095', '179139', '179195', '179217', '179235', '179282', '179303', '179366', '179655', '179731', '179792', '179804', '180490', '180534', '180578', '180644', '180689', '180716', '180730', '180806', '180857', '180918', '181281', '181367', '181406', '181537', '181733', '181745', '181791', '181876', '181910', '181963', '182075', '182409', '182423', '182675', '182710', '182759', '182822', '182843', '182917', '182941', '182988', '183483', '183553', '183571', '183639', '183661', '183727', '183794', '184059', '184117', '184196', '184209', '184267', '184324', '184340', '184565', '184637', '184707', '184751', '185175', '185201', '185222', '185321', '185576', '185808', '185846', '185905', '185919', '185975', '186497', '186616', '186697', '186733', '186752', '186954', '187039', '187075', '187121', '187149', '187190', '187232', '187264', '187293', '187327', '187543', '187559', '187608', '187719', '187738', '187772', '187789', '187801', '187815', '187843', '187865', '188055', '188187', '188226', '188269', '188296', '188315', '188330', '188608', '188625', '188643', '188670', '188691', '188724', '188737', '188814', '188844', '188949', '189551', '189564', '189606', '189693', '189711', '189758', '189936', '189965', '190128', '190187', '190230', '190245', '190261', '190313', '190359', '190377', '190619', '190632', '190665', '190867', '190896', '190925', '190965', '191009', '191035', '191049', '191086', '191108', '191295', '191347', '191361', '191398', '191556', '191875', '191938', '191997', '192035', '192070', '192132', '192144', '192271', '192287', '192317', '192943', '193081', '193136', '193178', '193198', '193230', '193242', '193454', '193484', '193501', '193563', '193590', '193602', '193636', '193654', '193757', '193791', '193822', '194063', '194094', '194112', '194218', '194299', '194320', '194572', '194766', '194998', '195075', '195235', '195291', '195973', '196002', '196017', '196031', '196339', '196411', '196468', '196488', '196552', '196604', '196796', '196823', '196845', '196890', '196902', '196947', '197025', '197060', '197075', '197105', '197127', '197140', '197198', '197391', '197436', '197502', '197537', '197613', '197633', '197688', '197742', '197764', '197789', '197824', '197857', '197881', '198116', '198135', '198218', '198264', '198346', '198383', '198414', '198458', '199024', '199104', '199198', '199542', '199575', '199611', '199658', '199678', '199697', '199783', '199803', '199839', '199895', '200117', '200149', '200195', '200209', '200279', '200310', '200363', '200415', '200501', '200586', '200614', '200856', '200947', '201010', '201054', '201086', '201108', '201123', '201266', '201281', '201532', '201563', '201583', '201673', '201713', '201764', '201787', '201870', '201883', '201997', '202540', '202579', '202629', '202687', '202728', '202797', '202817', '202863', '203053', '203109', '203139', '203158', '203181', '203198', '203227', '203267', '203286', '203339', '203366', '203408', '203496', '203518', '203544', '203557', '203617', '203818', '203844', '203899', '203912', '203925', '203946', '204030', '204097', '204163', '204195', '204300', '204332', '204404', '204433', '204540', '204552', '204577', '204651', '204844', '204862', '204916', '204978', '205018', '205088', '205116', '205173', '205207', '205390', '205686', '206257', '206286', '206329', '206379', '206432', '206467', '206572', '206816', '206852', '206981', '207152', '207484', '207676', '207698', '207950', '207984', '208120', '208238', '208350', '208634', '209452', '209539', '209782', '209861', '209908', '209920', '209933', '209977', '210003', '210386', '210466', '210529', '210587', '210640', '210654', '210732', '210782', '210827', '210839', '210869', '211045', '211090', '211140', '211218', '211241', '211294', '211313', '211342', '211371', '211426', '211440', '211452', '211466', '211565', '211609', '211867', '211887', '211942', '211978', '212072', '212804', '212874', '212965', '213004', '213135', '213338', '213392', '213438', '213468', '213482', '213733', '213765', '213826', '213877', '213917', '213946', '213978', '214217', '214234', '214248', '214376', '214390', '214406', '214487', '214517', '214539', '214580', '214623', '214844', '215694', '215791', '215808', '215822', '215880', '215980', '216192', '216267', '216437', '216488', '216539', '216762', '216784', '216812', '217031', '217073', '217114', '217142', '217165', '217225', '217250', '217345', '217425', '217747', '217817', '217876', '217962', '218017', '219263', '219291', '219386', '219681', '219735', '219764', '219788', '219810', '220122', '220181', '220253', '220319', '220427', '221327', '221358', '221416', '221658', '221708', '221817', '221830', '221861', '221943', '221962', '222076', '222107', '222325', '222375', '222433', '222446', '222488', '222544', '222556', '222581', '222624', '222687', '222894', '222916', '222966', '222984', '223013', '223039', '223105', '223119', '223176', '223202', '223261', '223314', '223744', '223780', '223855', '223923', '223973', '224064', '224114', '224415', '224435', '224522', '224538', '224564', '224605', '224626', '224685', '224760', '224778', '224835', '225134', '225205', '225281', '225345', '225596', '225782', '225870', '226264', '226347', '226407', '226979', '227149', '227213', '227290', '227551', '227609', '227623', '227744', '227834', '228082', '228094', '228107', '228288', '228352', '228450', '228523', '228889', '228926', '228974', '228992', '229059', '229122', '229225', '229239', '229257', '229353', '229373', '229451', '229463', '229484', '229526', '229566', '229611', '229657', '229680', '229727', '229786', '229824', '230446', '230530', '230571', '230600', '230661', '230687', '230755', '230854', '231096', '231165', '231201', '231217', '231230', '231270', '231299', '231402', '231419', '231462', '231744', '231826', '231911', '231940', '232011', '232043', '232100', '232324', '232362', '232395', '232478', '232577', '232592', '232902', '232948', '233022', '233074', '233089', '233231', '233822', '233970', '234844', '234906', '234950', '235099', '235154', '235233', '235301', '235496', '235527', '235597', '235624', '235679', '235705', '235748', '235792', '235871', '236211', '236226', '236836', '236880', '236933', '236978', '236990', '237144', '237161', '237187', '237422', '237509', '237526', '237543', '237567', '237651', '237688', '237851', '237867', '237880', '238069', '238115', '238165', '238182', '238207', '238252', '238287', '238327', '238340', '238383', '238493', '238511', '238526', '238638', '238915', '238992', '239048', '239089', '239135', '239157', '239207', '239219', '239289', '239329', '239389', '239415', '239464', '239648', '239695', '239736', '239758', '239819', '239930', '240714', '240808', '240828', '241127', '241146', '241192', '241279', '241310', '241388', '241430', '241677', '241708', '241720', '241738', '241784', '241813', '241825', '241841', '241873', '241896', '242183', '242285', '242313', '242400', '242438', '242454', '242469', '242482', '242497', '242514', '242595', '242609', '242658', '243296', '243327', '243342', '243354', '244068', '244514', '244562', '244592', '244616', '244635', '244680', '244740', '245025', '245052', '245064', '245117', '245135', '245163', '245175', '245216', '245229', '245268', '245280', '245352', '245385', '245409', '245541', '246104', '246133', '246322', '246388', '246447', '246762', '246824', '246865', '246940', '246991', '247608', '247626', '247720', '247780', '247804', '248153', '248167', '248275', '248290', '248325', '248372', '248406', '248431', '248474', '248512', '248549', '248562', '248579', '248596', '248634', '248666', '248682', '248854', '249173', '249230', '249256', '249276', '249302', '249391', '249525', '250280', '250330', '250613', '250627', '250657', '250722', '250753', '250805', '250892', '250942', '250960', '251047', '251337', '251423', '251444', '251463', '251506', '251536', '251569', '251861', '251883', '251904', '251931', '252063', '252103', '252123', '252160', '252179', '252207', '252280', '252337', '252363', '252617', '252682', '252696', '252759', '252780', '252844', '252896', '253633', '253732', '253780', '253843', '254126', '254149', '254206', '254258', '254270', '254336', '254352', '254391', '254674', '254699', '254713', '254747', '254781', '254805', '254866', '254920', '254941', '254955', '254985', '255020', '255064', '255092', '255131', '255148', '255165', '255177', '255191', '255207', '255240', '255253', '255531', '255559', '255575', '255627', '255685', '255698', '255726', '255824', '255847', '255859', '255872', '255884', '255926', '255962', '255998', '256032', '256077', '256101', '256123', '256319', '256333', '256416', '256454', '256478', '256537', '256564', '256596', '256698', '256763', '257325', '257342', '257355', '257386', '257522', '257564', '258033', '258130', '258168', '258183', '258240', '258269', '258302', '258343', '258373', '258434', '258722', '258766', '258829', '258855', '258897', '258973', '259002', '259029', '259093', '259138', '259190', '259442', '259463', '259495', '259512', '259621', '259635', '259663', '259686', '259704', '260079', '260102', '260146', '260166', '260288', '260921', '260939', '261013', '261047', '261109', '261208', '261302', '261344', '261410', '261688', '261705', '261786', '261905', '262377', '262452', '262473', '262507', '262571', '262583', '262611', '262627', '262641', '262733', '262802', '262814', '262827', '262878', '262906', '262924', '262957', '262984', '263008', '263024', '263095', '263152', '263173', '263393', '263405', '263478', '263496', '263523', '263571', '263659', '263702', '263774', '264094', '264127', '264163', '264201', '264240', '264294', '264366', '265187', '265252', '265265', '265331', '265349', '265403', '265427', '265492', '265510', '265</t>
         </is>
@@ -578,18 +591,26 @@
       <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Stalking/Threats</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Assault</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>133730</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>11</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['Assault', 'Burglary', 'Domestic Violence', 'Homicide - DV', 'Homicide - MVA', 'Homicide - Other', 'Motor Vehicle Accident', 'Other', 'Robbery', 'Sexual Offences', 'Stalking/Threats']</t>
         </is>
@@ -648,18 +669,26 @@
       <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Yet To Be Determined</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>114703</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>7</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['Funeral Only', 'Not Eligible', 'Parent Secondary', 'Primary', 'Related', 'Witness Secondary', 'Yet To Be Determined']</t>
         </is>
@@ -718,18 +747,26 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>11862</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>11862</v>
+      </c>
+      <c r="U5" t="n">
         <v>6</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['17', '2', 'B', 'F', 'M', 'U']</t>
         </is>
@@ -788,18 +825,26 @@
       <c r="P6" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>52710</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>5</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['Aboriginal', 'Aboriginal and Torres Strait', 'No', 'Torres Strait Islander', 'Unknown']</t>
         </is>
@@ -858,18 +903,26 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>57111</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>5264</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t xml:space="preserve">['-0.07', '-0.1', '-0.41', '0', '0.01', '0.03', '0.13', '0.16', '0.17', '0.18', '0.19', '0.22', '0.28', '0.32', '0.33', '0.38', '0.42', '0.53', '0.56', '0.57', '0.58', '0.61', '0.63', '0.64', '0.75', '0.86', '0.87', '0.9', '0.91', '0.93', '0.94', '1.01', '1.04', '1.07', '1.09', '1.27', '1.31', '1.32', '1.34', '1.35', '1.42', '1.45', '1.46', '1.52', '1.55', '1.57', '1.6', '1.61', '1.62', '1.64', '1.68', '1.71', '1.74', '1.75', '1.76', '1.77', '1.82', '1.84', '1.85', '1.89', '1.91', '1.92', '10.01', '10.03', '10.04', '10.05', '10.07', '10.08', '10.09', '10.12', '10.14', '10.15', '10.16', '10.17', '10.18', '10.2', '10.23', '10.25', '10.26', '10.27', '10.29', '10.3', '10.31', '10.32', '10.35', '10.38', '10.39', '10.4', '10.41', '10.42', '10.44', '10.45', '10.46', '10.47', '10.5', '10.51', '10.52', '10.54', '10.55', '10.56', '10.58', '10.59', '10.61', '10.62', '10.64', '10.67', '10.68', '10.7', '10.74', '10.75', '10.76', '10.78', '10.79', '10.81', '10.82', '10.84', '10.85', '10.87', '10.88', '10.9', '10.91', '10.93', '10.94', '10.95', '10.96', '10.97', '10.98', '10.99', '11', '11.01', '11.02', '11.03', '11.04', '11.05', '11.06', '11.08', '11.11', '11.12', '11.13', '11.15', '11.16', '11.17', '11.18', '11.19', '11.22', '11.23', '11.24', '11.25', '11.26', '11.27', '11.28', '11.3', '11.31', '11.33', '11.35', '11.36', '11.38', '11.39', '11.4', '11.41', '11.42', '11.43', '11.44', '11.45', '11.46', '11.47', '11.48', '11.5', '11.51', '11.52', '11.53', '11.54', '11.55', '11.56', '11.57', '11.58', '11.59', '11.6', '11.61', '11.63', '11.64', '11.65', '11.67', '11.68', '11.69', '11.72', '11.73', '11.74', '11.75', '11.76', '11.78', '11.79', '11.8', '11.82', '11.84', '11.85', '11.86', '11.87', '11.88', '11.89', '11.92', '11.93', '11.94', '11.95', '11.96', '11.97', '11.98', '12', '12.01', '12.02', '12.04', '12.08', '12.09', '12.1', '12.12', '12.13', '12.14', '12.15', '12.17', '12.19', '12.2', '12.21', '12.23', '12.24', '12.26', '12.28', '12.3', '12.31', '12.32', '12.33', '12.34', '12.37', '12.38', '12.39', '12.4', '12.41', '12.42', '12.45', '12.48', '12.5', '12.52', '12.53', '12.54', '12.55', '12.56', '12.57', '12.59', '12.6', '12.61', '12.62', '12.63', '12.65', '12.66', '12.67', '12.68', '12.7', '12.71', '12.72', '12.73', '12.75', '12.76', '12.77', '12.78', '12.8', '12.81', '12.82', '12.84', '12.85', '12.86', '12.87', '12.88', '12.89', '12.9', '12.91', '12.92', '12.93', '12.94', '12.95', '12.96', '12.97', '12.98', '12.99', '13', '13.01', '13.02', '13.04', '13.05', '13.06', '13.07', '13.09', '13.11', '13.12', '13.13', '13.14', '13.15', '13.16', '13.18', '13.19', '13.22', '13.24', '13.25', '13.26', '13.27', '13.28', '13.29', '13.3', '13.31', '13.33', '13.35', '13.36', '13.38', '13.4', '13.41', '13.42', '13.43', '13.45', '13.46', '13.47', '13.48', '13.49', '13.5', '13.51', '13.52', '13.53', '13.55', '13.56', '13.57', '13.58', '13.59', '13.6', '13.61', '13.62', '13.63', '13.64', '13.65', '13.66', '13.67', '13.68', '13.69', '13.7', '13.71', '13.72', '13.73', '13.74', '13.75', '13.76', '13.77', '13.78', '13.79', '13.81', '13.82', '13.83', '13.84', '13.85', '13.86', '13.87', '13.88', '13.89', '13.9', '13.91', '13.92', '13.93', '13.94', '13.96', '13.97', '13.98', '13.99', '14.01', '14.02', '14.03', '14.04', '14.05', '14.06', '14.07', '14.08', '14.09', '14.1', '14.12', '14.13', '14.15', '14.16', '14.17', '14.18', '14.19', '14.21', '14.22', '14.23', '14.24', '14.25', '14.26', '14.27', '14.28', '14.29', '14.3', '14.32', '14.33', '14.34', '14.36', '14.37', '14.39', '14.4', '14.41', '14.42', '14.43', '14.44', '14.45', '14.46', '14.47', '14.48', '14.5', '14.51', '14.52', '14.54', '14.55', '14.56', '14.57', '14.58', '14.59', '14.6', '14.61', '14.62', '14.63', '14.64', '14.66', '14.67', '14.68', '14.69', '14.7', '14.71', '14.72', '14.73', '14.74', '14.75', '14.76', '14.77', '14.78', '14.79', '14.8', '14.81', '14.82', '14.83', '14.84', '14.85', '14.86', '14.87', '14.88', '14.9', '14.91', '14.92', '14.93', '14.94', '14.95', '14.96', '14.97', '14.98', '14.99', '15', '15.01', '15.02', '15.03', '15.04', '15.05', '15.06', '15.07', '15.08', '15.1', '15.11', '15.12', '15.13', '15.15', '15.16', '15.17', '15.18', '15.19', '15.2', '15.21', '15.22', '15.23', '15.24', '15.25', '15.26', '15.27', '15.28', '15.3', '15.31', '15.32', '15.33', '15.34', '15.35', '15.36', '15.38', '15.39', '15.41', '15.42', '15.45', '15.46', '15.47', '15.48', '15.49', '15.5', '15.51', '15.52', '15.53', '15.54', '15.55', '15.56', '15.57', '15.58', '15.59', '15.6', '15.61', '15.62', '15.63', '15.64', '15.65', '15.66', '15.67', '15.68', '15.72', '15.73', '15.74', '15.75', '15.77', '15.78', '15.79', '15.8', '15.81', '15.82', '15.83', '15.84', '15.85', '15.87', '15.88', '15.89', '15.9', '15.92', '15.94', '15.95', '15.96', '15.97', '15.98', '15.99', '16.01', '16.02', '16.04', '16.06', '16.07', '16.08', '16.09', '16.1', '16.11', '16.12', '16.13', '16.14', '16.15', '16.16', '16.17', '16.18', '16.19', '16.21', '16.22', '16.23', '16.25', '16.26', '16.27', '16.28', '16.29', '16.31', '16.32', '16.33', '16.34', '16.35', '16.36', '16.37', '16.38', '16.39', '16.4', '16.43', '16.44', '16.45', '16.46', '16.47', '16.48', '16.49', '16.5', '16.51', '16.52', '16.53', '16.54', '16.55', '16.56', '16.57', '16.58', '16.59', '16.6', '16.61', '16.62', '16.63', '16.64', '16.65', '16.67', '16.68', '16.69', '16.7', '16.71', '16.72', '16.73', '16.74', '16.75', '16.76', '16.77', '16.78', '16.79', '16.8', '16.81', '16.82', '16.83', '16.84', '16.85', '16.86', '16.88', '16.9', '16.91', '16.92', '16.93', '16.94', '16.95', '16.96', '16.97', '16.98', '16.99', '17.01', '17.02', '17.03', '17.04', '17.05', '17.07', '17.09', '17.1', '17.11', '17.12', '17.13', '17.14', '17.16', '17.17', '17.18', '17.19', '17.2', '17.21', '17.22', '17.24', '17.25', '17.27', '17.28', '17.3', '17.31', '17.36', '17.39', '17.41', '17.42', '17.45', '17.46', '17.47', '17.48', '17.49', '17.5', '17.51', '17.52', '17.53', '17.54', '17.55', '17.57', '17.58', '17.59', '17.6', '17.61', '17.62', '17.64', '17.65', '17.66', '17.67', '17.69', '17.7', '17.71', '17.72', '17.73', '17.74', '17.75', '17.76', '17.77', '17.78', '17.79', '17.8', '17.81', '17.82', '17.83', '17.84', '17.85', '17.86', '17.87', '17.88', '17.89', '17.9', '17.91', '17.92', '17.94', '17.95', '17.96', '17.97', '17.98', '17.99', '18', '18.01', '18.02', '18.03', '18.04', '18.07', '18.08', '18.09', '18.1', '18.11', '18.12', '18.13', '18.14', '18.15', '18.17', '18.18', '18.19', '18.2', '18.21', '18.22', '18.23', '18.24', '18.25', '18.26', '18.27', '18.28', '18.29', '18.3', '18.31', '18.32', '18.33', '18.34', '18.35', '18.36', '18.37', '18.38', '18.39', '18.4', '18.41', '18.42', '18.43', '18.44', '18.45', '18.46', '18.47', '18.48', '18.49', '18.5', '18.51', '18.52', '18.54', '18.55', '18.56', '18.57', '18.58', '18.59', '18.6', '18.61', '18.62', '18.63', '18.64', '18.65', '18.66', '18.67', '18.71', '18.72', '18.73', '18.74', '18.75', '18.76', '18.77', '18.78', '18.79', '18.81', '18.82', '18.83', '18.84', '18.85', '18.86', '18.88', '18.89', '18.9', '18.91', '18.92', '18.93', '18.94', '18.95', '18.97', '18.98', '18.99', '19', '19.01', '19.02', '19.04', '19.06', '19.07', '19.08', '19.09', '19.1', '19.11', '19.12', '19.13', '19.15', '19.16', '19.17', '19.18', '19.19', '19.2', '19.21', '19.22', '19.24', '19.25', '19.26', '19.27', '19.28', '19.29', '19.3', '19.31', '19.32', '19.33', '19.34', '19.35', '19.36', '19.37', '19.38', '19.39', '19.4', '19.42', '19.43', '19.44', '19.45', '19.46', '19.47', '19.48', '19.49', '19.5', '19.51', '19.52', '19.53', '19.54', '19.55', '19.56', '19.58', '19.59', '19.6', '19.62', '19.63', '19.64', '19.65', '19.66', '19.67', '19.69', '19.7', '19.72', '19.73', '19.74', '19.75', '19.76', '19.77', '19.78', '19.81', '19.82', '19.83', '19.84', '19.85', '19.86', '19.87', '19.9', '19.91', '19.92', '19.93', '19.94', '19.95', '19.96', '19.97', '19.98', '19.99', '2', '2.01', '2.09', '2.12', '2.17', '2.21', '2.26', '2.27', '2.28', '2.3', '2.35', '2.38', '2.39', '2.41', '2.44', '2.48', '2.5', '2.51', '2.52', '2.53', '2.55', '2.56', '2.58', '2.59', '2.64', '2.67', '2.69', '2.7', '2.76', '2.77', '2.78', '2.79', '2.8', '2.85', '2.88', '2.92', '2.96', '20', '20.02', '20.04', '20.05', '20.07', '20.08', '20.09', '20.1', '20.12', '20.13', '20.14', '20.15', '20.16', '20.17', '20.19', '20.2', '20.21', '20.22', '20.23', '20.24', '20.27', '20.28', '20.29', '20.3', '20.31', '20.32', '20.33', '20.34', '20.35', '20.36', '20.37', '20.38', '20.39', '20.4', '20.41', '20.42', '20.43', '20.44', '20.45', '20.46', '20.47', '20.48', '20.49', '20.5', '20.51', '20.52', '20.53', '20.54', '20.55', '20.56', '20.57', '20.58', '20.59', '20.6', '20.61', '20.62', '20.63', '20.64', '20.65', '20.66', '20.67', '20.68', '20.69', '20.7', '20.71', '20.72', '20.73', '20.74', '20.75', '20.76', '20.77', '20.78', '20.79', '20.8', '20.81', '20.82', '20.83', '20.85', '20.86', '20.87', '20.88', '20.89', '20.9', '20.91', '20.92', '20.93', '20.94', '20.95', '20.96', '20.97', '20.99', '21', '21.01', '21.02', '21.03', '21.04', '21.05', '21.08', '21.09', '21.1', '21.11', '21.12', '21.13', '21.14', '21.15', '21.16', '21.17', '21.18', '21.2', '21.21', '21.22', '21.23', '21.24', '21.25', '21.27', '21.28', '21.29', '21.3', '21.31', '21.32', '21.33', '21.34', '21.35', '21.36', '21.37', '21.38', '21.39', '21.4', '21.41', '21.42', '21.46', '21.47', '21.48', '21.49', '21.5', '21.51', '21.52', '21.53', '21.54', '21.55', '21.56', '21.57', '21.58', '21.59', '21.6', '21.61', '21.62', '21.63', '21.64', '21.65', '21.66', '21.67', '21.69', '21.7', '21.71', '21.72', '21.73', '21.74', '21.75', '21.76', '21.78', '21.79', '21.8', '21.81', '21.82', '21.83', '21.84', '21.85', '21.86', '21.87', '21.88', '21.9', '21.91', '21.92', '21.93', '21.94', '21.95', '21.96', '21.97', '21.99', '22', '22.02', '22.03', '22.04', '22.05', '22.06', '22.07', '22.08', '22.09', '22.1', '22.12', '22.13', '22.15', '22.16', '22.17', '22.18', '22.19', '22.2', '22.21', '22.22', '22.24', '22.25', '22.26', '22.27', '22.28', '22.29', '22.3', '22.31', '22.32', '22.33', '22.34', '22.35', '22.36', '22.37', '22.38', '22.39', '22.4', '22.41', '22.42', '22.43', '22.44', '22.45', '22.47', '22.48', '22.49', '22.5', '22.51', '22.52', '22.53', '22.54', '22.55', '22.56', '22.57', '22.58', '22.59', '22.6', '22.61', '22.62', '22.63', '22.64', '22.67', '22.68', '22.7', '22.71', '22.72', '22.73', '22.74', '22.75', '22.76', '22.77', '22.78', '22.79', '22.8', '22.81', '22.82', '22.83', '22.84', '22.85', '22.87', '22.88', '22.89', '22.9', '22.91', '22.92', '22.94', '22.95', '22.96', '22.97', '22.98', '22.99', '23', '23.01', '23.02', '23.03', '23.04', '23.05', '23.07', '23.08', '23.09', '23.1', '23.11', '23.12', '23.13', '23.14', '23.15', '23.16', '23.17', '23.18', '23.19', '23.2', '23.21', '23.23', '23.24', '23.25', '23.26', '23.27', '23.28', '23.3', '23.31', '23.32', '23.33', '23.35', '23.36', '23.37', '23.38', '23.39', '23.4', '23.42', '23.43', '23.45', '23.46', '23.47', '23.48', '23.5', '23.51', '23.52', '23.53', '23.54', '23.55', '23.56', '23.57', '23.58', '23.59', '23.6', '23.61', '23.62', '23.64', '23.65', '23.67', '23.68', '23.69', '23.7', '23.71', '23.72', '23.73', '23.74', '23.75', '23.76', '23.77', '23.78', '23.79', '23.8', '23.81', '23.83', '23.84', '23.85', '23.86', '23.87', '23.88', '23.89', '23.9', '23.91', '23.92', '23.93', '23.94', '23.95', '23.96', '23.97', '23.98', '23.99', '24.02', '24.03', '24.04', '24.05', '24.06', '24.07', '24.08', '24.09', '24.1', '24.11', '24.13', '24.14', '24.15', '24.16', '24.17', '24.18', '24.19', '24.2', '24.21', '24.22', '24.23', '24.24', '24.25', '24.26', '24.27', '24.28', '24.29', '24.3', '24.31', '24.32', '24.33', '24.34', '24.35', '24.36', '24.37', '24.38', '24.39', '24.41', '24.42', '24.43', '24.44', '24.45', '24.46', '24.47', '24.48', '24.49', '24.5', '24.51', '24.52', '24.53', '24.54', '24.55', '24.56', '24.57', '24.58', '24.59', '24.6', '24.61', '24.62', '24.63', '24.64', '24.66', '24.67', '24.68', '24.69', '24.7', '24.71', '24.72', '24.73', '24.74', '24.75', '24.76', '24.77', '24.78', '24.79', '24.8', '24.81', '24.83', '24.84', '24.85', '24.86', '24.87', '24.88', '24.9', '24.91', '24.92', '24.93', '24.94', '24.95', '24.96', '24.97', '24.98', '24.99', '25', '25.01', '25.02', '25.03', '25.04', '25.05', '25.06', '25.08', '25.09', '25.1', '25.11', '25.13', '25.14', '25.15', '25.16', '25.17', '25.18', '25.19', '25.2', '25.21', '25.22', '25.23', '25.24', '25.25', '25.26', '25.27', '25.28', '25.29', '25.3', '25.31', '25.32', '25.34', '25.35', '25.36', '25.37', '25.38', '25.39', '25.4', '25.41', '25.42', '25.43', '25.44', '25.45', '25.46', '25.47', '25.48', '25.49', '25.5', '25.51', '25.52', '25.53', '25.54', '25.55', '25.56', '25.57', '25.58', '25.59', '25.6', '25.61', '25.62', '25.63', '25.64', '25.65', '25.66', '25.67', '25.68', '25.69', '25.7', '25.71', '25.72', '25.73', '25.74', '25.75', '25.76', '25.77', '25.78', '25.79', '25.81', '25.82', '25.83', '25.84', '25.85', '25.86', '25.87', '25.88', '25.9', '25.91', '25.92', '25.93', '25.94', '25.95', '25.96', '25.97', '25.98', '25.99', '26.01', '26.02', '26.03', '26.04', '26.05', '26.06', '26.07', '26.08', '26.09', '26.11', '26.12', '26.13', '26.15', '26.16', '26.17', '26.19', '26.2', '26.21', '26.22', '26.23', '26.24', '26.25', '26.26', '26.27', '26.28', '26.29', '26.3', '26.31', '26.32', '26.33', '26.34', '26.35', '26.36', '26.37', '26.38', '26.39', '26.4', '26.41', '26.43', '26.44', '26.45', '26.46', '26.47', '26.48', '26.49', '26.5', '26.51', '26.52', '26.53', '26.54', '26.55', '26.56', '26.57', '26.58', '26.59', '26.6', '26.61', '26.62', '26.63', '26.64', '26.65', '26.66', '26.67', '26.68', '26.69', '26.7', '26.71', '26.72', '26.73', '26.74', '26.75', '26.76', '26.77', '26.78', '26.79', '26.82', '26.83', '26.84', '26.85', '26.86', '26.87', '26.88', '26.89', '26.9', '26.91', '26.92', '26.93', '26.95', '26.96', '26.97', '26.98', '26.99', '27', '27.01', '27.02', '27.03', '27.04', '27.05', '27.06', '27.07', '27.08', '27.09', '27.1', '27.11', '27.12', '27.13', '27.14', '27.15', '27.16', '27.17', '27.18', '27.19', '27.2', '27.21', '27.22', '27.23', '27.24', '27.25', '27.26', '27.27', '27.28', '27.29', '27.3', '27.31', '27.32', '27.33', '27.35', '27.36', '27.37', '27.38', '27.39', '27.4', '27.41', '27.42', '27.43', '27.44', '27.45', '27.46', '27.47', '27.48', '27.49', '27.5', '27.51', '27.52', '27.54', '27.55', '27.56', '27.57', '27.58', '27.59', '27.6', '27.61', '27.62', '27.64', '27.65', '27.66', '27.67', '27.68', '27.69', '27.7', '27.71', '27.72', '27.73', '27.74', '27.75', '27.76', '27.77', '27.78', '27.79', '27.8', '27.81', '27.82', '27.83', '27.84', '27.85', '27.86', '27.87', '27.88', '27.89', '27.9', '27.91', '27.92', '27.93', '27.94', '27.95', '27.96', '27.97', '27.98', '27.99', '28.01', '28.02', '28.03', '28.04', '28.06', '28.07', '28.08', '28.09', '28.1', '28.11', '28.12', '28.13', '28.14', '28.15', '28.16', '28.17', '28.18', '28.19', '28.2', '28.21', '28.22', '28.23', '28.24', '28.25', '28.26', '28.27', '28.29', '28.3', '28.31', '28.32', '28.33', '28.34', '28.35', '28.36', '28.37', '28.38', '28.39', '28.41', '28.42', '28.43', '28.44', '28.45', '28.46', '28.47', '28.48', '28.49', '28.5', '28.54', '28.55', '28.56', '28.57', '28.58', '28.59', '28.6', '28.61', '28.62', '28.63', '28.64', '28.65', '28.66', '28.67', '28.68', '28.69', '28.7', '28.71', '28.72', '28.73', '28.74', '28.75', '28.76', '28.77', '28.78', '28.79', '28.8', '28.81', '28.82', '28.83', '28.84', '28.85', '28.87', '28.89', '28.9', '28.91', '28.92', '28.93', '28.94', '28.95', '28.96', '28.97', '28.98', '29', '29.01', '29.02', '29.03', '29.04', '29.05', '29.06', '29.08', '29.09', '29.1', '29.11', '29.12', '29.13', '29.14', '29.15', '29.16', '29.17', '29.18', '29.21', '29.22', '29.23', '29.24', '29.25', '29.26', '29.27', '29.28', '29.29', '29.3', '29.32', '29.33', '29.34', '29.35', '29.36', '29.37', '29.38', '29.39', '29.4', '29.41', '29.42', '29.43', '29.44', '29.46', '29.47', '29.48', '29.49', '29.5', '29.52', '29.53', '29.54', '29.55', '29.56', '29.57', '29.58', '29.59', '29.6', '29.61', '29.64', '29.65', '29.66', '29.67', '29.68', '29.69', '29.7', '29.71', '29.72', '29.73', '29.74', '29.75', '29.76', '29.77', '29.78', '29.79', '29.8', '29.81', '29.82', '29.83', '29.84', '29.85', '29.86', '29.87', '29.88', '29.89', '29.9', '29.91', '29.92', '29.93', '29.94', '29.95', '29.96', '29.97', '29.99', '3', '3.01', '3.02', '3.03', '3.05', '3.13', '3.18', '3.19', '3.21', '3.24', '3.3', '3.35', '3.4', '3.43', '3.45', '3.55', '3.56', '3.57', '3.58', '3.59', '3.61', '3.68', '3.72', '3.73', '3.76', '3.82', '3.86', '3.92', '3.93', '3.94', '3.96', '3.97', '3.98', '30', '30.01', '30.02', '30.03', '30.04', '30.05', '30.06', '30.07', '30.08', '30.09', '30.1', '30.11', '30.12', '30.13', '30.14', '30.15', '30.16', '30.17', '30.18', '30.19', '30.21', '30.22', '30.23', '30.24', '30.25', '30.26', '30.27', '30.28', '30.31', '30.32', '30.33', '30.35', '30.36', '30.37', '30.38', '30.39', '30.4', '30.41', '30.42', '30.43', '30.44', '30.45', '30.46', '30.47', '30.48', '30.5', '30.51', '30.52', '30.53', '30.55', '30.57', '30.58', '30.59', '30.61', '30.62', '30.63', '30.64', '30.65', '30.66', '30.67', '30.68', '30.69', '30.7', '30.72', '30.73', '30.74', '30.75', '30.76', '30.77', '30.78', '30.79', '30.8', '30.81', '30.84', '30.85', '30.86', '30.87', '30.88', '30.89', '30.9', '30.91', '30.92', '30.93', '30.95', '30.96', '30.97', '30.98', '30.99', '31.01', '31.02', '31.03', '31.04', '31.05', '31.06', '31.07', '31.08', '31.09', '31.1', '31.12', '31.13', '31.14', '31.15', '31.16', '31.17', '31.18', '31.19', '31.2', '31.21', '31.22', '31.23', '31.24', '31.25', '31.26', '31.27', '31.28', '31.29', '31.3', '31.31', '31.32', '31.33', '31.34', '31.35', '31.36', '31.37', '31.38', '31.39', '31.4', '31.41', '31.42', '31.43', '31.44', '31.45', '31.46', '31.47', '31.48', '31.49', '31.5', '31.52', '31.53', '31.55', '31.56', '31.57', '31.58', '31.59', '31.6', '31.61', '31.62', '31.63', '31.64', '31.65', '31.66', '31.67', '31.68', '31.69', '31.7', '31.71', '31.72', '31.73', '31.74', '31.75', '31.76', '31.78', '31.79', '31.8', '31.81', '31.82', '31.83', '31.84', '31.85', '31.86', '31.87', '31.88', '31.89', '31.9', '31.91', '31.92', '31.93', '31.94', '31.96', '31.97', '31.98', '31.99', '32', '32.01', '32.02', '32.03', '32.04', '32.05', '32.06', '32.07', '32.08', '32.1', '32.12', '32.13', '32.14', '32.15', '32.16', '32.17', '32.18', '32.19', '32.2', '32.21', '32.22', '32.23', '32.24', '32.25', '32.26', '32.27', '32.28', '32.29', '32.3', '32.31', '32.32', '32.33', '32.34', '32.35', '32.36', '32.37', '32.38', '32.39', '32.4', '32.41', '32.42', '32.43', '32.44', '32.45', '32.46', '32.47', '32.48', '32.49', '32.5', '32.51', '32.52', '32.53', '32.54', '32.55', '32.56', '32.57', '32.59', '32.61', '32.62', '32.63', '32.64', '32.65', '32.66', '32.67', '32.68', '32.69', '32.7', '32.72', '32.73', '32.74', '32.75', '32.76', '32.77', '32.78', '32.79', '32.8', '32.81', '32.82', '32.83', '32.84', '32.85', '32.86', '32.87', '32.88', '32.89', '32.9', '32.91', '32.92', '32.93', '32.94', '32.95', '32.96', '32.97', '32.98', '32.99', '33', '33.01', '33.02', '33.03', '33.06', '33.07', '33.09', '33.1', '33.11', '33.12', '33.13', '33.14', '33.15', '33.16', '33.17', '33.18', '33.19', '33.21', '33.22', '33.23', '33.24', '33.25', '33.26', '33.27', '33.28', '33.3', '33.31', '33.32', '33.33', '33.34', '33.36', '33.37', '33.38', '33.39', '33.4', '33.41', '33.42', '33.43', '33.44', '33.45', '33.46', '33.47', '33.48', '33.49', '33.5', '33.51', '33.52', '33.54', '33.55', '33.56', '33.57', '33.58', '33.59', '33.6', '33.61', '33.62', '33.63', '33.64', '33.65', '33.66', '33.67', '33.68', '33.7', '33.71', '33.72', '33.73', '33.74', '33.75', '33.76', '33.77', '33.78', '33.81', '33.82', '33.83', '33.84', '33.86', '33.87', '33.88', '33.89', '33.9', '33.91', '33.92', '33.93', '33.94', '33.95', '33.96', '33.97', '33.98', '33.99', '34', '34.01', '34.02', '34.03', '34.04', '34.05', '34.06', '34.07', '34.08', '34.09', '34.1', '34.11', '34.12', '34.13', '34.14', '34.15', '34.16', '34.17', '34.18', '34.19', '34.2', '34.21', '34.23', '34.24', '34.25', '34.26', '34.27', '34.28', '34.29', '34.3', '34.31', '34.32', '34.33', '34.34', '34.35', '34.37', '34.38', '34.39', '34.4', '34.41', '34.43', '34.44', '34.45', '34.46', '34.47', '34.48', '34.49', '34.5', '34.51', '34.52', '34.53', '34.54', '34.55', '34.56', '34.57', '34.58', '34.59', '34.6', '34.61', '34.62', '34.63', '34.65', '34.67', '34.68', '34.7', '34.71', '34.72', '34.73', '34.74', '34.75', '34.76', '34.77', '34.78', '34.79', '34.8', '34.82', '34.83', '34.84', '34.85', '34.86', '34.87', '34.89', '34.93', '34.94', '34.95', '34.97', '34.98', '34.99', '35', '35.01', '35.02', '35.03', '35.04', '35.05', '35.06', '35.07', '35.08', '35.1', '35.11', '35.12', '35.13', '35.14', '35.15', '35.16', '35.18', '35.19', '35.2', '35.21', '35.22', '35.23', '35.24', '35.25', '35.26', '35.27', '35.28', '35.29', '35.3', '35.31', '35.32', '35.33', '35.34', '35.35', '35.36', '35.37', '35.38', '35.39', '35.4', '35.41', '35.42', '35.43', '35.44', '35.45', '35.47', '35.48', '35.49', '35.5', '35.51', '35.53', '35.54', '35.55', '35.56', '35.58', '35.59', '35.6', '35.61', '35.62', '35.63', '35.64', '35.65', '35.66', '35.67', '35.68', '35.69', '35.7', '35.71', '35.72', '35.73', '35.74', '35.75', '35.76', '35.78', '35.79', '35.8', '35.81', '35.82', '35.83', '35.84', '35.85', '35.86', '35.88', '35.89', '35.9', '35.91', '35.92', '35.93', '35.94', '35.95', '35.96', '35.97', '35.98', '35.99', '36', '36.01', '36.02', '36.03', '36.04', '36.05', '36.06', '36.07', '36.09', '36.1', '36.11', '36.12', '36.13', '36.15', '36.16', '36.18', '36.2', '36.21', '36.23', '36.24', '36.26', '36.27', '36.28', '36.29', '36.3', '36.31', '36.32', '36.33', '36.34', '36.35', '36.36', '36.37', '36.38', '36.39', '36.4', '36.42', '36.43', '36.44', '36.45', '36.46', '36.47', '36.48', '36.49', '36.5', '36.52', '36.53', '36.54', '36.55', '36.56', '36.57', '36.58', '36.59', '36.6', '36.61', '36.62', '36.63', '36.64', '36.65', '36.66', '36.67', '36.68', '36.69', '36.7', '36.71', '36.72', '36.73', '36.74', '36.75', '36.76', '36.78', '36.79', '36.8', '36.81', '36.82', '36.83', '36.84', '36.85', '36.86', '36.87', '36.88', '36.89', '36.9', '36.91', '36.92', '36.93', '36.94', '36.96', '36.97', '36.98', '36.99', '37.01', '37.02', '37.03', '37.04', '37.06', '37.07', '37.08', '37.09', '37.1', '37.11', '37.12', '37.13', '37.14', '37.15', '37.16', '37.17', '37.18', '37.19', '37.2', '37.21', '37.22', '37.23', '37.24', '37.25', '37.26', '37.27', '37.28', '37.29', '37.3', '37.31', '37.32', '37.33', '37.35', '37.36', '37.38', '37.39', '37.4', '37.41', '37.42', '37.43', '37.44', '37.45', '37.46', '37.47', '37.48', '37.49', '37.5', '37.51', '37.52', '37.53', '37.54', '37.55', '37.56', '37.57', '37.58', '37.59', '37.6', '37.61', '37.62', '37.63', '37.64', '37.66', '37.68', '37.69', '37.7', '37.71', '37.72', '37.73', '37.74', '37.75', '37.76', '37.77', '37.79', '37.8', '37.81', '37.82', '37.83', '37.84', '37.85', '37.86', '37.88', '37.89', '37.9', '37.92', '37.93', '37.94', '37.95', '37.96', '37.97', '37.98', '37.99', '38.01', '38.02', '38.03', '38.04', '38.05', '38.06', '38.07', '38.08', '38.09', '38.1', '38.11', '38.12', '38.14', '38.15', '38.16', '38.17', '38.18', '38.19', '38.2', '38.21', '38.22', '38.23', '38.24', '38.25', '38.26', '38.27', '38.28', '38.29', '38.3', '38.31', '38.32', '38.33', '38.34', '38.36', '38.38', '38.39', '38.4', '38.41', '38.42', '38.44', '38.46', '38.47', '38.48', '38.49', '38.5', '38.51', '38.52', '38.53', '38.55', '38.56', '38.57', '38.59', '38.6', '38.61', '38.62', '38.63', '38.64', '38.66', '38.67', '38.68', '38.69', '38.7', '38.71', '38.72', '38.73', '38.74', '38.75', '38.77', '38.78', '38.79', '38.8', '38.81', '38.82', '38.83', '38.84', '38.85', '38.86', '38.87', '38.88', '38.89', '38.9', '38.91', '38.92', '38.93', '38.94', '38.95', '38.96', '38.97', '38.99', '39', '39.01', '39.02', '39.03', '39.04', '39.05', '39.06', '39.07', '39.08', '39.09', '39.1', '39.11', '39.12', '39.13', '39.14', '39.15', '39.16', '39.18', '39.19', '39.2', '39.21', '39.22', '39.24', '39.25', '39.26', '39.27', '39.28', '39.29', '39.3', '39.31', '39.32', '39.33', '39.34', '39.35', '39.36', '39.37', '39.38', '39.39', '39.41', '39.42', '39.43', '39.44', '39.45', '39.46', '39.47', '39.48', '39.49', '39.5', '39.51', '39.52', '39.53', '39.54', '39.55', '39.56', '39.57', '39.58', '39.59', '39.6', '39.61', '39.62', '39.63', '39.64', '39.65', '39.67', '39.68', '39.69', '39.7', '39.71', '39.73', '39.74', '39.75', '39.76', '39.77', '39.78', '39.79', '39.81', '39.82', '39.83', '39.84', '39.85', '39.86', '39.87', '39.88', '39.89', '39.9', '39.93', '39.94', '39.95', '39.96', '39.97', '39.98', '39.99', '4.02', '4.04', '4.05', '4.06', '4.12', '4.14', '4.15', '4.16', '4.21', '4.23', '4.25', '4.26', '4.28', '4.32', '4.33', '4.35', '4.39', '4.41', '4.42', '4.43', '4.44', '4.47', '4.5', '4.52', '4.54', '4.55', '4.56', '4.6', '4.61', '4.62', '4.63', '4.64', '4.66', '4.67', '4.71', '4.72', '4.73', '4.76', '4.78', '4.79', '4.8', '4.81', '4.83', '4.85', '4.86', '4.87', '4.88', '4.9', '4.92', '4.96', '4.98', '4.99', '40', '40.01', '40.02', '40.03', '40.04', '40.05', '40.07', '40.08', '40.1', '40.11', '40.12', '40.13', '40.14', '40.15', '40.16', '40.17', '40.19', '40.2', '40.22', '40.23', '40.24', '40.25', '40.26', '40.27', '40.28', '40.3', '40.31', '40.32', '40.33', '40.34', '40.35', '40.36', '40.37', '40.39', '40.4', '40.41', '40.42', '40.43', '40.44', '40.45', '40.46', '40.47', '40.48', '40.49', '40.5', '40.51', '40.52', '40.53', '40.54', '40.55', '40.56', '40.57', '40.59', '40.6', '40.61', '40.63', '40.64', '40.65', '40.66', '40.67', '40.68', '40.69', '40.7', '40.71', '40.72', '40.73', '40.74', '40.75', '40.76', '40.77', '40.78', '40.8', '40.81', '40.82', '40.83', '40.84', '40.85', '40.86', '40.87', '40.88', '40.89', '40.9', '40.91', '40.92', '40.93', '40.94', '40.95', '40.96', '40.97', '40.98', '41', '41.01', '41.02', '41.03', '41.04', '41.05', '41.06', '41.07', '41.09', '41.1', '41.11', '41.12', '41.13', '41.14', '41.15', '41.16', '41.17', '41.18', '41.19', '41.2', '41.21', '41.22', '41.23', '41.24', '41.25', '41.26', '41.27', '41.28', '41.29', '41.3', '41.31', '41.32', '41.33', '41.34', '41.35', '41.36', '41.38', '41.39', '41.4', '41.41', '41.42', '41.44', '41.46', '41.47', '41.48', '41.49', '41.5', '41.51', '41.52', '41.53', '41.54', '41.55', '41.56', '41.57', '41.58', '41.59', '41.6', '41.61', '41.62', '41.63', '41.64', '41.65', '41.66', '41.67', '41.68', '41.69', '41.7', '41.72', '41.73', '41.74', '41.75', '41.76', '41.77', '41.78', '41.79', '41.8', '41.81', '41.82', '41.83', '41.84', '41.85', '41.86', '41.87', '41.88', '41.89', '41.9', '41.91', '41.92', '41.93', '41.96', '41.98', '41.99', '42', '42.01', '42.02', '42.03', '42.05', '42.06', '42.07', '42.08', '42.09', '42.11', '42.12', '42.13', '42.15', '42.16', '42.17', '42.18', '42.19', '42.21', '42.22', '42.23', '42.26', '42.27', '42.28', '42.29', '42.3', '42.31', '42.32', '42.33', '42.34', '42.35', '42.36', '42.37', '42.38', '42.39', '42.4', '42.43', '42.45', '42.46', '42.47', '42.48', '42.49', '42.5', '42.51', '42.52', '42.53', '42.54', '42.55', '42.56', '42.57', '42.58', '42.59', '42.6', '42.61', '42.62', '42.63', '42.65', '42.66', '42.67', '42.68', '42.69', '42.7', '42.72', '42.73', '42.74', '42.75', '42.76', '42.77', '42.78', '42.79', '42.8', '42.81', '42.82', '42.84', '42.85', '42.86', '42.87', '42.88', '42.89', '42.9', '42.91', '42.92', '42.93', '42.94', '42.95', '42.96', '42.97', '42.98', '42.99', '43', '43.01', '43.02', '43.03', '43.04', '43.05', '43.06', '43.07', '43.08', '43.1', '43.11', '43.12', '43.13', '43.14', '43.15', '43.16', '43.17', '43.18', '43.19', '43.2', '43.21', '43.22', '43.23', '43.25', '43.26', '43.27', '43.28', '43.29', '43.3', '43.31', '43.32', '43.33', '43.34', '43.35', '43.36', '43.37', '43.38', '43.39', '43.4', '43.41', '43.42', '43.43', '43.44', '43.45', '43.46', '43.49', '43.5', '43.52', '43.53', '43.54', '43.55', '43.56', '43.57', '43.58', '43.59', '43.6', '43.61', '43.62', '43.63', '43.64', '43.65', '43.67', '43.68', '43.69', '43.7', '43.71', '43.72', '43.73', '43.74', '43.75', '43.76', '43.77', '43.78', '43.79', '43.81', '43.82', '43.83', '43.84', '43.85', '43.87', '43.88', '43.89', '43.9', '43.91', '43.93', '43.94', '43.95', '43.96', '43.97', '43.98', '43.99', '44', '44.01', '44.02', '44.03', '44.04', '44.05', '44.06', '44.08', '44.09', '44.1', '44.12', '44.14', '44.15', '44.16', '44.17', '44.18', '44.2', '44.22', '44.24', '44.25', '44.27', '44.28', '44.29', '44.3', '44.31', '44.32', '44.33', '44.34', '44.35', '44.36', '44.37', '44.38', '44.39', '44.4', '44.41', '44.42', '44.43', '44.44', '44.45', '44.46', '44.47', '44.48', '44.49', '44.5', '44.51', '44.52', '44.54', '44.55', '44.56', '44.57', '44.58', '44.59', '44.6', '44.61', '44.62', '44.63', '44.65', '44.66', '44.67', '44.68', '44.69', '44.7', '44.71', '44.72', '44.73', '44.74', '44.75', '44.76', '44.77', '44.78', '44.79', '44.8', '44.81', '44.82', '44.83', '44.84', '44.85', '44.86', '44.87', '44.88', '44.89', '44.9', '44.92', '44.93', '44.96', '44.97', '44.98', '44.99', '45.01', '45.04', '45.06', '45.07', '45.08', '45.09', '45.1', '45.11', '45.12', '45.13', '45.14', '45.15', '45.16', '45.17', '45.18', '45.19', '45.2', '45.22', '45.23', '45.24', '45.25', '45.27', '45.3', '45.32', '45.33', '45.34', '45.35', '45.36', '45.37', '45.38', '45.39', '45.4', '45.41', '45.42', '45.43', '45.44', '45.45', '45.46', '45.47', '45.48', '45.5', '45.51', '45.52', '45.53', '45.54', '45.55', '45.57', '45.58', '45.59', '45.6', '45.61', '45.62', '45.64', '45.65', '45.66', '45.67', '45.68', '45.69', '45.7', '45.71', '45.73', '45.74', '45.75', '45.76', '45.77', '45.78', '45.79', '45.8', '45.82', '45.83', '45.84', '45.85', '45.86', '45.88', '45.89', '45.9', '45.92', '45.93', '45.94', '45.95', '45.96', '45.97', '45.99', '46', '46.01', '46.02', '46.03', '46.04', '46.05', '46.06', '46.07', '46.08', '46.09', '46.1', '46.11', '46.12', '46.13', '46.14', '46.15', '46.16', '46.17', '46.18', '46.19', '46.21', '46.22', '46.24', '46.25', '46.26', '46.27', '46.28', '46.29', '46.3', '46.31', '46.32', '46.33', '46.34', '46.35', '46.36', '46.37', '46.38', '46.4', '46.41', '46.42', '46.43', '46.44', '46.45', '46.46', '46.47', '46.48', '46.49', '46.5', '46.51', '46.52', '46.53', '46.54', '46.55', '46.56', '46.57', '46.58', '46.59', '46.6', '46.62', '46.65', '46.67', '46.68', '46.69', '46.7', '46.71', '46.72', '46.73', '46.76', '46.77', '46.78', '46.79', '46.8', '46.81', '46.82', '46.83', '46.84', '46.85', '46.86', '46.87', '46.88', '46.89', '46.9', '46.91', '46.93', '46.95', '46.96', '46.97', '46.98', '46.99', '47', '47.01', '47.02', '47.03', '47.04', '47.05', '47.06', '47.07', '47.08', '47.09', '47.1', '47.11', '47.13', '47.14', '47.15', '47.16', '47.17', '47.18', '47.19', '47.2', '47.21', '47.22', '47.23', '47.24', '47.25', '47.26', '47.27', '47.29', '47.3', '47.31', '47.32', '47.33', '47.37', '47.38', '47.4', '47.41', '47.42', '47.43', '47.44', '47.45', '47.46', '47.47', '47.5', '47.52', '47.53', '47.54', '47.56', '47.58', '47.59', '47.61', '47.62', '47.63', '47.64', '47.65', '47.67', '47.68', '47.69', '47.7', '47.71', '47.72', '47.73', '47.74', '47.75', '47.76', '47.78', '47.79', '47.8', '47.81', '47.82', '47.83', '47.84', '47.85', '47.86', '47.88', '47.89', '47.9', '47.91', '47.92', '47.93', '47.94', '47.95', '47.96', '47.97', '47.98', '47.99', '48', '48.02', '48.03', '48.04', '48.05', '48.06', '48.08', '48.09', '48.1', '48.11', '48.13', '48.15', '48.16', '48.18', '48.19', '48.2', '48.21', '48.22', '48.23', '48.25', '48.26', '48.27', '48.3', '48.31', '48.32', '48.33', '48.34', '48.35', '48.36', '48.37', '48.38', '48.41', '48.42', '48.43', '48.44', '48.45', '48.46', '48.47', '48.48', '48.5', '48.52', '48.53', '48.55', '48.57', '48.58', '48.59', '48.61', '48.62', '48.63', '48.64', '48.65', '48.66', '48.67', '48.68', '48.69', '48.7', '48.71', '48.72', '48.73', '48.74', '48.75', '48.77', '48.78', '48.79', '48.81', '48.82', '48.84', '48.85', '48.86', '48.87', '48.88', '48.89', '48.92', '48.93', '48.94', '48.96', '48.97', '48.98', '48.99', '49', '49.02', '49.03', '49.04', '49.05', '49.06', '49.07', '49.08', '49.09', '49.1', '49.11', '49.12', '49.13', '49.14', '49.15', '49.16', '49.17', '49.18', '49.19', '49.2', '49.21', '49.22', '49.23', '49.24', '49.25', '49.26', '49.27', '49.28', '49.29', '49.3', '49.32', '49.33', '49.34', '49.35', '49.36', '49.37', '49.38', '49.4', '49.41', '49.42', '49.43', '49.44', '49.45', '49.46', '49.47', '49.48', '49.51', '49.52', '49.53', '49.55', '49.56', '49.58', '49.6', '49.61', '49.62', '49.63', '49.64', '49.65', '49.66', '49.67', '49.68', '49.69', '49.7', '49.71', '49.72', '49.73', '49.74', '49.75', '49.76', '49.77', '49.78', '49.79', '49.8', '49.81', '49.84', '49.85', '49.86', '49.87', '49.88', '49.89', '49.9', '49.91', '49.92', '49.94', '49.95', '49.96', </t>
         </is>
@@ -928,18 +981,26 @@
       <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9993.99</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>3058</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>51122</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>4932</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['0', '0.25', '10.9', '100', '1000', '10000', '10005.8', '10006', '10011.6', '10012.95', '10018.8', '10020', '10021.75', '10022.6', '10025', '10027.35', '1003.75', '10030', '10031', '10035', '10035.4', '10036', '10036.11', '10040', '10045', '10045.05', '10049.11', '10050', '10051.7', '10055', '10057', '10057.85', '10058.3', '10060', '10063.6', '10065', '10066.15', '10070', '10079.37', '10079.81', '10080', '10080.02', '10083.3', '10084.6', '10085', '10085.24', '10085.3', '10086.25', '10087', '10090', '10096', '10100', '10100.4', '10101.7', '10103.88', '10105', '10107.15', '10110', '10112.7', '10120', '10121.4', '10124.58', '10125', '10135', '10139', '10140', '10140.8', '10145', '10145.45', '1015', '10150', '10152.15', '10152.7', '10155', '10157.35', '10160', '10161.37', '10162.12', '10163.95', '10165.75', '10169', '10170', '10171', '10175', '1018', '1018.51', '10180', '10184.55', '10187.8', '10190.8', '102.85', '1020', '10200', '10201.2', '10205', '10205.35', '10206', '10211.75', '10215.92', '10220', '10220.14', '10224.45', '10225.28', '10229', '10230', '10231', '10234', '10234.16', '10239', '10240', '10240.41', '1025', '10250', '10252.99', '10257.3', '10259.9', '10261.95', '10265.7', '10270', '10273', '10275', '10282', '10282.42', '10290', '10291.8', '10292', '10292.5', '10294.95', '10299.37', '1030', '1030.86', '10300', '10301.57', '10304', '10304.92', '10307.7', '10310', '10310.4', '10311', '10318.88', '10322.36', '10322.9', '10326', '10326.35', '10326.7', '10329.1', '10329.55', '1033', '10330', '10332.16', '10339.34', '10339.66', '10340', '10340.4', '10340.8', '10345.88', '10346.7', '10349', '10350', '10358.06', '10360', '10361.7', '10370.2', '10374.1', '10377.06', '10380', '10384.45', '1039.11', '10390.8', '1040', '10400', '10400.71', '10408.84', '10412.26', '10415', '10417', '10417.29', '10419.4', '10420', '10427', '10428.59', '1043', '10432', '10435', '10438.93', '10439.94', '1044.72', '10440', '10440.1', '10443.33', '10443.93', '10445.16', '10452.1', '10457.88', '10465', '10466.24', '10468.5', '10471.4', '10471.7', '10472.92', '10478.83', '10479', '1049.95', '10495', '10497.1', '10498', '10498.75', '10499.95', '10499.99', '1050', '10500', '10500.01', '10509.75', '10513.4', '10517', '10517.2', '10518', '10518.03', '10520.3', '10520.8', '10525', '10526.78', '10530', '10530.5', '10533', '10533.55', '10537', '10537.91', '1054.07', '10540', '10541', '10544', '10545.41', '10545.94', '10550', '10556.8', '10557', '10566', '10570', '10575', '10575.24', '10578.79', '10579', '10580', '10582.99', '10586.6', '10589.79', '10590.2', '10594', '10596.79', '10596.92', '10599', '1060', '10600', '10605', '10605.4', '10612.5', '10619.85', '10630', '10630.3', '10631.66', '10639', '1064', '10641.4', '10642', '10644.7', '1065', '10653.25', '10656.36', '10658.45', '1066.4', '10660', '10661', '10661.55', '10662', '10664.64', '10665', '10665.21', '10667.45', '10672.7', '10674.3', '10678', '10682.85', '10683.04', '1069.2', '10690', '10691.75', '10700', '10702.68', '10711.36', '10720.41', '10721.9', '10723.24', '10727', '10732', '10738.8', '10746', '10748.24', '10750', '10752.14', '10755.25', '10756.97', '10759', '10764.44', '10764.57', '10770.1', '10775.09', '10778.41', '10786.4', '10787.1', '10788.32', '10790', '10794.4', '10795.95', '10798', '1080', '10806.6', '10806.82', '10807.4', '10810.4', '10811.3', '10818', '10820.1', '10821.99', '10822.02', '1083.5', '10832.4', '10832.69', '10833.1', '10833.84', '10835.2', '10848.49', '10857.22', '10862.3', '10863.65', '10865', '10867', '10875.62', '10877', '10881.22', '10884.1', '10890', '10893.6', '10897.23', '10898.2', '1090', '10900', '10901.55', '10905.7', '10905.95', '10908.85', '10909.45', '10915', '10923.85', '10924', '10933', '10935', '10937.14', '10939', '10948', '10949.9', '10953.48', '10955', '10957.04', '10964.65', '1097', '1099', '10990', '10997', '10997.52', '10998.52', '1100', '11000', '11001.04', '11002.78', '11011.55', '11016.4', '11017', '11019.05', '11021.19', '11025.64', '1103', '11032', '11036.55', '11042.8', '11049.83', '1106.49', '11060.95', '11069.2', '1107.55', '11077', '11079.28', '1108.5', '1108.8', '11080', '1109.98', '11092.34', '1110', '11104.95', '11108.8', '11117.43', '11122', '11122.35', '11139.36', '11144.01', '11144.39', '11145.17', '11145.7', '1115', '11153.16', '11163.55', '11165.8', '11169.96', '11170', '11195.1', '1120', '11200', '11201.14', '11203.6', '11207.5', '11212', '11214.5', '11218.29', '11224', '11224.8', '11233.8', '11244.85', '11246.78', '11246.95', '11247.72', '11249.9', '1125.7', '11250.28', '11259.16', '11259.98', '1126.4', '11260', '11266.8', '11276.74', '11295', '11299', '11299.65', '1130', '11300', '11301', '11302.2', '11304', '11307.25', '11315.35', '11322.7', '11328', '1134', '11340.45', '11344.46', '11345.98', '11346.22', '11354.02', '1136', '11362.55', '11366.12', '11367', '11372', '11385.28', '11389.3', '11390', '11394.1', '11395.9', '11400', '11403.39', '11409.5', '11410', '11410.5', '11413.72', '11420.6', '11430', '11450', '11451.09', '11452.3', '11454.9', '11467.66', '11469', '1147.25', '11470.25', '11477', '1148.65', '11481.35', '11482.47', '11483.5', '11484.35', '11484.93', '11485.2', '11490', '11491', '11495', '11496.68', '11498.5', '1150', '11500', '11511.75', '11521.35', '11525.5', '11525.85', '11530', '11538.04', '11545', '11555.6', '11558.5', '11560', '11570.1', '11575.26', '11583.1', '1160', '11603.38', '11608.8', '11612', '11613.2', '11616.14', '11619.6', '11620', '11634.95', '11643.98', '11649.72', '1165.4', '11650', '11659.66', '11666.15', '11666.87', '11673.8', '11675.89', '11676.15', '11680.4', '1170', '11700', '11701.6', '11702.95', '11710', '11711.94', '11715', '1173.62', '11731.16', '11736.66', '11738', '11742.9', '11746.92', '11757.37', '11758.69', '11769.59', '11770', '11772.58', '11779.1', '11782', '11788', '11791.91', '11793.46', '1180', '11800', '11807.22', '11807.47', '11810', '11814.49', '11828.39', '11829.5', '11830.76', '11830.89', '11832.14', '11836.2', '11836.56', '11838.67', '11842.9', '11847.6', '11848', '1185', '11860.08', '11862.22', '11862.24', '11870', '11872.15', '11878', '11879.9', '11883.76', '11888.7', '11890', '11900.31', '11902', '11907.45', '11909.1', '11909.15', '11918', '11927', '11927.7', '11938.4', '11940', '11940.53', '11946.27', '11946.81', '11948.6', '11948.8', '11949.94', '1195', '11954.2', '11965.5', '11965.75', '11969.72', '1197.14', '11972.8', '11973.79', '1199', '1200', '12000', '12005.67', '12013.91', '12018.04', '12022.25', '12024.76', '1203.2', '12030', '12034.44', '1204.7', '12044', '12049', '1205', '12050.08', '12051.85', '12053.57', '12057.18', '12064.08', '12064.3', '12067.05', '12068.6', '12077.35', '12078.89', '12080.3', '12085.6', '12087', '12087.1', '12104.95', '12108', '12108.8', '12110.79', '12116.2', '12119.2', '12127', '1213.05', '12130.95', '12137.19', '12138.71', '1214.78', '12143.82', '12144.11', '12145.7', '12152.07', '12165.1', '12180', '12184.25', '12185.22', '1219.7', '1220', '12200', '12201.5', '12210.66', '12217.6', '12219.23', '12225.6', '1223.01', '12230', '12243.34', '12244', '12250', '12253.32', '12255.75', '12256.86', '12259.85', '12261.14', '12270', '12270.4', '12271.7', '12272.6', '12275.19', '12277.5', '12284.99', '1229', '12294.16', '12300', '12303.25', '12306.15', '12307.45', '12310.78', '12317.6', '12318.38', '12319.48', '12327.6', '12333.25', '12337.6', '1234.86', '12348', '1235.7', '12382.9', '12385', '12389.75', '1239.51', '12394', '12396.08', '12397', '12400', '12401.6', '12404.63', '12410', '12423', '12424.8', '12432.58', '12440', '12442.25', '12448.73', '1245.25', '12450', '12456.15', '12457.6', '12460', '12464', '12464.46', '12474', '12479.02', '12488.85', '12489.48', '12496.8', '1250', '1250.76', '12500', '12502.36', '12504.97', '12507.25', '12507.5', '12515.06', '12516.96', '12522.61', '12527.45', '1253.55', '12531.9', '12532.5', '12539.35', '1254', '12542.15', '12542.44', '12544', '1255', '12550', '12551', '12552.78', '12556', '12559.86', '12562.42', '12562.96', '1258.8', '12591.6', '12592.63', '12596.82', '1260', '12600.25', '12605.54', '12607.66', '12608.56', '12612', '12617', '12617.5', '12618', '12621.12', '12630', '12634.9', '12637.6', '12637.78', '12641.72', '12643.6', '12654.45', '12658.05', '1266.5', '12661.15', '12664.41', '12670.5', '12673.68', '12676.8', '12677', '12685.91', '12693.16', '12700', '12709.18', '1271.59', '12712.6', '12714.6', '12716.35', '12717.6', '1272', '12725', '12726.64', '12728', '1274', '12747.12', '12756.2', '12770', '12776.39', '12778.65', '12789.75', '12790.17', '12796', '1280', '12800', '12801.47', '12832.3', '12834.55', '12835.6', '12838.58', '12849.85', '1285.71', '1285.83', '12850', '12856.02', '12860', '12877.1', '12878.8', '1288.68', '12883.1', '12883.51', '12889.85', '12891.1', '12900', '12906.97', '12907.6', '12908.55', '12918.06', '12919.57', '12921.21', '12929.73', '12933.4', '12940.92', '12941.44', '12944.4', '1295.95', '12950', '12950.1', '12951.36', '12954', '12979.74', '12983', '12990.25', '12999.15', '1300', '13000', '13001.38', '13003', '13009.5', '1301', '13013', '13018.12', '13022.26', '13031.73', '13032.77', '13033.26', '13044', '13046', '1305', '13050', '13051.78', '13052', '13052.15', '13058.5', '13059.5', '13068.4', '13069.03', '13072.25', '13082.27', '13082.95', '13087.28', '13087.89', '13093.92', '1310', '13100', '13100.88', '13105.9', '13108.88', '13111.1', '1312.76', '13120', '13124.2', '1314', '1314.51', '1315', '1315.85', '13157.5', '13166.5', '1317.75', '1319.5', '13190.4', '13195', '1320', '13200', '13212.3', '13213.15', '13216', '13217.45', '13223.3', '1323.2', '1323.7', '13230.26', '13233.8', '1325', '1325.7', '13261.03', '13266.2', '1327.9', '13281.96', '13286.6', '1329', '1329.95', '13291.2', '13295.2', '1330', '1330.2', '13300', '13313.53', '13314.81', '13315.13', '1332', '13329.95', '1333', '13331.31', '13331.55', '13333.29', '13335.11', '13341.1', '13341.44', '1335', '1336.4', '1336.7', '13370.88', '13379', '13380.3', '1339.8', '13392.85', '13396.52', '1340', '13400', '13416.4', '1343', '13431.95', '13439.68', '13440', '13447.96', '13448.98', '1345', '1345.8', '13450', '13451.6', '13453.26', '13463.2', '1347.7', '13488.91', '13496', '1350', '13500', '13508.72', '13522.64', '13528.85', '13535.65', '13540.55', '1355', '1355.96', '13560', '13562.1', '1357.25', '1358', '13581.42', '13581.45', '13586', '1360', '1360.8', '13601.95', '13619.09', '1362.2', '1363.2', '1363.3', '13630', '13638.5', '13639.95', '1364', '1365', '13656.5', '1366', '13664.31', '13669.47', '1367.85', '13676.01', '1368.3', '13699.15', '1370', '13705', '13708.25', '13719.58', '1372', '1372.16', '13720', '13725.6', '1373.05', '1373.1', '1374.9', '13741.7', '13744.65', '13746', '13747.79', '1375', '13762', '13781.1', '13791.26', '13794', '1380', '13800', '13813.45', '13815.42', '13816.45', '1382.78', '13822.07', '13827.57', '13829.27', '13829.42', '13841.79', '13842.8', '1385', '13850.73', '13859', '1386.64', '13873.35', '13874', '13876.5', '1388', '1389', '1389.55', '1389.9', '1389.95', '13890.51', '13892.5', '13896.93', '1390', '13900.92', '13903', '13906.1', '13918.15', '1392', '1393.32', '13939.9', '13942.5', '13946.55', '1395', '13950.05', '13950.8', '13968.5', '1399', '13991.68', '13991.8', '1400', '14000', '14009.45', '1401.68', '14014.65', '14017.6', '14026.2', '1403.3', '1405', '1405.9', '14055.12', '1407.95', '14082.95', '1409.6', '14096', '1410', '14109.65', '14123', '14128.93', '14134.74', '14135.35', '14146.09', '14147.76', '14158.19', '14169', '14177.65', '14186.05', '1419', '1419.84', '14190.25', '14196', '1420', '14225.35', '14226.75', '14227.9', '14239.25', '1425', '1425.6', '14250', '14273.18', '14282.56', '1429.56', '14292.48', '1430', '14304.54', '14310', '14312.6', '14315.94', '14322.02', '14326.75', '14333.61', '14334', '14345.14', '1435', '14350', '14357.19', '1436.72', '14361', '1437.7', '1438.5', '14388.57', '1439', '1439.95', '14394.95', '144.6', '1440', '1440.4', '14400', '14402.6', '14407.18', '14408.05', '1441.14', '14416.9', '14419.28', '14448.55', '1445.19', '14458.8', '1446.4', '14473.82', '14475.2', '1448', '14485', '14486.35', '1449.06', '14490', '14496.7', '1450', '1450.15', '14500', '14500.77', '14502.74', '14503.46', '14506.28', '14519.1', '1452.25', '1452.87', '14526.65', '14533.9', '14544.22', '1455', '14566.4', '14568.85', '14569.49', '14571', '14571.1', '14571.16', '14577.75', '14578.54', '14579.25', '14583', '1459.17', '14598.2', '1460', '1460.49', '14600.2', '14610.2', '14614', '14625', '14626.9', '14627.42', '1463.6', '14633.9', '14634.46', '14639.63', '1464.42', '14640', '14647.78', '14648.82', '1465', '14655', '14667.5', '1467.22', '14677.92', '14679.93', '1468.2', '1469.2', '14693', '14694.74', '14694.8', '1470', '14705', '1472.4', '14736.84', '14737.8', '14741.08', '14743.1', '14743.65', '14744.93', '14746.5', '1475', '14756.2', '1477.7', '14772.6', '14777.16', '1479', '1480', '14800', '14802.07', '14803.04', '14806.7', '14807', '14810', '14820', '14821.42', '14837.42', '14838.12', '14838.7', '14841', '1485', '1485.32', '14866.32', '14868.88', '1487.5', '14871.49', '14873.49', '14875.35', '1488', '14881.57', '1489', '14899.34', '1490', '14907.92', '1491.74', '1491.78', '14911.07', '14932.85', '14940.82', '14944.8', '1495', '14955.3', '14960.5', '14975', '1500', '15000', '15006', '15014.48', '15014.94', '15019.25', '15025', '15028.41', '1503', '15031.3', '15037.95', '15041', '1505', '15051.24', '15052', '15054.68', '1506.7', '15071', '1508.8', '15080', '15083.86', '15087', '15098.49', '15098.86', '1510', '1510.4', '1511.6', '1511.94', '15114.7', '15132.19', '1514.5', '15141.2', '1515', '1515.4', '15154.95', '15155.47', '15156.21', '15164.9', '15179.55', '15181.15', '15181.41', '1519.52', '15190', '1520', '1520.26', '1520.27', '15205', '15214.79', '1522.66', '15221.46', '15222.29', '15240.05', '15240.52', '1525', '15252.02', '15259.92', '1526', '15265.5', '1527.4', '1528.7', '15285.02', '15286', '15289.38', '15293.63', '1530', '1532.02', '15325', '15335', '1535', '1535.2', '1537.09', '1537.5', '1538', '1538.38', '1539.85', '15393', '15398.59', '1540', '15401', '15430.19', '15441.5', '15455.36', '15459.33', '1546.56', '15460', '15494.19', '15495.21', '15496', '1550', '15502', '15504.95', '15524.56', '1554.95', '15541.9', '1555', '15550.93', '15557.65', '15567.1', '1558.87', '15581.15', '15582', '1559', '1560', '1560.92', '15600', '15607.82', '15621.4', '15628.03', '1563.75', '15632.5', '1565', '15650', '15653.46', '15654', '15655.8', '15660.23', '15666.2', '15670.3', '1568.16', '15687.34', '1569.7', '1569.85', '15694.3', '15696.5', '1570', '15702.22', '1571.79', '15711.95', '1573.45', '15731', '15744', '15745.48', '1575.5', '15750', '15750.08', '15755.21', '15775.5', '15780', '15780.3', '15783.4', '1580', '1580.09', '1583.4', '15840', '15852.56', '15855', '15856.15', '15856.71', '15859.84', '15869', '15898', '1590', '15900', '15908', '1591.95', '15918', '15919.46', '15920.2', '15920.6', '15922.28', '15932', '15932.8', '15943.1', '15943.85', '15955', '15975', '1598.6', '15982.13', '1599.01', '15995', '15996.32', '15998.96', '15999.61', '15999.9', '1600', '16000', '16000.03', '16013.82', '16015.8', '16022.8', '16034.06', '16042', '1605', '1606.55', '1606.64', '16075', '16077.5', '1608.8', '16086.03', '16092.56', '1610', '16109.29', '16115.35', '1612.1', '16131.96', '16133.6', '1614', '16144.33', '16150', '16160', '16179.79', '1619.15', '16199.22', '1620', '16204.93', '16206.5', '16206.7', '16220.68', '16222.5', '16236', '1624.6', '1625', '16251.4', '16253.4', '16255.8', '16261.6', '16281.9', '16282.44', '16282.79', '16288.16', '1629.91', '1630', '16317.06', '16328', '16336', '16336.55', '16337.06', '16340', '16346.39', '16346.44', '1636.6', '16370', '16378.46', '1639.99', '1640', '16413.99', '16443.91', '16447.4', '1645', '16461.26', '16463.24', '16473.63', '16482.65', '16489.42', '1649.35', '16493.28', '165', '1650', '16500', '16516', '16523.05', '16526.45', '1653.16', '16534', '16539', '1654.62', '1655', '1655.33', '1656.9', '16564.49', '1659.44', '16594', '1660', '16603.5', '16623.2', '1664', '16640.74', '16646.2', '1665', '1665.6', '16651.6', '16652.95', '16659.75', '16666.66', '1667.5', '16679.5', '16689.91', '16698.28', '1670', '16700.3', '16707.79', '16728.66', '16730.55', '16733', '1675.5', '16758.81', '1680', '16810', '1682', '16829.72', '1683.6', '16834.61', '16841.8', '16843.89', '1687.85', '16878.19', '16889.1', '1689', '16890.9', '16897.63', '1690', '1690.97', '16910.6', '1692.85', '1692.92', '16925.4', '1693.84', '16949.5', '1695.07', '1697.82', '16976.5', '16977.2', '16980.34', '16986.43', '16998', '1700', '1700.5', '17000.67', '17014.25', '1702.96', '17021.57', '1704', '1705.4', '17057', '17063.7', '17066.22', '1708.7', '17097', '1710', '1711.6', '17117.88', '1713', '17135.11', '17139', '17140', '17149.45', '1715', '1715.6', '17156.93', '17160.6', '17170.8', '17180.66', '17180.9', '1719', '1719.2', '1719.9', '1720', '17225.92', '1723.5', '1725', '17272.75', '17273.02', '17273.58', '17310.41', '17329.95', '1733.2', '17331.1', '17334.89', '17349', '1735', '17364.23', '1737.4', '17375', '17391.65', '1740', '17400', '1745.3', '17453.12', '17455.61', '1748', '1749.35', '17495.6', '1750', '17502.02', '1751.8', '17522.08', '17522.64', '17535.63', '1754.57', '1755', '1755.05', '17569.06', '1757.53', '17571.26', '17573.46', '1758', '17599', '176.4', '1760', '1761.56', '17613.2', '17628.83', '17633.09', '1764.2', '17650', '17656.79', '17657.4', '1767.5', '1768.8', '17681.23', '17694.6', '1770.8', '17700', '1771.72', '1771.93', '17717.61', '17722.71', '1773.92', '17738', '17744.15', '1775', '17759.64', '17784', '17793', '17794.12', '1780', '1780.39', '1782', '17822', '17823.6', '1783.49', '17842', '17842.6', '17848', '17849.85', '17857.7', '17869.35', '17879.23', '17882.17', '17883.77', '17891.6', '1790', '17915.61', '17919.44', '1794.8', '17940.37', '1795', '17957', '17959.82', '17971.67', '17971.68', '17975.87', '17986.94', '17997.18', '180', '1800', '18002', '18026', '18027.35', '18028', '18050.88', '1806.1', '1806.4', '1806.8', '1809.25', '18096.38', '181.2', '181.5', '18109.65', '18122.49', '18134', '18141.59', '18141.85', '18146.08', '18148.44', '1815', '1815.6', '18157.4', '18157.42', '18159.06', '1816.52', '18189', '1819.56', '18190.66', '18199.8', '1822.05', '18220', '18223.22', '18223.6', '1823', '18237.5', '18260', '18263.21', '18263.45', '18266.66', '1827.33', '18274.48', '18289.74', '1829', '1830', '18323.45', '18332.35', '18342.4', '18344', '1835', '18360', '18360.69', '1837', '1837.9', '18380.5', '18387.88', '18389.16', '1840', '1841', '18417.69', '18421.65', '18431.6', '18436.13', '18436.91', '18439', '1844.5', '18453.33', '18474.74', '1848', '1849.05', '1850', '1852.3', '18520', '18524.08', '18527.75', '18539.38', '1854.8', '18544.3', '1855.15', '18589.5', '1860', '1860.7', '1860.8', '18615.5', '18635.07', '18665.2', '18695.42', '1870', '18707.65', '1871', '18713', '18737.82', '1874.2', '1875', '1876.86', '1877.2', '1877.84', '1880.61', '18805', '1881.33', '18816.14', '1884.99', '18842.64', '1885', '1888', '18885', '189.5', '1892.1', '18921.21', '1893.28', '18938.15', '18943.68', '18957.76', '18978.2', '18980.03', '18999.91', '1900', '19031.46', '19033.4', '19048.92', '1905', '19067.06', '1907.18', '19079.2', '1910', '1911.5', '1913', '1914.4', '1917.57', '19197.58', '1920', '1922.4', '1922.95', '19223.15', '19242.5', '19283.9', '19283.99', '19298.88', '1930', '19317.45', '19338.6', '1934.1', '1934.43', '1938.9', '19393.05', '19393.08', '1940', '1940.5', '1942.9', '19426.2', '1943.75', '1944.5', '1948.7', '1949', '19490.37', '1950', '1950.1', '1950.75', '19509.64', '19519.52', '1956.95', '19588.95', '1960', '1961', '19627.47', '1963', '19630.99', '1964.27', '1965', '1966.9', '19671.24', '19672.8', '1969.08', '19702.55', '1971.25', '1972.95', '19727.2', '1973.7', '1973.85', '1974', '1975.12', '19761.4', '19762', '19767.3', '19773.36', '19776.55', '1978.3', '1979.93', '19796.06', '1980', '1980.69', '19804.4', '1981.5', '1983.4', '19831.4', '19850', '1987.03', '1987.61', '1987.89', '19884.2', '19886.4', '1990', '19910.84', '19920.49', '19957', '1997.7', '19971.4', '19987.31', '1999.52', '200', '2000', '2000.45', '20000', '20004.7', '20029.5', '2006', '20068.44', '20074.5', '2008.7', '20087.02', '20087.94', '2010', '20101.01', '20114.25', '20116.95', '2014.5', '20145.48', '2015.67', '20163.95', '20178.9', '2020', '2021.68', '20214.8', '2022', '20226', '20251.38', '2028.7', '2029', '203.25', '2030', '20311.61', '2032', '2032.8', '2035', '2035.25', '20361.4', '2038.66', '20385', '20390.4', '2040', '2040.25', '2040.38', '20415.43', '2043.47', '20432.98', '2045', '2046', '2049.36', '20491.6', '2050', '20500', '20502.82', '20532.5', '2054.24', '20547.32', '20562.5', '2058', '20583.28', '2060', '20602.31', '2061.12', '20617.88', '20625.65', '20637.82', '2064.16', '20640', '20650', '20650.02', '2069.05', '2069.8', '20695.52', '2070', '2071.55', '20736.75', '20756.74', '20764.6', '20780.62', '2080', '20800', '20821.15', '20835.72', '20844.91', '2085', '20860.5', '20872.27', '20897.25', '209.5', '2090', '2090.89', '20900', '2094.95', '2096', '2096.8', '20985.7', '20997.42', '2100', '2100.67', '21000', '21007', '21008.32', '21010.97', '21036.88', '21050.17', '2108.8', '21083', '2109.87', '2112.14', '21135.91', '21138.5', '21140', '2115.7', '2116.4', '21168.09', '21179.7', '2118.55', '2120.87', '21215.3', '2122.85', '2125', '21288.93', '21293.1', '21300', '2132.06', '21326.58', '21330', '2136.34', '2136.4', '21364.54', '2140', '21400', '21406.63', '2142', '21453.5', '21456.68', '21463.84', '21466.9', '21472.57', '2150', '21500', '2151.84', '21514.24', '2153', '2153.1', '2155.5', '21555.36', '2156', '2158.3', '2160', '21611.16', '2165.38', '21652.11', '2166.1', '21685.45', '2169.4', '217.94', '2170', '2171.15', '21719.68', '21720.32', '21725', '21727.4', '21754.72', '21755.05', '21770.5', '2179.4', '21790', '21796.48', '2180', '21801.01', '21806.9', '21808.47', '2181.27', '2181.55', '21810.84', '21812.45', '2182', '2182.07', '2183.2', '2184.7', '2185.75', '21850', '21890.73', '21915', '2192.96', '21929.75', '21943.39', '2195.1', '21982.86', '2200', '22000', '22014', '22020', '2203.76', '22035.55', '22041.14', '2205', '2209.25', '22090', '22093.36', '2215.95', '22166', '2217.6', '2220', '22202.5', '22219.64', '2223.89', '2225', '2228', '2230', '2233.6', '2235.96', '2236.4', '2239.55', '22394.02', '2240', '2242.46', '22429.06', '2244', '22442.27', '2246', '2246.28', '2248', '2248.1', '2249.77', '22494.09', '2250', '22500', '22503.23', '22505.7', '2253.55', '22530.2', '22531.52', '2254.19', '2255', '2255.7', '2255.95', '2256.7', '22573.45', '22604.54', '2261.6', '22614.77', '22630', '2265', '2268', '2268.3', '2270', '22720.96', '22731', '22739.13', '2274.7', '22750', '22760.8', '2280', '22800', '2283.5', '2286.2', '2289', '22893.79', '2291.4', '22910.14', '22926.7', '2293.21', '2296', '2297.84', '2300', '23000', '23029.85', '23053.72', '23084.86', '23090', '23090.34', '2310.7', '23101.37', '23102.35', '23103.6', '23108.7', '23110.16', '23125.45', '23138.97', '2315.8', '23169.48', '2317.6', '23185', '23186.99', '23188.85', '2320', '23213', '23220.17', '23223.55', '23248', '2325', '23260', '23270', '2329.7', '23302.25', '2331', '23337.5', '23338.49', '23340', '2335.1', '2336.7', '23369.78', '23381.48', '2340', '2341.72', '23427.64', '2344.15', '2344.25', '2344.9', '23467.28', '2347.3', '23472.97', '2350', '23500', '23508.36', '23512.02', '2352', '23533.7', '23540', '23542.99', '2355.79', '23550', '23575', '23608.33', '2361.4', '23630', '23633.39', '23650.68', '2366.9', '23666.45', '23667', '23670.05', '23675.91', '23690', '237.23', '23707.86', '2371.54', '23730.07', '23740', '23743.83', '23744.02', '2375.08', '23755.55', '23756.61', '23759.8', '2376.85', '23780', '23785.74', '2380.15', '2382.02', '23833.37', '23847.55', '23848.4', '2385.17', '23850', '23861.72', '23864.05', '23874.3', '23890.85', '2391.5', '23918.5', '23923.25', '23923.5', '2393.9', '23935.18', '23935.74', '23939.82', '2394', '2394.95', '23957.15', '23960', '23975.47', '23979.65', '2399.99', '2400', '2402.8', '24028.98', '2403.95', '24030', '24047.21', '2405', '24059', '2408.8', '24080.93', '2409.2', '24101.61', '24143.1', '24159', '2418.75', '24190', '24199.35', '24199.92', '2420', '24210', '2422', '24226.03', '24248.65', '2428.35', '2428.8', '24283.68', '24285.9', '24288.48', '2429', '24298.5', '24395.2', '24397.35', '2441.57', '24414.05', '24429.64', '24441.6', '2445.76', '2446.7', '24467.45', '24478.44', '24479.22', '2448.95', '2449.29', '2451', '24535.2', '24535.41', '2454', '2457.99', '2458.8', '24583.7', '246', '2461.8', '2461.94', '24621.45', '24630.84', '24639.06', '24658.5', '2467.98', '2468.8', '2469.5', '24708.4', '2471.44', '2472.99', '2474.74', '2476.08', '24799.95', '2480', '2480.54', '2482', '24840.8', '24862.8', '24891.82', '2490', '24902.94', '24935.01', '2496.4', '24971.25', '2498.8', '2500', '2507.48', '25099.1', '2511.6', '25118.45', '2513.75', '2516.95', '2518.07', '2519.44', '2520', '25200', '25237.05', '2524.95', '2525', '2525.86', '2526.8', '2527.92', '2530', '25311.34', '25311.61', '2532.35', '2534.45', '2535', '2537', '2538.3', '2541.4', '2542.4', '25423.8', '2544', '25447.53', '25464.43', '25478.1', '2548', '2550', '2550.92', '25511.51', '25535.35', '2554.93', '2558', '2558.9', '2560', '25600.9', '25635.36', '2564.76', '25641.64', '25648', '2567.5', '2567.52', '25678.2', '2568', '2570', '2572', '2573.23', '2573.48', '2574.35', '25744', '2575', '2575.37', '2578.88', '2580', '25807.75', '25812', '25813.23', '2582.85', '25839.4', '2584.95', '2585.6', '25854.05', '2587.33', '2588', '2590', '2590.2', '25901.5', '2591.55', '2592.73', '25926.3', '25929.2', '2594', '2595.58', '25990.56', '2600', '26005.72', '26006.91', '2601', '26013.84', '2602', '26022.4', '26045.61', '2606.02', '2606.17', '26096.65', '2610', '26108.88', '26158.4', '2617.47', '2617.56', '2618', '2620', '26204.07', '26207.52', '26219', '2623.25', '2623.9', '2625', '2625.48', '2627', '26280.98', '2629.1', '2630', '26311.5', '26345.7', '2636.41', '26366.56', '2638.4', '2639', '26396.67', '2640', '2640.2', '2640.6', '2641.35', '2642.45', '26423.95', '26433.15', '26439.24', '2644', '26497.2', '2650', '2652.25', '2653.6', '26546.12', '2660', '2660.69', '2662.94', '2664.2', '2664.24', '2665', '2665.26', '2665.7', '2665.95', '26657.09', '26676.34', '26677', '2668', '2669.98', '2670', '26702.54', '2672', '26741.8', '2675', '2678.8', '268.43', '268.7', '2680', '26832.7', '2685.4', '2686.48', '2686.5', '2687.31', '2688.09', '26905.17', '2692.7', '2694.9', '26950', '2696.05', '270', '2700', '27000', '2703.08', '2706', '2708.32', '2708.37', '2710', '2714.2', '2714.8', '272.3', '2720', '2725', '2725.36', '27253', '27275.54', '2729', '27305.69', '2733.05', '27359.36', '27370', '2739', '2740', '27406.84', '27410.04', '2743.92', '2744', '27455.78', '2749.75', '2750', '27500', '27503.7', '27528.81', '2754', '2757', '2757.33', '27571.67', '2759.52', '2760.93', '2763.25', '2765', '2768.22', '27688.65', '2771.78', '2773.95', '27740.05', '2776.98', '27786.18', '2779', '2780', '2780.58', '27813.8', '27819', '2782', '27831.53', '2784.6', '2785', '27858.78', '2790', '27915', '2792.1', '27937.57', '2794', '27968.01', '2799.65', '2799.84', '2800', '28000.24', '2801.05', '28014.6', '28026.9', '2805.9', '2807.61', '28070.19', '2808.25', '28095.25', '2810', '2810.3', '28106.16', '2812.95', '2813.45', '2817.58', '28182', '2819.6', '2821.58', '2825', '2825.7', '2827.02', '28277.23', '28279.63', '2828.1', '2830', '2835', '28366', '2838.9', '2839', '2840', '28414.8', '28419.93', '2842.8', '2843', '2844.9', '28442.1', '2846.5', '2850', '2853', '2854', '28540', '2856', '28597.01', '2860', '28611.96', '2863.25', '2867.6', '2868.6', '2869.96', '2870', '28702.1', '28730.76', '28732', '2877.84', '2878.43', '2880', '2880.82', '28807.32', '2890', '28928.23', '2894', '28972.35', '2899', '2900', '29005.6', '2905.98', '2906', '2907.26', '2910', '29140', '29144.78', '2916', '2916.15', '2920', '2920.75', '29201.65', '2925', '29263.2', '2928.6', '2929', '29293.73', '2934.02', '2936', '2937', '29370.71', '2938.95', '2939.2', '2939.5', '2940', '2944.04', '2945', '2950', '2951.43', '2951.45', '2953.6', '2956.4', '2958.35', '29588.67', '2959.9', '2960', '2960.76', '29629.28', '2965.47', '29687.46', '2969', '2970', '2972.2', '2973.81', '2978.43', '2981.99', '2983.8', '29854.29', '2988.15', '2990', '2991', '2991.1', '2991.9', '2994', '2995', '300', '3000', '30000', '30006', '3001.17', '3002.45', '3004.3', '30040', '30043.8', '30044.13', '30080', '3010', '3010.91', '30108.8', '3013.24', '30139.3', '3015.6', '30171.39', '3019', '3020', '3020.85', '3022.4', '30224.45', '3023.4', '30240.92', '3025', '30251.23', '3026', '3026.65', '3027.83', '3030', '3030.4', '3030.7', '30300.6', '3032', '3033.4', '3034', '30358.4', '3036.2', '30377.86', '30395.94', '3040', '30410', '3043.05', '3043.45', '3043.99', '3044.6', '3046.49', '30466.91', '3049.95', '3050', '30500', '3053.76', '3054.88', '3055', '3056.74', '3058', '3059.2', '3059.85', '3059.95', '3060', '3060.5', '30608.71', '30612.14', '30687.07', '3069.73', '3069.85', '30690.29', '307.43', '3070', '3071', '3072.05', '3072.85', '3074.7', '30740', '3075', '3075.43', '30758.75', '3077.95', '30770.57', '3079.8', '308.25', '3080', '3080.9', '3082', '30848.7', '3085', '3090', '3095.1', '30950.83', '3097.34', '3098.65', '31.95', '3100', '31066.86', '3108.2', '3109.13', '31092', '3111', '31112.85', '31119', '3115.5', '3119.14', '312.75', '3120.13', '3126.2', '3129.05', '3130', '3132.45', '31339.65', '3134', '31340', '3135', '3137.89', '31373.77', '3138.8', '3139.5', '3140', '3141.02', '3141.6', '3142.98', '31429.24', '3143.1', '3145', '3146', '3147', '31478.18', '3148', '31490.49', '3150', '3150.75', '31503.64', '31583.7', '3160', '31607', '31639.2', '3164.47', '3164.8', '3166.35', '3167.7', '317.75', '3170', '31708.37', '3176.54', '3177.5', '3179', '3180', '3180.12', '3180.31', '31808.25', '31813.15', '3185', '3186.14', '31866.5', '31885.5', '3190', '3190.21', '31916.11', '3192.8', '3193.4', '3194.75', '3195', '31952.47', '31952.5', '3196.44', '3200', '3201.04', '3201.3', '3202', '3202.6', '32034.95', '3207.2', '32081.26', '3209.95', '3210', '3211.85', '3212.46', '32133.62', '32139.14', '32149', '32153.23', '3216.05', '3219.65', '3220', '32218.02', '32240.85', '3225', '32263.68', '3227.47', '3227.5', '3230', '3230.15', '32302.81', '3232.25', '32365.5', '32399.75', '3240', '3240.25', '3240.34', '3241.96', '32423.76', '32493.78', '325', '3250', '3250.2', '3250.4', '32547.79', '3256', '32568.71', '3259', '3260', '3261.55', '3262.2', '3266.6', '3267', '3270', '3270.48', '3271.47', '32720.1', '3274.78', '3275', '3279.91', '32796.2', '3280', '32809.65', '32891.92', '3290', '3290.33', '3290.78', '3292.95', '3295', '32975.04', '3300', '33000', '33061.15', '3311', '33134.4', '3314.15', '3320', '33201.6', '3324.08', '33241.89', '3328.5', '3328.8', '3329.8', '3330', '33330.15', '3335', '33364.35', '3340', '3347.28', '33479.25', '3348', '3350', '3350.49', '3353.59', '33555.73', '3360', '3363.15', '33647.98', '3368.2', '3369.7', '3375.86', '33754.6', '3379', '3380', '33801.64', '3381.3', '3384', '33842.32', '3387', '3390', '3392.72', '3394', '34.7', '340.5', '3400', '3410', '34125.35', '3413.11', '3416.2', '3417.5', '3419', '3419.24', '342', '3420', '34207.71', '3421.8', '3426.55', '3438.07', '3439', '3440', '3441.16', '34434.04', '34437.6', '3444', '3445', '3445.85', '3446.1', '3450', '3453.7', '3454.9', '3460', '3466', '3469.95', '347.36', '347.45', '3470', '3475', '34766.08', '34774', '3478.1', '3480', '34848.59', '3487.28', '3488.12', '34893.92', '34897.54', '3491.5', '34927.96', '3493.75', '34931.86', '3499.95', '3500', '35011.05', '3502', '3503', '3505', '3505.6', '3508.05', '3509', '35094.05', '3510', '3513', '3514.25', '3515', '3517.6', '3518', '3520', '35208.2', '35217.99', '3522.4', '35235.68', '3525', '35256.09', '3526.5', '3527', '3527.25', '35284.62', '3530', '3530.21', '3532', '3532.6', '3532.9', '3533.15', '3533.88', '3534.18', '3534.19', '3535.2', '3536.4', '3538.4', '3539', '3540', '3543.03', '35439.56', '3544', '3545', '3547.6', '3548', '3549', '355.35', '3550', '3554.99', '3555', '3555.7', '3556.8', '3558', '3560', '3562.5', '3562.65', '3564.29', '3565', '3567.6', '35681.6', '3570', '3571.9', '3572', '3575.15', '3575.4', '3576.23', '3577', '3577.16', '3579.2', '3580', '35801.39', '3586.6', '3588', '3589.45', '359.19', '3590', '3590.25', '3592', '3592.18', '3595', '3596.83', '3597.66', '3600', '36032.07', '3605', '36054.8', '3608.8', '36086.75', '3610', '36129.28', '36149.84', '3617.9', '3619.15', '3620', '3623.1', '3624', '3625', '3626.2', '3629', '3629.96', '3629.99', '3630', '36331.35', '3636.8', '3640', '3641.1', '36436.36', '364</t>
         </is>

--- a/examples/Australia OGD/victim_assistance/profile.xlsx
+++ b/examples/Australia OGD/victim_assistance/profile.xlsx
@@ -450,15 +450,20 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -527,12 +532,15 @@
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
         <v>71767</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>11859</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>['1000505', '1000589', '1000651', '1000676', '1000705', '1000764', '1001581', '1001616', '1001656', '1001669', '1001727', '1001745', '1001807', '1001855', '1001962', '1001987', '10020', '1002254', '1002283', '1002302', '1002329', '1002389', '1002437', '1002450', '1002510', '1002534', '1002618', '1002654', '1002706', '1002768', '1002811', '1003111', '1003178', '1003211', '1003224', '1003284', '1003365', '1003411', '1003425', '1003497', '1003572', '1004267', '1004297', '1004314', '1004364', '1004393', '1004448', '1004480', '1004511', '1004566', '1004604', '1004637', '1004661', '1004766', '1004798', '1004839', '1005123', '1005244', '1005285', '1005302', '1005362', '1005414', '1005491', '1005522', '10058', '1005942', '1005993', '1006074', '1006131', '1006166', '1006195', '1006251', '1006592', '1006652', '1006695', '1006792', '1006818', '1007129', '1007221', '1007269', '1007320', '10076', '1008053', '1008115', '1008135', '1008149', '1008170', '1008243', '1008283', '1008375', '1008490', '1008872', '1008902', '1008937', '1008968', '1009010', '1009088', '1009103', '1009140', '1009195', '1009229', '1009347', '1009409', '1009764', '1009809', '1009858', '1009962', '1009990', '1010012', '1010048', '1010074', '1010339', '1010399', '1010522', '1010542', '1010583', '1010628', '1010726', '1010751', '10109', '1011171', '1011238', '1011274', '1011389', '1011422', '1012088', '1012167', '1012197', '1012230', '1012261', '1012318', '1012331', '1012387', '1012438', '1012747', '1012786', '10128', '1012818', '1012852', '1012900', '1012971', '1012990', '1013029', '1013063', '1013081', '1013448', '1013484', '1013578', '1013939', '1013979', '1014007', '1014019', '1014056', '1014084', '1014108', '1014139', '1014151', '1014177', '1014227', '1014249', '1014288', '1014329', '1014376', '1014404', '1014452', '1014483', '1014885', '1014910', '1014924', '1014938', '1015027', '1015058', '1015084', '1015105', '1015129', '1015155', '1015216', '1015907', '1015941', '1015970', '1016008', '1016083', '1016132', '1016235', '1016268', '1016304', '1016362', '1016477', '1016514', '1016763', '1016797', '10168', '1016840', '1016888', '1017066', '1017087', '1017120', '1017162', '1017353', '1017639', '1017742', '1017790', '1017805', '1017833', '1017851', '1017913', '1017963', '1017989', '1019125', '1019166', '10192', '1019229', '1019309', '1019341', '1019383', '1019395', '1019437', '1019479', '1019520', '1019560', '1019941', '1020009', '1020068', '1020084', '1020127', '1020184', '1020215', '1020273', '1020305', '10208', '1021189', '1021270', '1021299', '1021361', '1021563', '1021840', '1021884', '1021913', '1021994', '1022040', '1022091', '1022128', '1022164', '1022202', '1022228', '1022258', '1022285', '1022329', '1022410', '1022423', '1022452', '1022485', '1022503', '1022522', '1022798', '1022882', '1022965', '1023008', '1023021', '1023036', '1023083', '1023109', '1023160', '1023446', '1023459', '1023501', '1023583', '1023616', '1023634', '1023676', '1023688', '1023720', '1023767', '1024172', '1024258', '1024337', '1024419', '1024532', '10247', '102519', '1025262', '1025360', '1025425', '1025469', '1025486', '1025519', '1025531', '1025568', '1025598', '1025644', '1026110', '1026166', '1026236', '1026273', '1026293', '1026344', '1026376', '1026764', '1026864', '1026900', '1026915', '1026960', '1026995', '1027019', '1027072', '1027130', '1027548', '1027584', '1027653', '1028063', '1028195', '1028265', '1028927', '1028969', '1029002', '1029029', '1029092', '1029125', '1029167', '1029200', '1029261', '1029314', '1029351', '1029390', '1029676', '1029706', '1029734', '1029768', '1029810', '1029823', '1029866', '1029911', '1029950', '1029966', '1029987', '1030036', '1030092', '1030185', '1030539', '1030618', '1030676', '1030712', '1030852', '1031115', '1031164', '1031373', '1031451', '1031709', '1031763', '1031808', '1031845', '1031880', '1031936', '1031976', '1032033', '1032058', '1032076', '1032122', '1032860', '1032919', '1032962', '1033003', '1033038', '1033058', '1033132', '1033153', '1033193', '1033301', '1033611', '1033714', '1033749', '1033834', '1033890', '1033918', '1035083', '1035130', '1035202', '1035241', '1035300', '1035350', '1035430', '1035477', '1035542', '1035587', '1035631', '1036356', '1036440', '1036471', '1036489', '1036524', '1036568', '1036581', '1036596', '1036640', '1036652', '1036687', '1036722', '1036773', '1036787', '1036840', '1036852', '1036891', '1036921', '1037329', '1037361', '1037379', '1037421', '1037526', '1037543', '1037586', '1037609', '1037628', '1037660', '1037716', '1037753', '1038282', '1038335', '1038372', '1038406', '1038419', '1038455', '1038537', '1038620', '1039081', '1039108', '1039181', '103936', '1039472', '1039513', '1039571', '1039600', '1039651', '1039685', '1039718', '1039769', '1039844', '1039890', '1040570', '1040604', '1040636', '1040688', '1040755', '1040830', '1040891', '1041009', '1041360', '1041392', '1041484', '1041532', '1041563', '1041598', '1041653', '1041734', '1041809', '1041830', '1041917', '1042414', '1042538', '1042593', '1042652', '1043098', '1043120', '10435', '1043564', '1043585', '1043625', '1043640', '1043707', '1043745', '1043798', '1043810', '1043876', '1043906', '1043937', '1043959', '1043983', '1044012', '1044062', '1044094', '1044131', '1044188', '1044224', '1044914', '1045023', '1045111', '1045187', '1045735', '1045787', '1045815', '1045837', '1045883', '1045954', '1045970', '1046019', '1046046', '1046113', '1046465', '1046501', '1046575', '1046664', '1046699', '1046734', '1046808', '10472', '1047258', '1047709', '1047815', '1047970', '1048646', '1048702', '1048787', '1048800', '1048847', '1048883', '1048935', '1048978', '1049028', '1049078', '1049105', '1049129', '1049165', '1049235', '1049651', '1049779', '1049796', '1049849', '1049873', '1050015', '1050345', '1050401', '1050447', '1050474', '1050494', '1050884', '1050968', '1051076', '1051355', '1051400', '1051460', '1051503', '1051545', '1051610', '1051674', '1051713', '1051757', '1051792', '1051824', '1051845', '1051875', '1052619', '1052656', '1052721', '1052792', '1052828', '1052881', '1052922', '1052976', '1053459', '1053527', '1053673', '1054014', '1054073', '1054157', '1054194', '1054235', '1054271', '1054312', '1054398', '1054411', '1054483', '1054506', '1054535', '1054821', '1054868', '1054894', '10549', '1054923', '1055302', '1055327', '1055347', '1055372', '1055402', '1055432', '1055471', '1055512', '1055547', '1055578', '1055628', '1055686', '1055716', '1055761', '1055776', '1056573', '1056611', '1056643', '1056688', '1056737', '1056780', '1056850', '1056871', '1056938', '1056952', '1056993', '1057032', '1057064', '1057108', '1057408', '1057425', '1057486', '1057534', '1057562', '1057665', '1057691', '1057771', '1057825', '1057857', '1057917', '1057948', '1058032', '1058260', '1058332', '1058374', '1058481', '1058507', '1058917', '1059027', '1059108', '1059372', '1059399', '1059412', '1059442', '1059474', '1059522', '1059563', '1059578', '1059624', '1059669', '1059707', '1059734', '1059774', '1059811', '1059845', '1059896', '1059945', '1059968', '1060018', '1060659', '1060686', '1060796', '1060888', '1060982', '1061020', '1061333', '1061359', '1061407', '1061445', '1061491', '1061552', '1061606', '1061683', '1061716', '1061742', '1062126', '1062170', '10622', '1062232', '1062245', '1062336', '1062364', '1062405', '1062451', '1062884', '1062902', '1063015', '1063106', '1063542', '1063596', '1063695', '1064635', '1064667', '1064716', '1064738', '1064753', '1064787', '1064806', '1064818', '1064844', '1064885', '1064897', '1064949', '1064992', '106504', '1065040', '1065071', '1065089', '1065128', '1065160', '1065195', '1065238', '106524', '1065536', '1065569', '1065600', '1065626', '1065641', '1065772', '1065813', '106584', '1065889', '1065911', '1066405', '1066733', '1066771', '1066798', '1066812', '1066850', '1066895', '1067048', '1067085', '1067806', '1067838', '1067994', '10680', '1068016', '1068076', '1068192', '1068227', '1068247', '1068544', '1068629', '1068653', '1068699', '1068716', '1068812', '1068905', '1068937', '1068958', '1068989', '1069078', '1069108', '1069392', '1069415', '1069449', '1069532', '1069589', '1069628', '1069666', '1069702', '1070586', '1070621', '1070649', '1070683', '1070723', '1070760', '1070811', '1070872', '1070917', '1070966', '1071699', '107172', '1071737', '1071769', '1071785', '1071833', '1071885', '1071936', '1071970', '1072024', '1072036', '1072083', '1072120', '1072176', '1072230', '1072253', '1072298', '107238', '107261', '1072614', '1072653', '1072665', '1072702', '1072754', '1072818', '1072835', '1072898', '1072953', '1073008', '1073100', '1073150', '1073198', '10733', '1073480', '1073531', '1073565', '1073641', '1073698', '1073732', '1073790', '1073859', '1073925', '1073967', '1073985', '107431', '1074381', '1074474', '1074543', '1074603', '1074657', '1074693', '1074956', '1074971', '1075004', '1075033', '1075045', '1075074', '1075222', '1075262', '1075294', '1075307', '1075345', '1075399', '1076127', '1076176', '1076294', '1076330', '1076365', '1076377', '1076421', '1076490', '1076610', '1076845', '1076905', '1076974', '1077100', '1077449', '1077506', '1077520', '1077628', '1077642', '1077782', '1077794', '1078070', '1078097', '1078219', '1079295', '10793', '1079371', '1079417', '1079491', '1079526', '1079578', '1080362', '1080399', '1080432', '1080510', '1080567', '1080608', '1080620', '1080665', '1080688', '1080725', '1080773', '1080803', '1080866', '1080923', '1080984', '1081270', '1081303', '1081355', '1081432', '1081509', '1081550', '1081914', '1081936', '1081989', '1082026', '1082059', '1082124', '1082151', '1082238', '1082300', '1082622', '1082652', '1082706', '1082922', '1083000', '1083238', '1083266', '1083299', '1083316', '1083355', '1083399', '1083443', '1083458', '1083492', '1083541', '1083554', '1083584', '1083653', '1084327', '1084368', '1084430', '1084467', '1084485', '1084549', '1084580', '1084631', '1084664', '1084725', '1084813', '1085156', '1085195', '1085236', '1085313', '1085803', '1085864', '1086206', '1086232', '1086259', '1086316', '1086398', '1086458', '1086547', '10880', '1088124', '1088803', '1088829', '1088844', '1088877', '1088905', '1088954', '1088994', '1089007', '1089057', '1089106', '1089158', '1089204', '1089247', '1089581', '1089910', '1090279', '1090318', '1090337', '1090386', '1090463', '1090528', '1090584', '1090627', '1090684', '1090993', '1091049', '1091071', '1091150', '1091201', '1091244', '1091317', '1091365', '1091394', '1091779', '1091842', '1091885', '1091938', '1091969', '1091997', '1092034', '1092046', '1092766', '1092785', '1092809', '1092821', '1092859', '1092909', '1092954', '1092978', '1093014', '1093027', '1093047', '1093064', '1093077', '1093095', '1093120', '1093148', '1093180', '1093205', '1093239', '1093266', '1093309', '1093354', '1093754', '1094021', '1094055', '1094097', '1094135', '1094366', '1094383', '1094419', '1094535', '1094610', '1094641', '1094736', '1094836', '1095153', '1095185', '1095237', '1095303', '1095383', '1095411', '1095433', '1095490', '1095508', '1095554', '1095874', '1095926', '1095960', '1096012', '1096071', '1096114', '1096139', '1096156', '1096193', '1096226', '1096242', '1096997', '1097020', '1097072', '1097100', '1097130', '1097146', '1097169', '1097186', '1097206', '1097246', '1097265', '1097305', '1097320', '1097338', '1097448', '1097470', '1097488', '1097514', '1097526', '1097582', '1097635', '1098372', '1098420', '1098779', '10988', '1098848', '1098905', '1098962', '1098976', '1099070', '1099112', '1099213', '1099242', '1099573', '1099595', '1099622', '1099639', '1099669', '1099682', '1099695', '1099718', '1099741', '1099762', '1099823', '1099856', '1099893', '1099936', '1099984', '1100021', '1100928', '1100944', '1100960', '1100988', '1101005', '1101034', '1101046', '1101105', '1101126', '1101157', '1101182', '1101198', '1101220', '1101261', '1101276', '1101324', '1101359', '1101397', '1101415', '1101450', '1101535', '1101584', '1101610', '1101951', '1101978', '1102014', '1102101', '1102132', '1102169', '1102196', '1102237', '1102253', '1102329', '1102425', '1102480', '1102785', '1102860', '1102963', '1103003', '1103024', '1103053', '1103089', '1103130', '1103529', '1103549', '1103670', '1103737', '1103835', '1104245', '1104295', '1104315', '1104348', '1104363', '1104384', '1105149', '1105161', '1105182', '1105211', '1105223', '1105244', '1105263', '1105282', '1105313', '1105326', '1105360', '1105390', '1105494', '1105529', '11057', '1105862', '1105961', '1106039', '1106106', '1106140', '1106165', '1106465', '1106507', '1106534', '1106583', '1106686', '1106751', '1106841', '1106868', '1106921', '1107161', '1107180', '1107223', '1107335', '1107400', '1107519', '1107858', '1107892', '1107916', '1107960', '1108012', '1108054', '11083', '1108732', '1108827', '1108872', '1108884', '1108939', '1108959', '1109038', '1109074', '1109093', '1109166', '1109198', '1109297', '1109602', '1109657', '1109719', '1109759', '1109809', '1109921', '1109959', '1110188', '1110206', '1110234', '1110256', '1110277', '1110417', '1110447', '1110773', '1110786', '1110826', '1110850', '1110886', '1110906', '1110918', '1110935', '11115', '1113132', '1113150', '1113168', '1113186', '1113210', '1113228', '1113302', '1113336', '1113354', '1113406', '1113422', '1113474', '1113526', '1113621', '1113997', '1114044', '1114065', '1114099', '1114166', '1114203', '1114258', '1114277', '1114296', '1114326', '1114853', '1114890', '1115245', '1115317', '1115372', '1115481', '1115526', '1115635', '1115910', '1115954', '1116095', '11166', '1116855', '1116938', '1116957', '1116976', '1117010', '1117030', '1117050', '1117107', '1117155', '1117179', '1117216', '1117260', '1117289', '1117314', '1117357', '1117715', '1117735', '1117794', '1117902', '1118271', '1118381', '1118424', '1118461', '1118921', '1119012', '1119041', '1119064', '1119092', '11191', '1119120', '1119136', '1119222', '1119283', '1119575', '1119588', '1119652', '1119687', '111969', '1119715', '1119739', '1119758', '1119782', '1119802', '1119867', '1120607', '1120630', '1120643', '1120724', '1120753', '112076', '1120768', '1120829', '1120845', '1120918', '1120938', '1121033', '1121074', '1121169', '112117', '1121183', '1121610', '1121642', '1121676', '112172', '1121727', '1121743', '1121779', '1121820', '1121869', '1121877', '1121924', '1121939', '1122332', '1122353', '1122376', '1122427', '1122448', '1122871', '1122979', '1123036', '1123388', '1123412', '1123464', '11235', '1123511', '1123534', '1123589', '1123630', '1123680', '1124365', '1124378', '1124391', '1124406', '1124446', '1124506', '1124541', '1124567', '1124583', '112460', '1124605', '1124686', '1124796', '1124843', '112501', '1125402', '1125487', '1125541', '1125561', '1125593', '1125625', '1125678', '112581', '1125974', '1125993', '1126108', '1126199', '1126235', '1126261', '1126613', '1126634', '1126655', '1126697', '1126719', '1126746', '1126780', '112681', '1126814', '1126908', '1126981', '112749', '1127880', '1127911', '1127933', '1127987', '1128059', '1128089', '1128112', '1128150', '1128180', '1128198', '1128211', '1128237', '1128263', '1128278', '1128351', '1128728', '1128813', '1128857', '1128884', '1128916', '1128948', '1128976', '1129029', '1129073', '1129124', '1129171', '11295', '113000', '113012', '113078', '113179', '11337', '113465', '113497', '113587', '113663', '113718', '113775', '113818', '11426', '114330', '114396', '11444', '114547', '114607', '114865', '114901', '114913', '114927', '114964', '11499', '115054', '115100', '115183', '115707', '115767', '115822', '115846', '115918', '11607', '116222', '11625', '116258', '116273', '116301', '116373', '11639', '116423', '116944', '117025', '11703', '117109', '117138', '117170', '11733', '117471', '11750', '117515', '117556', '117579', '117643', '117686', '117716', '117833', '117874', '118229', '118253', '118338', '118361', '118473', '11871', '118807', '118835', '118908', '11899', '119183', '119222', '119237', '119294', '119349', '119402', '119414', '119455', '119487', '119517', '11952', '11990', '120081', '120101', '120133', '120155', '120231', '120261', '120290', '120305', '120350', '120369', '12043', '120615', '120627', '120746', '120790', '12108', '121166', '121199', '121242', '121325', '121587', '121628', '121664', '121685', '121734', '121755', '121775', '121832', '121861', '121906', '12205', '122139', '122167', '122251', '122334', '122421', '122457', '12251', '123038', '123085', '123164', '123232', '123435', '123453', '123477', '123492', '123575', '123629', '123663', '123689', '123721', '12373', '12397', '124048', '124119', '124133', '124194', '124249', '12428', '124286', '124321', '124376', '124410', '124426', '124467', '124494', '124541', '12460', '124744', '12480', '124807', '124827', '124908', '124932', '124989', '125015', '12518', '125226', '12531', '125314', '125356', '125397', '125488', '12559', '12571', '125914', '12603', '126060', '126080', '12625', '126314', '126347', '126385', '12640', '126419', '126434', '126499', '126573', '126587', '126632', '126656', '126700', '126742', '126927', '12700', '127007', '127036', '127062', '127120', '127160', '127249', '127261', '127274', '127286', '12730', '127359', '127594', '12765', '127684', '127757', '127781', '127899', '127922', '127963', '128005', '128245', '128289', '128337', '128350', '128362', '128379', '128446', '12861', '12883', '129012', '129067', '129083', '129124', '129163', '12918', '129199', '12935', '129517', '129529', '129660', '12974', '129870', '129904', '12996', '129984', '130015', '130040', '130081', '130210', '13025', '130253', '130309', '130403', '130453', '130473', '13050', '130520', '130557', '130638', '130680', '130770', '130783', '130798', '130837', '130866', '130892', '130910', '130930', '130990', '131041', '131066', '131085', '131099', '13130', '131414', '131451', '131524', '131569', '13166', '131691', '131752', '131765', '131861', '131893', '131931', '131943', '13199', '132009', '132258', '132326', '132374', '132413', '132465', '132521', '132571', '132597', '13268', '132831', '13286', '132881', '132920', '132937', '13298', '133017', '133051', '133269', '133287', '133346', '133387', '13339', '133399', '133425', '13375', '134045', '134148', '13420', '134217', '134245', '134307', '13434', '134499', '134517', '134557', '134574', '134638', '134659', '134703', '134766', '13501', '135068', '135097', '135115', '135157', '135224', '13528', '135322', '135349', '135367', '135428', '13547', '135472', '135496', '135536', '135658', '135846', '135878', '135932', '13596', '135976', '136063', '136132', '136152', '136212', '13651', '136525', '136632', '137028', '137076', '137124', '13719', '137201', '137248', '137489', '137518', '137582', '137645', '13766', '137696', '137720', '137982', '138006', '138049', '138068', '138137', '138166', '138220', '13840', '138454', '138530', '138546', '138565', '13858', '138590', '138609', '138631', '138671', '13873', '139133', '139285', '13930', '139310', '139324', '139370', '13967', '13986', '140034', '140051', '140086', '140130', '140199', '140211', '140241', '140306', '140352', '140408', '140461', '14055', '140702', '140765', '140833', '140862', '140899', '140938', '140957', '140982', '140995', '141112', '14116', '141208', '141226', '141254', '141492', '14150', '141554', '141574', '141624', '141660', '141714', '142104', '14212', '142172', '142474', '142491', '142560', '142594', '14268', '142741', '14284', '14315', '143296', '143378', '143758', '143782', '143957', '14418', '144227', '14450', '144674', '144708', '144762', '144807', '144905', '144919', '144933', '145239', '14530', '145306', '145769', '145814', '145848', '145940', '14610', '146196', '146269', '14640', '146471', '146551', '14660', '146633', '146748', '146761', '14680', '146843', '146920', '146977', '147048', '147124', '147144', '14720', '147211', '147229', '147286', '14732', '147329', '147877', '14796', '148048', '14821', '148278', '148441', '14867', '148897', '148923', '148940', '148957', '14899', '149110', '14920', '149351', '149377', '149417', '149574', '14963', '149901', '149933', '149945', '149967', '150654', '151041', '151097', '151249', '151572', '151592', '151680', '151701', '152052', '152142', '152229', '152421', '152453', '152521', '152537', '152570', '152609', '152641', '152674', '153212', '153239', '153305', '153362', '153414', '153716', '153735', '153794', '153834', '153925', '154201', '154266', '154297', '154420', '154533', '154814', '155293', '155376', '155408', '155422', '155454', '156168', '156192', '156503', '156569', '156581', '156634', '156653', '156700', '156910', '157041', '157141', '157155', '157225', '157410', '157478', '157575', '157701', '157741', '158093', '158132', '158179', '158792', '158820', '158900', '159234', '159269', '159329', '159347', '159397', '159412', '159496', '159509', '159909', '159923', '159976', '160000', '160056', '160108', '160144', '160178', '160453', '160492', '160516', '160576', '160883', '160935', '160999', '161019', '161075', '161120', '161148', '161175', '161302', '161376', '161444', '161456', '161471', '161513', '161542', '161556', '161649', '161741', '161794', '161975', '161987', '162016', '162033', '162115', '162188', '162214', '162238', '162272', '162292', '162306', '162476', '162501', '162635', '162678', '162699', '162728', '162960', '162998', '163035', '163049', '163124', '163161', '163187', '163202', '163220', '163269', '163320', '163336', '163348', '163389', '163442', '163471', '163499', '163544', '163618', '163664', '163676', '163780', '163828', '163918', '163935', '163962', '164008', '164053', '164148', '164187', '164582', '164659', '164867', '164967', '165246', '165275', '165311', '165348', '165490', '165575', '165885', '165988', '166070', '166316', '166342', '166385', '166521', '166621', '166660', '166748', '166871', '166913', '166990', '167052', '167174', '167224', '167254', '167892', '167935', '167985', '168046', '168079', '168105', '168140', '168293', '168312', '168662', '168680', '168762', '168778', '168792', '168913', '168925', '169039', '169127', '169158', '169231', '169481', '169516', '169541', '169575', '169683', '169702', '169842', '169891', '169938', '169977', '170000', '170024', '171879', '171899', '171912', '172011', '172058', '172073', '172206', '172340', '172390', '172405', '172446', '172526', '172562', '172591', '172610', '172652', '172710', '172897', '172932', '172946', '172993', '173019', '173052', '173097', '173115', '173127', '173177', '173250', '173278', '173361', '173527', '173586', '173616', '173654', '173713', '173745', '173770', '173791', '173818', '173906', '174457', '174492', '174521', '174594', '174611', '174649', '174679', '174753', '174769', '174790', '174838', '174877', '175905', '175919', '175974', '176230', '176300', '176337', '176587', '176612', '176641', '176675', '176710', '177020', '177058', '177092', '177138', '177220', '177475', '177521', '177552', '177610', '177657', '177683', '178119', '178136', '178425', '178459', '178521', '178559', '178625', '178657', '178699', '178769', '179082', '179095', '179139', '179195', '179217', '179235', '179282', '179303', '179366', '179655', '179731', '179792', '179804', '180490', '180534', '180578', '180644', '180689', '180716', '180730', '180806', '180857', '180918', '181281', '181367', '181406', '181537', '181733', '181745', '181791', '181876', '181910', '181963', '182075', '182409', '182423', '182675', '182710', '182759', '182822', '182843', '182917', '182941', '182988', '183483', '183553', '183571', '183639', '183661', '183727', '183794', '184059', '184117', '184196', '184209', '184267', '184324', '184340', '184565', '184637', '184707', '184751', '185175', '185201', '185222', '185321', '185576', '185808', '185846', '185905', '185919', '185975', '186497', '186616', '186697', '186733', '186752', '186954', '187039', '187075', '187121', '187149', '187190', '187232', '187264', '187293', '187327', '187543', '187559', '187608', '187719', '187738', '187772', '187789', '187801', '187815', '187843', '187865', '188055', '188187', '188226', '188269', '188296', '188315', '188330', '188608', '188625', '188643', '188670', '188691', '188724', '188737', '188814', '188844', '188949', '189551', '189564', '189606', '189693', '189711', '189758', '189936', '189965', '190128', '190187', '190230', '190245', '190261', '190313', '190359', '190377', '190619', '190632', '190665', '190867', '190896', '190925', '190965', '191009', '191035', '191049', '191086', '191108', '191295', '191347', '191361', '191398', '191556', '191875', '191938', '191997', '192035', '192070', '192132', '192144', '192271', '192287', '192317', '192943', '193081', '193136', '193178', '193198', '193230', '193242', '193454', '193484', '193501', '193563', '193590', '193602', '193636', '193654', '193757', '193791', '193822', '194063', '194094', '194112', '194218', '194299', '194320', '194572', '194766', '194998', '195075', '195235', '195291', '195973', '196002', '196017', '196031', '196339', '196411', '196468', '196488', '196552', '196604', '196796', '196823', '196845', '196890', '196902', '196947', '197025', '197060', '197075', '197105', '197127', '197140', '197198', '197391', '197436', '197502', '197537', '197613', '197633', '197688', '197742', '197764', '197789', '197824', '197857', '197881', '198116', '198135', '198218', '198264', '198346', '198383', '198414', '198458', '199024', '199104', '199198', '199542', '199575', '199611', '199658', '199678', '199697', '199783', '199803', '199839', '199895', '200117', '200149', '200195', '200209', '200279', '200310', '200363', '200415', '200501', '200586', '200614', '200856', '200947', '201010', '201054', '201086', '201108', '201123', '201266', '201281', '201532', '201563', '201583', '201673', '201713', '201764', '201787', '201870', '201883', '201997', '202540', '202579', '202629', '202687', '202728', '202797', '202817', '202863', '203053', '203109', '203139', '203158', '203181', '203198', '203227', '203267', '203286', '203339', '203366', '203408', '203496', '203518', '203544', '203557', '203617', '203818', '203844', '203899', '203912', '203925', '203946', '204030', '204097', '204163', '204195', '204300', '204332', '204404', '204433', '204540', '204552', '204577', '204651', '204844', '204862', '204916', '204978', '205018', '205088', '205116', '205173', '205207', '205390', '205686', '206257', '206286', '206329', '206379', '206432', '206467', '206572', '206816', '206852', '206981', '207152', '207484', '207676', '207698', '207950', '207984', '208120', '208238', '208350', '208634', '209452', '209539', '209782', '209861', '209908', '209920', '209933', '209977', '210003', '210386', '210466', '210529', '210587', '210640', '210654', '210732', '210782', '210827', '210839', '210869', '211045', '211090', '211140', '211218', '211241', '211294', '211313', '211342', '211371', '211426', '211440', '211452', '211466', '211565', '211609', '211867', '211887', '211942', '211978', '212072', '212804', '212874', '212965', '213004', '213135', '213338', '213392', '213438', '213468', '213482', '213733', '213765', '213826', '213877', '213917', '213946', '213978', '214217', '214234', '214248', '214376', '214390', '214406', '214487', '214517', '214539', '214580', '214623', '214844', '215694', '215791', '215808', '215822', '215880', '215980', '216192', '216267', '216437', '216488', '216539', '216762', '216784', '216812', '217031', '217073', '217114', '217142', '217165', '217225', '217250', '217345', '217425', '217747', '217817', '217876', '217962', '218017', '219263', '219291', '219386', '219681', '219735', '219764', '219788', '219810', '220122', '220181', '220253', '220319', '220427', '221327', '221358', '221416', '221658', '221708', '221817', '221830', '221861', '221943', '221962', '222076', '222107', '222325', '222375', '222433', '222446', '222488', '222544', '222556', '222581', '222624', '222687', '222894', '222916', '222966', '222984', '223013', '223039', '223105', '223119', '223176', '223202', '223261', '223314', '223744', '223780', '223855', '223923', '223973', '224064', '224114', '224415', '224435', '224522', '224538', '224564', '224605', '224626', '224685', '224760', '224778', '224835', '225134', '225205', '225281', '225345', '225596', '225782', '225870', '226264', '226347', '226407', '226979', '227149', '227213', '227290', '227551', '227609', '227623', '227744', '227834', '228082', '228094', '228107', '228288', '228352', '228450', '228523', '228889', '228926', '228974', '228992', '229059', '229122', '229225', '229239', '229257', '229353', '229373', '229451', '229463', '229484', '229526', '229566', '229611', '229657', '229680', '229727', '229786', '229824', '230446', '230530', '230571', '230600', '230661', '230687', '230755', '230854', '231096', '231165', '231201', '231217', '231230', '231270', '231299', '231402', '231419', '231462', '231744', '231826', '231911', '231940', '232011', '232043', '232100', '232324', '232362', '232395', '232478', '232577', '232592', '232902', '232948', '233022', '233074', '233089', '233231', '233822', '233970', '234844', '234906', '234950', '235099', '235154', '235233', '235301', '235496', '235527', '235597', '235624', '235679', '235705', '235748', '235792', '235871', '236211', '236226', '236836', '236880', '236933', '236978', '236990', '237144', '237161', '237187', '237422', '237509', '237526', '237543', '237567', '237651', '237688', '237851', '237867', '237880', '238069', '238115', '238165', '238182', '238207', '238252', '238287', '238327', '238340', '238383', '238493', '238511', '238526', '238638', '238915', '238992', '239048', '239089', '239135', '239157', '239207', '239219', '239289', '239329', '239389', '239415', '239464', '239648', '239695', '239736', '239758', '239819', '239930', '240714', '240808', '240828', '241127', '241146', '241192', '241279', '241310', '241388', '241430', '241677', '241708', '241720', '241738', '241784', '241813', '241825', '241841', '241873', '241896', '242183', '242285', '242313', '242400', '242438', '242454', '242469', '242482', '242497', '242514', '242595', '242609', '242658', '243296', '243327', '243342', '243354', '244068', '244514', '244562', '244592', '244616', '244635', '244680', '244740', '245025', '245052', '245064', '245117', '245135', '245163', '245175', '245216', '245229', '245268', '245280', '245352', '245385', '245409', '245541', '246104', '246133', '246322', '246388', '246447', '246762', '246824', '246865', '246940', '246991', '247608', '247626', '247720', '247780', '247804', '248153', '248167', '248275', '248290', '248325', '248372', '248406', '248431', '248474', '248512', '248549', '248562', '248579', '248596', '248634', '248666', '248682', '248854', '249173', '249230', '249256', '249276', '249302', '249391', '249525', '250280', '250330', '250613', '250627', '250657', '250722', '250753', '250805', '250892', '250942', '250960', '251047', '251337', '251423', '251444', '251463', '251506', '251536', '251569', '251861', '251883', '251904', '251931', '252063', '252103', '252123', '252160', '252179', '252207', '252280', '252337', '252363', '252617', '252682', '252696', '252759', '252780', '252844', '252896', '253633', '253732', '253780', '253843', '254126', '254149', '254206', '254258', '254270', '254336', '254352', '254391', '254674', '254699', '254713', '254747', '254781', '254805', '254866', '254920', '254941', '254955', '254985', '255020', '255064', '255092', '255131', '255148', '255165', '255177', '255191', '255207', '255240', '255253', '255531', '255559', '255575', '255627', '255685', '255698', '255726', '255824', '255847', '255859', '255872', '255884', '255926', '255962', '255998', '256032', '256077', '256101', '256123', '256319', '256333', '256416', '256454', '256478', '256537', '256564', '256596', '256698', '256763', '257325', '257342', '257355', '257386', '257522', '257564', '258033', '258130', '258168', '258183', '258240', '258269', '258302', '258343', '258373', '258434', '258722', '258766', '258829', '258855', '258897', '258973', '259002', '259029', '259093', '259138', '259190', '259442', '259463', '259495', '259512', '259621', '259635', '259663', '259686', '259704', '260079', '260102', '260146', '260166', '260288', '260921', '260939', '261013', '261047', '261109', '261208', '261302', '261344', '261410', '261688', '261705', '261786', '261905', '262377', '262452', '262473', '262507', '262571', '262583', '262611', '262627', '262641', '262733', '262802', '262814', '262827', '262878', '262906', '262924', '262957', '262984', '263008', '263024', '263095', '263152', '263173', '263393', '263405', '263478', '263496', '263523', '263571', '263659', '263702', '263774', '264094', '264127', '264163', '264201', '264240', '264294', '264366', '265187', '265252', '265265', '265331', '265349', '265403', '265427', '265492', '265510', '265</t>
         </is>
@@ -605,12 +613,15 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>5267</v>
+      </c>
+      <c r="U3" t="n">
         <v>133730</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>11</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>['Assault', 'Burglary', 'Domestic Violence', 'Homicide - DV', 'Homicide - MVA', 'Homicide - Other', 'Motor Vehicle Accident', 'Other', 'Robbery', 'Sexual Offences', 'Stalking/Threats']</t>
         </is>
@@ -683,12 +694,15 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>6937</v>
+      </c>
+      <c r="U4" t="n">
         <v>114703</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>7</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>['Funeral Only', 'Not Eligible', 'Parent Secondary', 'Primary', 'Related', 'Witness Secondary', 'Yet To Be Determined']</t>
         </is>
@@ -761,12 +775,15 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>11862</v>
+        <v>6022</v>
       </c>
       <c r="U5" t="n">
+        <v>11862</v>
+      </c>
+      <c r="V5" t="n">
         <v>6</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>['17', '2', 'B', 'F', 'M', 'U']</t>
         </is>
@@ -839,12 +856,15 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>8313</v>
+      </c>
+      <c r="U6" t="n">
         <v>52710</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>5</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>['Aboriginal', 'Aboriginal and Torres Strait', 'No', 'Torres Strait Islander', 'Unknown']</t>
         </is>
@@ -917,12 +937,15 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>27</v>
+      </c>
+      <c r="U7" t="n">
         <v>57111</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>5264</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t xml:space="preserve">['-0.07', '-0.1', '-0.41', '0', '0.01', '0.03', '0.13', '0.16', '0.17', '0.18', '0.19', '0.22', '0.28', '0.32', '0.33', '0.38', '0.42', '0.53', '0.56', '0.57', '0.58', '0.61', '0.63', '0.64', '0.75', '0.86', '0.87', '0.9', '0.91', '0.93', '0.94', '1.01', '1.04', '1.07', '1.09', '1.27', '1.31', '1.32', '1.34', '1.35', '1.42', '1.45', '1.46', '1.52', '1.55', '1.57', '1.6', '1.61', '1.62', '1.64', '1.68', '1.71', '1.74', '1.75', '1.76', '1.77', '1.82', '1.84', '1.85', '1.89', '1.91', '1.92', '10.01', '10.03', '10.04', '10.05', '10.07', '10.08', '10.09', '10.12', '10.14', '10.15', '10.16', '10.17', '10.18', '10.2', '10.23', '10.25', '10.26', '10.27', '10.29', '10.3', '10.31', '10.32', '10.35', '10.38', '10.39', '10.4', '10.41', '10.42', '10.44', '10.45', '10.46', '10.47', '10.5', '10.51', '10.52', '10.54', '10.55', '10.56', '10.58', '10.59', '10.61', '10.62', '10.64', '10.67', '10.68', '10.7', '10.74', '10.75', '10.76', '10.78', '10.79', '10.81', '10.82', '10.84', '10.85', '10.87', '10.88', '10.9', '10.91', '10.93', '10.94', '10.95', '10.96', '10.97', '10.98', '10.99', '11', '11.01', '11.02', '11.03', '11.04', '11.05', '11.06', '11.08', '11.11', '11.12', '11.13', '11.15', '11.16', '11.17', '11.18', '11.19', '11.22', '11.23', '11.24', '11.25', '11.26', '11.27', '11.28', '11.3', '11.31', '11.33', '11.35', '11.36', '11.38', '11.39', '11.4', '11.41', '11.42', '11.43', '11.44', '11.45', '11.46', '11.47', '11.48', '11.5', '11.51', '11.52', '11.53', '11.54', '11.55', '11.56', '11.57', '11.58', '11.59', '11.6', '11.61', '11.63', '11.64', '11.65', '11.67', '11.68', '11.69', '11.72', '11.73', '11.74', '11.75', '11.76', '11.78', '11.79', '11.8', '11.82', '11.84', '11.85', '11.86', '11.87', '11.88', '11.89', '11.92', '11.93', '11.94', '11.95', '11.96', '11.97', '11.98', '12', '12.01', '12.02', '12.04', '12.08', '12.09', '12.1', '12.12', '12.13', '12.14', '12.15', '12.17', '12.19', '12.2', '12.21', '12.23', '12.24', '12.26', '12.28', '12.3', '12.31', '12.32', '12.33', '12.34', '12.37', '12.38', '12.39', '12.4', '12.41', '12.42', '12.45', '12.48', '12.5', '12.52', '12.53', '12.54', '12.55', '12.56', '12.57', '12.59', '12.6', '12.61', '12.62', '12.63', '12.65', '12.66', '12.67', '12.68', '12.7', '12.71', '12.72', '12.73', '12.75', '12.76', '12.77', '12.78', '12.8', '12.81', '12.82', '12.84', '12.85', '12.86', '12.87', '12.88', '12.89', '12.9', '12.91', '12.92', '12.93', '12.94', '12.95', '12.96', '12.97', '12.98', '12.99', '13', '13.01', '13.02', '13.04', '13.05', '13.06', '13.07', '13.09', '13.11', '13.12', '13.13', '13.14', '13.15', '13.16', '13.18', '13.19', '13.22', '13.24', '13.25', '13.26', '13.27', '13.28', '13.29', '13.3', '13.31', '13.33', '13.35', '13.36', '13.38', '13.4', '13.41', '13.42', '13.43', '13.45', '13.46', '13.47', '13.48', '13.49', '13.5', '13.51', '13.52', '13.53', '13.55', '13.56', '13.57', '13.58', '13.59', '13.6', '13.61', '13.62', '13.63', '13.64', '13.65', '13.66', '13.67', '13.68', '13.69', '13.7', '13.71', '13.72', '13.73', '13.74', '13.75', '13.76', '13.77', '13.78', '13.79', '13.81', '13.82', '13.83', '13.84', '13.85', '13.86', '13.87', '13.88', '13.89', '13.9', '13.91', '13.92', '13.93', '13.94', '13.96', '13.97', '13.98', '13.99', '14.01', '14.02', '14.03', '14.04', '14.05', '14.06', '14.07', '14.08', '14.09', '14.1', '14.12', '14.13', '14.15', '14.16', '14.17', '14.18', '14.19', '14.21', '14.22', '14.23', '14.24', '14.25', '14.26', '14.27', '14.28', '14.29', '14.3', '14.32', '14.33', '14.34', '14.36', '14.37', '14.39', '14.4', '14.41', '14.42', '14.43', '14.44', '14.45', '14.46', '14.47', '14.48', '14.5', '14.51', '14.52', '14.54', '14.55', '14.56', '14.57', '14.58', '14.59', '14.6', '14.61', '14.62', '14.63', '14.64', '14.66', '14.67', '14.68', '14.69', '14.7', '14.71', '14.72', '14.73', '14.74', '14.75', '14.76', '14.77', '14.78', '14.79', '14.8', '14.81', '14.82', '14.83', '14.84', '14.85', '14.86', '14.87', '14.88', '14.9', '14.91', '14.92', '14.93', '14.94', '14.95', '14.96', '14.97', '14.98', '14.99', '15', '15.01', '15.02', '15.03', '15.04', '15.05', '15.06', '15.07', '15.08', '15.1', '15.11', '15.12', '15.13', '15.15', '15.16', '15.17', '15.18', '15.19', '15.2', '15.21', '15.22', '15.23', '15.24', '15.25', '15.26', '15.27', '15.28', '15.3', '15.31', '15.32', '15.33', '15.34', '15.35', '15.36', '15.38', '15.39', '15.41', '15.42', '15.45', '15.46', '15.47', '15.48', '15.49', '15.5', '15.51', '15.52', '15.53', '15.54', '15.55', '15.56', '15.57', '15.58', '15.59', '15.6', '15.61', '15.62', '15.63', '15.64', '15.65', '15.66', '15.67', '15.68', '15.72', '15.73', '15.74', '15.75', '15.77', '15.78', '15.79', '15.8', '15.81', '15.82', '15.83', '15.84', '15.85', '15.87', '15.88', '15.89', '15.9', '15.92', '15.94', '15.95', '15.96', '15.97', '15.98', '15.99', '16.01', '16.02', '16.04', '16.06', '16.07', '16.08', '16.09', '16.1', '16.11', '16.12', '16.13', '16.14', '16.15', '16.16', '16.17', '16.18', '16.19', '16.21', '16.22', '16.23', '16.25', '16.26', '16.27', '16.28', '16.29', '16.31', '16.32', '16.33', '16.34', '16.35', '16.36', '16.37', '16.38', '16.39', '16.4', '16.43', '16.44', '16.45', '16.46', '16.47', '16.48', '16.49', '16.5', '16.51', '16.52', '16.53', '16.54', '16.55', '16.56', '16.57', '16.58', '16.59', '16.6', '16.61', '16.62', '16.63', '16.64', '16.65', '16.67', '16.68', '16.69', '16.7', '16.71', '16.72', '16.73', '16.74', '16.75', '16.76', '16.77', '16.78', '16.79', '16.8', '16.81', '16.82', '16.83', '16.84', '16.85', '16.86', '16.88', '16.9', '16.91', '16.92', '16.93', '16.94', '16.95', '16.96', '16.97', '16.98', '16.99', '17.01', '17.02', '17.03', '17.04', '17.05', '17.07', '17.09', '17.1', '17.11', '17.12', '17.13', '17.14', '17.16', '17.17', '17.18', '17.19', '17.2', '17.21', '17.22', '17.24', '17.25', '17.27', '17.28', '17.3', '17.31', '17.36', '17.39', '17.41', '17.42', '17.45', '17.46', '17.47', '17.48', '17.49', '17.5', '17.51', '17.52', '17.53', '17.54', '17.55', '17.57', '17.58', '17.59', '17.6', '17.61', '17.62', '17.64', '17.65', '17.66', '17.67', '17.69', '17.7', '17.71', '17.72', '17.73', '17.74', '17.75', '17.76', '17.77', '17.78', '17.79', '17.8', '17.81', '17.82', '17.83', '17.84', '17.85', '17.86', '17.87', '17.88', '17.89', '17.9', '17.91', '17.92', '17.94', '17.95', '17.96', '17.97', '17.98', '17.99', '18', '18.01', '18.02', '18.03', '18.04', '18.07', '18.08', '18.09', '18.1', '18.11', '18.12', '18.13', '18.14', '18.15', '18.17', '18.18', '18.19', '18.2', '18.21', '18.22', '18.23', '18.24', '18.25', '18.26', '18.27', '18.28', '18.29', '18.3', '18.31', '18.32', '18.33', '18.34', '18.35', '18.36', '18.37', '18.38', '18.39', '18.4', '18.41', '18.42', '18.43', '18.44', '18.45', '18.46', '18.47', '18.48', '18.49', '18.5', '18.51', '18.52', '18.54', '18.55', '18.56', '18.57', '18.58', '18.59', '18.6', '18.61', '18.62', '18.63', '18.64', '18.65', '18.66', '18.67', '18.71', '18.72', '18.73', '18.74', '18.75', '18.76', '18.77', '18.78', '18.79', '18.81', '18.82', '18.83', '18.84', '18.85', '18.86', '18.88', '18.89', '18.9', '18.91', '18.92', '18.93', '18.94', '18.95', '18.97', '18.98', '18.99', '19', '19.01', '19.02', '19.04', '19.06', '19.07', '19.08', '19.09', '19.1', '19.11', '19.12', '19.13', '19.15', '19.16', '19.17', '19.18', '19.19', '19.2', '19.21', '19.22', '19.24', '19.25', '19.26', '19.27', '19.28', '19.29', '19.3', '19.31', '19.32', '19.33', '19.34', '19.35', '19.36', '19.37', '19.38', '19.39', '19.4', '19.42', '19.43', '19.44', '19.45', '19.46', '19.47', '19.48', '19.49', '19.5', '19.51', '19.52', '19.53', '19.54', '19.55', '19.56', '19.58', '19.59', '19.6', '19.62', '19.63', '19.64', '19.65', '19.66', '19.67', '19.69', '19.7', '19.72', '19.73', '19.74', '19.75', '19.76', '19.77', '19.78', '19.81', '19.82', '19.83', '19.84', '19.85', '19.86', '19.87', '19.9', '19.91', '19.92', '19.93', '19.94', '19.95', '19.96', '19.97', '19.98', '19.99', '2', '2.01', '2.09', '2.12', '2.17', '2.21', '2.26', '2.27', '2.28', '2.3', '2.35', '2.38', '2.39', '2.41', '2.44', '2.48', '2.5', '2.51', '2.52', '2.53', '2.55', '2.56', '2.58', '2.59', '2.64', '2.67', '2.69', '2.7', '2.76', '2.77', '2.78', '2.79', '2.8', '2.85', '2.88', '2.92', '2.96', '20', '20.02', '20.04', '20.05', '20.07', '20.08', '20.09', '20.1', '20.12', '20.13', '20.14', '20.15', '20.16', '20.17', '20.19', '20.2', '20.21', '20.22', '20.23', '20.24', '20.27', '20.28', '20.29', '20.3', '20.31', '20.32', '20.33', '20.34', '20.35', '20.36', '20.37', '20.38', '20.39', '20.4', '20.41', '20.42', '20.43', '20.44', '20.45', '20.46', '20.47', '20.48', '20.49', '20.5', '20.51', '20.52', '20.53', '20.54', '20.55', '20.56', '20.57', '20.58', '20.59', '20.6', '20.61', '20.62', '20.63', '20.64', '20.65', '20.66', '20.67', '20.68', '20.69', '20.7', '20.71', '20.72', '20.73', '20.74', '20.75', '20.76', '20.77', '20.78', '20.79', '20.8', '20.81', '20.82', '20.83', '20.85', '20.86', '20.87', '20.88', '20.89', '20.9', '20.91', '20.92', '20.93', '20.94', '20.95', '20.96', '20.97', '20.99', '21', '21.01', '21.02', '21.03', '21.04', '21.05', '21.08', '21.09', '21.1', '21.11', '21.12', '21.13', '21.14', '21.15', '21.16', '21.17', '21.18', '21.2', '21.21', '21.22', '21.23', '21.24', '21.25', '21.27', '21.28', '21.29', '21.3', '21.31', '21.32', '21.33', '21.34', '21.35', '21.36', '21.37', '21.38', '21.39', '21.4', '21.41', '21.42', '21.46', '21.47', '21.48', '21.49', '21.5', '21.51', '21.52', '21.53', '21.54', '21.55', '21.56', '21.57', '21.58', '21.59', '21.6', '21.61', '21.62', '21.63', '21.64', '21.65', '21.66', '21.67', '21.69', '21.7', '21.71', '21.72', '21.73', '21.74', '21.75', '21.76', '21.78', '21.79', '21.8', '21.81', '21.82', '21.83', '21.84', '21.85', '21.86', '21.87', '21.88', '21.9', '21.91', '21.92', '21.93', '21.94', '21.95', '21.96', '21.97', '21.99', '22', '22.02', '22.03', '22.04', '22.05', '22.06', '22.07', '22.08', '22.09', '22.1', '22.12', '22.13', '22.15', '22.16', '22.17', '22.18', '22.19', '22.2', '22.21', '22.22', '22.24', '22.25', '22.26', '22.27', '22.28', '22.29', '22.3', '22.31', '22.32', '22.33', '22.34', '22.35', '22.36', '22.37', '22.38', '22.39', '22.4', '22.41', '22.42', '22.43', '22.44', '22.45', '22.47', '22.48', '22.49', '22.5', '22.51', '22.52', '22.53', '22.54', '22.55', '22.56', '22.57', '22.58', '22.59', '22.6', '22.61', '22.62', '22.63', '22.64', '22.67', '22.68', '22.7', '22.71', '22.72', '22.73', '22.74', '22.75', '22.76', '22.77', '22.78', '22.79', '22.8', '22.81', '22.82', '22.83', '22.84', '22.85', '22.87', '22.88', '22.89', '22.9', '22.91', '22.92', '22.94', '22.95', '22.96', '22.97', '22.98', '22.99', '23', '23.01', '23.02', '23.03', '23.04', '23.05', '23.07', '23.08', '23.09', '23.1', '23.11', '23.12', '23.13', '23.14', '23.15', '23.16', '23.17', '23.18', '23.19', '23.2', '23.21', '23.23', '23.24', '23.25', '23.26', '23.27', '23.28', '23.3', '23.31', '23.32', '23.33', '23.35', '23.36', '23.37', '23.38', '23.39', '23.4', '23.42', '23.43', '23.45', '23.46', '23.47', '23.48', '23.5', '23.51', '23.52', '23.53', '23.54', '23.55', '23.56', '23.57', '23.58', '23.59', '23.6', '23.61', '23.62', '23.64', '23.65', '23.67', '23.68', '23.69', '23.7', '23.71', '23.72', '23.73', '23.74', '23.75', '23.76', '23.77', '23.78', '23.79', '23.8', '23.81', '23.83', '23.84', '23.85', '23.86', '23.87', '23.88', '23.89', '23.9', '23.91', '23.92', '23.93', '23.94', '23.95', '23.96', '23.97', '23.98', '23.99', '24.02', '24.03', '24.04', '24.05', '24.06', '24.07', '24.08', '24.09', '24.1', '24.11', '24.13', '24.14', '24.15', '24.16', '24.17', '24.18', '24.19', '24.2', '24.21', '24.22', '24.23', '24.24', '24.25', '24.26', '24.27', '24.28', '24.29', '24.3', '24.31', '24.32', '24.33', '24.34', '24.35', '24.36', '24.37', '24.38', '24.39', '24.41', '24.42', '24.43', '24.44', '24.45', '24.46', '24.47', '24.48', '24.49', '24.5', '24.51', '24.52', '24.53', '24.54', '24.55', '24.56', '24.57', '24.58', '24.59', '24.6', '24.61', '24.62', '24.63', '24.64', '24.66', '24.67', '24.68', '24.69', '24.7', '24.71', '24.72', '24.73', '24.74', '24.75', '24.76', '24.77', '24.78', '24.79', '24.8', '24.81', '24.83', '24.84', '24.85', '24.86', '24.87', '24.88', '24.9', '24.91', '24.92', '24.93', '24.94', '24.95', '24.96', '24.97', '24.98', '24.99', '25', '25.01', '25.02', '25.03', '25.04', '25.05', '25.06', '25.08', '25.09', '25.1', '25.11', '25.13', '25.14', '25.15', '25.16', '25.17', '25.18', '25.19', '25.2', '25.21', '25.22', '25.23', '25.24', '25.25', '25.26', '25.27', '25.28', '25.29', '25.3', '25.31', '25.32', '25.34', '25.35', '25.36', '25.37', '25.38', '25.39', '25.4', '25.41', '25.42', '25.43', '25.44', '25.45', '25.46', '25.47', '25.48', '25.49', '25.5', '25.51', '25.52', '25.53', '25.54', '25.55', '25.56', '25.57', '25.58', '25.59', '25.6', '25.61', '25.62', '25.63', '25.64', '25.65', '25.66', '25.67', '25.68', '25.69', '25.7', '25.71', '25.72', '25.73', '25.74', '25.75', '25.76', '25.77', '25.78', '25.79', '25.81', '25.82', '25.83', '25.84', '25.85', '25.86', '25.87', '25.88', '25.9', '25.91', '25.92', '25.93', '25.94', '25.95', '25.96', '25.97', '25.98', '25.99', '26.01', '26.02', '26.03', '26.04', '26.05', '26.06', '26.07', '26.08', '26.09', '26.11', '26.12', '26.13', '26.15', '26.16', '26.17', '26.19', '26.2', '26.21', '26.22', '26.23', '26.24', '26.25', '26.26', '26.27', '26.28', '26.29', '26.3', '26.31', '26.32', '26.33', '26.34', '26.35', '26.36', '26.37', '26.38', '26.39', '26.4', '26.41', '26.43', '26.44', '26.45', '26.46', '26.47', '26.48', '26.49', '26.5', '26.51', '26.52', '26.53', '26.54', '26.55', '26.56', '26.57', '26.58', '26.59', '26.6', '26.61', '26.62', '26.63', '26.64', '26.65', '26.66', '26.67', '26.68', '26.69', '26.7', '26.71', '26.72', '26.73', '26.74', '26.75', '26.76', '26.77', '26.78', '26.79', '26.82', '26.83', '26.84', '26.85', '26.86', '26.87', '26.88', '26.89', '26.9', '26.91', '26.92', '26.93', '26.95', '26.96', '26.97', '26.98', '26.99', '27', '27.01', '27.02', '27.03', '27.04', '27.05', '27.06', '27.07', '27.08', '27.09', '27.1', '27.11', '27.12', '27.13', '27.14', '27.15', '27.16', '27.17', '27.18', '27.19', '27.2', '27.21', '27.22', '27.23', '27.24', '27.25', '27.26', '27.27', '27.28', '27.29', '27.3', '27.31', '27.32', '27.33', '27.35', '27.36', '27.37', '27.38', '27.39', '27.4', '27.41', '27.42', '27.43', '27.44', '27.45', '27.46', '27.47', '27.48', '27.49', '27.5', '27.51', '27.52', '27.54', '27.55', '27.56', '27.57', '27.58', '27.59', '27.6', '27.61', '27.62', '27.64', '27.65', '27.66', '27.67', '27.68', '27.69', '27.7', '27.71', '27.72', '27.73', '27.74', '27.75', '27.76', '27.77', '27.78', '27.79', '27.8', '27.81', '27.82', '27.83', '27.84', '27.85', '27.86', '27.87', '27.88', '27.89', '27.9', '27.91', '27.92', '27.93', '27.94', '27.95', '27.96', '27.97', '27.98', '27.99', '28.01', '28.02', '28.03', '28.04', '28.06', '28.07', '28.08', '28.09', '28.1', '28.11', '28.12', '28.13', '28.14', '28.15', '28.16', '28.17', '28.18', '28.19', '28.2', '28.21', '28.22', '28.23', '28.24', '28.25', '28.26', '28.27', '28.29', '28.3', '28.31', '28.32', '28.33', '28.34', '28.35', '28.36', '28.37', '28.38', '28.39', '28.41', '28.42', '28.43', '28.44', '28.45', '28.46', '28.47', '28.48', '28.49', '28.5', '28.54', '28.55', '28.56', '28.57', '28.58', '28.59', '28.6', '28.61', '28.62', '28.63', '28.64', '28.65', '28.66', '28.67', '28.68', '28.69', '28.7', '28.71', '28.72', '28.73', '28.74', '28.75', '28.76', '28.77', '28.78', '28.79', '28.8', '28.81', '28.82', '28.83', '28.84', '28.85', '28.87', '28.89', '28.9', '28.91', '28.92', '28.93', '28.94', '28.95', '28.96', '28.97', '28.98', '29', '29.01', '29.02', '29.03', '29.04', '29.05', '29.06', '29.08', '29.09', '29.1', '29.11', '29.12', '29.13', '29.14', '29.15', '29.16', '29.17', '29.18', '29.21', '29.22', '29.23', '29.24', '29.25', '29.26', '29.27', '29.28', '29.29', '29.3', '29.32', '29.33', '29.34', '29.35', '29.36', '29.37', '29.38', '29.39', '29.4', '29.41', '29.42', '29.43', '29.44', '29.46', '29.47', '29.48', '29.49', '29.5', '29.52', '29.53', '29.54', '29.55', '29.56', '29.57', '29.58', '29.59', '29.6', '29.61', '29.64', '29.65', '29.66', '29.67', '29.68', '29.69', '29.7', '29.71', '29.72', '29.73', '29.74', '29.75', '29.76', '29.77', '29.78', '29.79', '29.8', '29.81', '29.82', '29.83', '29.84', '29.85', '29.86', '29.87', '29.88', '29.89', '29.9', '29.91', '29.92', '29.93', '29.94', '29.95', '29.96', '29.97', '29.99', '3', '3.01', '3.02', '3.03', '3.05', '3.13', '3.18', '3.19', '3.21', '3.24', '3.3', '3.35', '3.4', '3.43', '3.45', '3.55', '3.56', '3.57', '3.58', '3.59', '3.61', '3.68', '3.72', '3.73', '3.76', '3.82', '3.86', '3.92', '3.93', '3.94', '3.96', '3.97', '3.98', '30', '30.01', '30.02', '30.03', '30.04', '30.05', '30.06', '30.07', '30.08', '30.09', '30.1', '30.11', '30.12', '30.13', '30.14', '30.15', '30.16', '30.17', '30.18', '30.19', '30.21', '30.22', '30.23', '30.24', '30.25', '30.26', '30.27', '30.28', '30.31', '30.32', '30.33', '30.35', '30.36', '30.37', '30.38', '30.39', '30.4', '30.41', '30.42', '30.43', '30.44', '30.45', '30.46', '30.47', '30.48', '30.5', '30.51', '30.52', '30.53', '30.55', '30.57', '30.58', '30.59', '30.61', '30.62', '30.63', '30.64', '30.65', '30.66', '30.67', '30.68', '30.69', '30.7', '30.72', '30.73', '30.74', '30.75', '30.76', '30.77', '30.78', '30.79', '30.8', '30.81', '30.84', '30.85', '30.86', '30.87', '30.88', '30.89', '30.9', '30.91', '30.92', '30.93', '30.95', '30.96', '30.97', '30.98', '30.99', '31.01', '31.02', '31.03', '31.04', '31.05', '31.06', '31.07', '31.08', '31.09', '31.1', '31.12', '31.13', '31.14', '31.15', '31.16', '31.17', '31.18', '31.19', '31.2', '31.21', '31.22', '31.23', '31.24', '31.25', '31.26', '31.27', '31.28', '31.29', '31.3', '31.31', '31.32', '31.33', '31.34', '31.35', '31.36', '31.37', '31.38', '31.39', '31.4', '31.41', '31.42', '31.43', '31.44', '31.45', '31.46', '31.47', '31.48', '31.49', '31.5', '31.52', '31.53', '31.55', '31.56', '31.57', '31.58', '31.59', '31.6', '31.61', '31.62', '31.63', '31.64', '31.65', '31.66', '31.67', '31.68', '31.69', '31.7', '31.71', '31.72', '31.73', '31.74', '31.75', '31.76', '31.78', '31.79', '31.8', '31.81', '31.82', '31.83', '31.84', '31.85', '31.86', '31.87', '31.88', '31.89', '31.9', '31.91', '31.92', '31.93', '31.94', '31.96', '31.97', '31.98', '31.99', '32', '32.01', '32.02', '32.03', '32.04', '32.05', '32.06', '32.07', '32.08', '32.1', '32.12', '32.13', '32.14', '32.15', '32.16', '32.17', '32.18', '32.19', '32.2', '32.21', '32.22', '32.23', '32.24', '32.25', '32.26', '32.27', '32.28', '32.29', '32.3', '32.31', '32.32', '32.33', '32.34', '32.35', '32.36', '32.37', '32.38', '32.39', '32.4', '32.41', '32.42', '32.43', '32.44', '32.45', '32.46', '32.47', '32.48', '32.49', '32.5', '32.51', '32.52', '32.53', '32.54', '32.55', '32.56', '32.57', '32.59', '32.61', '32.62', '32.63', '32.64', '32.65', '32.66', '32.67', '32.68', '32.69', '32.7', '32.72', '32.73', '32.74', '32.75', '32.76', '32.77', '32.78', '32.79', '32.8', '32.81', '32.82', '32.83', '32.84', '32.85', '32.86', '32.87', '32.88', '32.89', '32.9', '32.91', '32.92', '32.93', '32.94', '32.95', '32.96', '32.97', '32.98', '32.99', '33', '33.01', '33.02', '33.03', '33.06', '33.07', '33.09', '33.1', '33.11', '33.12', '33.13', '33.14', '33.15', '33.16', '33.17', '33.18', '33.19', '33.21', '33.22', '33.23', '33.24', '33.25', '33.26', '33.27', '33.28', '33.3', '33.31', '33.32', '33.33', '33.34', '33.36', '33.37', '33.38', '33.39', '33.4', '33.41', '33.42', '33.43', '33.44', '33.45', '33.46', '33.47', '33.48', '33.49', '33.5', '33.51', '33.52', '33.54', '33.55', '33.56', '33.57', '33.58', '33.59', '33.6', '33.61', '33.62', '33.63', '33.64', '33.65', '33.66', '33.67', '33.68', '33.7', '33.71', '33.72', '33.73', '33.74', '33.75', '33.76', '33.77', '33.78', '33.81', '33.82', '33.83', '33.84', '33.86', '33.87', '33.88', '33.89', '33.9', '33.91', '33.92', '33.93', '33.94', '33.95', '33.96', '33.97', '33.98', '33.99', '34', '34.01', '34.02', '34.03', '34.04', '34.05', '34.06', '34.07', '34.08', '34.09', '34.1', '34.11', '34.12', '34.13', '34.14', '34.15', '34.16', '34.17', '34.18', '34.19', '34.2', '34.21', '34.23', '34.24', '34.25', '34.26', '34.27', '34.28', '34.29', '34.3', '34.31', '34.32', '34.33', '34.34', '34.35', '34.37', '34.38', '34.39', '34.4', '34.41', '34.43', '34.44', '34.45', '34.46', '34.47', '34.48', '34.49', '34.5', '34.51', '34.52', '34.53', '34.54', '34.55', '34.56', '34.57', '34.58', '34.59', '34.6', '34.61', '34.62', '34.63', '34.65', '34.67', '34.68', '34.7', '34.71', '34.72', '34.73', '34.74', '34.75', '34.76', '34.77', '34.78', '34.79', '34.8', '34.82', '34.83', '34.84', '34.85', '34.86', '34.87', '34.89', '34.93', '34.94', '34.95', '34.97', '34.98', '34.99', '35', '35.01', '35.02', '35.03', '35.04', '35.05', '35.06', '35.07', '35.08', '35.1', '35.11', '35.12', '35.13', '35.14', '35.15', '35.16', '35.18', '35.19', '35.2', '35.21', '35.22', '35.23', '35.24', '35.25', '35.26', '35.27', '35.28', '35.29', '35.3', '35.31', '35.32', '35.33', '35.34', '35.35', '35.36', '35.37', '35.38', '35.39', '35.4', '35.41', '35.42', '35.43', '35.44', '35.45', '35.47', '35.48', '35.49', '35.5', '35.51', '35.53', '35.54', '35.55', '35.56', '35.58', '35.59', '35.6', '35.61', '35.62', '35.63', '35.64', '35.65', '35.66', '35.67', '35.68', '35.69', '35.7', '35.71', '35.72', '35.73', '35.74', '35.75', '35.76', '35.78', '35.79', '35.8', '35.81', '35.82', '35.83', '35.84', '35.85', '35.86', '35.88', '35.89', '35.9', '35.91', '35.92', '35.93', '35.94', '35.95', '35.96', '35.97', '35.98', '35.99', '36', '36.01', '36.02', '36.03', '36.04', '36.05', '36.06', '36.07', '36.09', '36.1', '36.11', '36.12', '36.13', '36.15', '36.16', '36.18', '36.2', '36.21', '36.23', '36.24', '36.26', '36.27', '36.28', '36.29', '36.3', '36.31', '36.32', '36.33', '36.34', '36.35', '36.36', '36.37', '36.38', '36.39', '36.4', '36.42', '36.43', '36.44', '36.45', '36.46', '36.47', '36.48', '36.49', '36.5', '36.52', '36.53', '36.54', '36.55', '36.56', '36.57', '36.58', '36.59', '36.6', '36.61', '36.62', '36.63', '36.64', '36.65', '36.66', '36.67', '36.68', '36.69', '36.7', '36.71', '36.72', '36.73', '36.74', '36.75', '36.76', '36.78', '36.79', '36.8', '36.81', '36.82', '36.83', '36.84', '36.85', '36.86', '36.87', '36.88', '36.89', '36.9', '36.91', '36.92', '36.93', '36.94', '36.96', '36.97', '36.98', '36.99', '37.01', '37.02', '37.03', '37.04', '37.06', '37.07', '37.08', '37.09', '37.1', '37.11', '37.12', '37.13', '37.14', '37.15', '37.16', '37.17', '37.18', '37.19', '37.2', '37.21', '37.22', '37.23', '37.24', '37.25', '37.26', '37.27', '37.28', '37.29', '37.3', '37.31', '37.32', '37.33', '37.35', '37.36', '37.38', '37.39', '37.4', '37.41', '37.42', '37.43', '37.44', '37.45', '37.46', '37.47', '37.48', '37.49', '37.5', '37.51', '37.52', '37.53', '37.54', '37.55', '37.56', '37.57', '37.58', '37.59', '37.6', '37.61', '37.62', '37.63', '37.64', '37.66', '37.68', '37.69', '37.7', '37.71', '37.72', '37.73', '37.74', '37.75', '37.76', '37.77', '37.79', '37.8', '37.81', '37.82', '37.83', '37.84', '37.85', '37.86', '37.88', '37.89', '37.9', '37.92', '37.93', '37.94', '37.95', '37.96', '37.97', '37.98', '37.99', '38.01', '38.02', '38.03', '38.04', '38.05', '38.06', '38.07', '38.08', '38.09', '38.1', '38.11', '38.12', '38.14', '38.15', '38.16', '38.17', '38.18', '38.19', '38.2', '38.21', '38.22', '38.23', '38.24', '38.25', '38.26', '38.27', '38.28', '38.29', '38.3', '38.31', '38.32', '38.33', '38.34', '38.36', '38.38', '38.39', '38.4', '38.41', '38.42', '38.44', '38.46', '38.47', '38.48', '38.49', '38.5', '38.51', '38.52', '38.53', '38.55', '38.56', '38.57', '38.59', '38.6', '38.61', '38.62', '38.63', '38.64', '38.66', '38.67', '38.68', '38.69', '38.7', '38.71', '38.72', '38.73', '38.74', '38.75', '38.77', '38.78', '38.79', '38.8', '38.81', '38.82', '38.83', '38.84', '38.85', '38.86', '38.87', '38.88', '38.89', '38.9', '38.91', '38.92', '38.93', '38.94', '38.95', '38.96', '38.97', '38.99', '39', '39.01', '39.02', '39.03', '39.04', '39.05', '39.06', '39.07', '39.08', '39.09', '39.1', '39.11', '39.12', '39.13', '39.14', '39.15', '39.16', '39.18', '39.19', '39.2', '39.21', '39.22', '39.24', '39.25', '39.26', '39.27', '39.28', '39.29', '39.3', '39.31', '39.32', '39.33', '39.34', '39.35', '39.36', '39.37', '39.38', '39.39', '39.41', '39.42', '39.43', '39.44', '39.45', '39.46', '39.47', '39.48', '39.49', '39.5', '39.51', '39.52', '39.53', '39.54', '39.55', '39.56', '39.57', '39.58', '39.59', '39.6', '39.61', '39.62', '39.63', '39.64', '39.65', '39.67', '39.68', '39.69', '39.7', '39.71', '39.73', '39.74', '39.75', '39.76', '39.77', '39.78', '39.79', '39.81', '39.82', '39.83', '39.84', '39.85', '39.86', '39.87', '39.88', '39.89', '39.9', '39.93', '39.94', '39.95', '39.96', '39.97', '39.98', '39.99', '4.02', '4.04', '4.05', '4.06', '4.12', '4.14', '4.15', '4.16', '4.21', '4.23', '4.25', '4.26', '4.28', '4.32', '4.33', '4.35', '4.39', '4.41', '4.42', '4.43', '4.44', '4.47', '4.5', '4.52', '4.54', '4.55', '4.56', '4.6', '4.61', '4.62', '4.63', '4.64', '4.66', '4.67', '4.71', '4.72', '4.73', '4.76', '4.78', '4.79', '4.8', '4.81', '4.83', '4.85', '4.86', '4.87', '4.88', '4.9', '4.92', '4.96', '4.98', '4.99', '40', '40.01', '40.02', '40.03', '40.04', '40.05', '40.07', '40.08', '40.1', '40.11', '40.12', '40.13', '40.14', '40.15', '40.16', '40.17', '40.19', '40.2', '40.22', '40.23', '40.24', '40.25', '40.26', '40.27', '40.28', '40.3', '40.31', '40.32', '40.33', '40.34', '40.35', '40.36', '40.37', '40.39', '40.4', '40.41', '40.42', '40.43', '40.44', '40.45', '40.46', '40.47', '40.48', '40.49', '40.5', '40.51', '40.52', '40.53', '40.54', '40.55', '40.56', '40.57', '40.59', '40.6', '40.61', '40.63', '40.64', '40.65', '40.66', '40.67', '40.68', '40.69', '40.7', '40.71', '40.72', '40.73', '40.74', '40.75', '40.76', '40.77', '40.78', '40.8', '40.81', '40.82', '40.83', '40.84', '40.85', '40.86', '40.87', '40.88', '40.89', '40.9', '40.91', '40.92', '40.93', '40.94', '40.95', '40.96', '40.97', '40.98', '41', '41.01', '41.02', '41.03', '41.04', '41.05', '41.06', '41.07', '41.09', '41.1', '41.11', '41.12', '41.13', '41.14', '41.15', '41.16', '41.17', '41.18', '41.19', '41.2', '41.21', '41.22', '41.23', '41.24', '41.25', '41.26', '41.27', '41.28', '41.29', '41.3', '41.31', '41.32', '41.33', '41.34', '41.35', '41.36', '41.38', '41.39', '41.4', '41.41', '41.42', '41.44', '41.46', '41.47', '41.48', '41.49', '41.5', '41.51', '41.52', '41.53', '41.54', '41.55', '41.56', '41.57', '41.58', '41.59', '41.6', '41.61', '41.62', '41.63', '41.64', '41.65', '41.66', '41.67', '41.68', '41.69', '41.7', '41.72', '41.73', '41.74', '41.75', '41.76', '41.77', '41.78', '41.79', '41.8', '41.81', '41.82', '41.83', '41.84', '41.85', '41.86', '41.87', '41.88', '41.89', '41.9', '41.91', '41.92', '41.93', '41.96', '41.98', '41.99', '42', '42.01', '42.02', '42.03', '42.05', '42.06', '42.07', '42.08', '42.09', '42.11', '42.12', '42.13', '42.15', '42.16', '42.17', '42.18', '42.19', '42.21', '42.22', '42.23', '42.26', '42.27', '42.28', '42.29', '42.3', '42.31', '42.32', '42.33', '42.34', '42.35', '42.36', '42.37', '42.38', '42.39', '42.4', '42.43', '42.45', '42.46', '42.47', '42.48', '42.49', '42.5', '42.51', '42.52', '42.53', '42.54', '42.55', '42.56', '42.57', '42.58', '42.59', '42.6', '42.61', '42.62', '42.63', '42.65', '42.66', '42.67', '42.68', '42.69', '42.7', '42.72', '42.73', '42.74', '42.75', '42.76', '42.77', '42.78', '42.79', '42.8', '42.81', '42.82', '42.84', '42.85', '42.86', '42.87', '42.88', '42.89', '42.9', '42.91', '42.92', '42.93', '42.94', '42.95', '42.96', '42.97', '42.98', '42.99', '43', '43.01', '43.02', '43.03', '43.04', '43.05', '43.06', '43.07', '43.08', '43.1', '43.11', '43.12', '43.13', '43.14', '43.15', '43.16', '43.17', '43.18', '43.19', '43.2', '43.21', '43.22', '43.23', '43.25', '43.26', '43.27', '43.28', '43.29', '43.3', '43.31', '43.32', '43.33', '43.34', '43.35', '43.36', '43.37', '43.38', '43.39', '43.4', '43.41', '43.42', '43.43', '43.44', '43.45', '43.46', '43.49', '43.5', '43.52', '43.53', '43.54', '43.55', '43.56', '43.57', '43.58', '43.59', '43.6', '43.61', '43.62', '43.63', '43.64', '43.65', '43.67', '43.68', '43.69', '43.7', '43.71', '43.72', '43.73', '43.74', '43.75', '43.76', '43.77', '43.78', '43.79', '43.81', '43.82', '43.83', '43.84', '43.85', '43.87', '43.88', '43.89', '43.9', '43.91', '43.93', '43.94', '43.95', '43.96', '43.97', '43.98', '43.99', '44', '44.01', '44.02', '44.03', '44.04', '44.05', '44.06', '44.08', '44.09', '44.1', '44.12', '44.14', '44.15', '44.16', '44.17', '44.18', '44.2', '44.22', '44.24', '44.25', '44.27', '44.28', '44.29', '44.3', '44.31', '44.32', '44.33', '44.34', '44.35', '44.36', '44.37', '44.38', '44.39', '44.4', '44.41', '44.42', '44.43', '44.44', '44.45', '44.46', '44.47', '44.48', '44.49', '44.5', '44.51', '44.52', '44.54', '44.55', '44.56', '44.57', '44.58', '44.59', '44.6', '44.61', '44.62', '44.63', '44.65', '44.66', '44.67', '44.68', '44.69', '44.7', '44.71', '44.72', '44.73', '44.74', '44.75', '44.76', '44.77', '44.78', '44.79', '44.8', '44.81', '44.82', '44.83', '44.84', '44.85', '44.86', '44.87', '44.88', '44.89', '44.9', '44.92', '44.93', '44.96', '44.97', '44.98', '44.99', '45.01', '45.04', '45.06', '45.07', '45.08', '45.09', '45.1', '45.11', '45.12', '45.13', '45.14', '45.15', '45.16', '45.17', '45.18', '45.19', '45.2', '45.22', '45.23', '45.24', '45.25', '45.27', '45.3', '45.32', '45.33', '45.34', '45.35', '45.36', '45.37', '45.38', '45.39', '45.4', '45.41', '45.42', '45.43', '45.44', '45.45', '45.46', '45.47', '45.48', '45.5', '45.51', '45.52', '45.53', '45.54', '45.55', '45.57', '45.58', '45.59', '45.6', '45.61', '45.62', '45.64', '45.65', '45.66', '45.67', '45.68', '45.69', '45.7', '45.71', '45.73', '45.74', '45.75', '45.76', '45.77', '45.78', '45.79', '45.8', '45.82', '45.83', '45.84', '45.85', '45.86', '45.88', '45.89', '45.9', '45.92', '45.93', '45.94', '45.95', '45.96', '45.97', '45.99', '46', '46.01', '46.02', '46.03', '46.04', '46.05', '46.06', '46.07', '46.08', '46.09', '46.1', '46.11', '46.12', '46.13', '46.14', '46.15', '46.16', '46.17', '46.18', '46.19', '46.21', '46.22', '46.24', '46.25', '46.26', '46.27', '46.28', '46.29', '46.3', '46.31', '46.32', '46.33', '46.34', '46.35', '46.36', '46.37', '46.38', '46.4', '46.41', '46.42', '46.43', '46.44', '46.45', '46.46', '46.47', '46.48', '46.49', '46.5', '46.51', '46.52', '46.53', '46.54', '46.55', '46.56', '46.57', '46.58', '46.59', '46.6', '46.62', '46.65', '46.67', '46.68', '46.69', '46.7', '46.71', '46.72', '46.73', '46.76', '46.77', '46.78', '46.79', '46.8', '46.81', '46.82', '46.83', '46.84', '46.85', '46.86', '46.87', '46.88', '46.89', '46.9', '46.91', '46.93', '46.95', '46.96', '46.97', '46.98', '46.99', '47', '47.01', '47.02', '47.03', '47.04', '47.05', '47.06', '47.07', '47.08', '47.09', '47.1', '47.11', '47.13', '47.14', '47.15', '47.16', '47.17', '47.18', '47.19', '47.2', '47.21', '47.22', '47.23', '47.24', '47.25', '47.26', '47.27', '47.29', '47.3', '47.31', '47.32', '47.33', '47.37', '47.38', '47.4', '47.41', '47.42', '47.43', '47.44', '47.45', '47.46', '47.47', '47.5', '47.52', '47.53', '47.54', '47.56', '47.58', '47.59', '47.61', '47.62', '47.63', '47.64', '47.65', '47.67', '47.68', '47.69', '47.7', '47.71', '47.72', '47.73', '47.74', '47.75', '47.76', '47.78', '47.79', '47.8', '47.81', '47.82', '47.83', '47.84', '47.85', '47.86', '47.88', '47.89', '47.9', '47.91', '47.92', '47.93', '47.94', '47.95', '47.96', '47.97', '47.98', '47.99', '48', '48.02', '48.03', '48.04', '48.05', '48.06', '48.08', '48.09', '48.1', '48.11', '48.13', '48.15', '48.16', '48.18', '48.19', '48.2', '48.21', '48.22', '48.23', '48.25', '48.26', '48.27', '48.3', '48.31', '48.32', '48.33', '48.34', '48.35', '48.36', '48.37', '48.38', '48.41', '48.42', '48.43', '48.44', '48.45', '48.46', '48.47', '48.48', '48.5', '48.52', '48.53', '48.55', '48.57', '48.58', '48.59', '48.61', '48.62', '48.63', '48.64', '48.65', '48.66', '48.67', '48.68', '48.69', '48.7', '48.71', '48.72', '48.73', '48.74', '48.75', '48.77', '48.78', '48.79', '48.81', '48.82', '48.84', '48.85', '48.86', '48.87', '48.88', '48.89', '48.92', '48.93', '48.94', '48.96', '48.97', '48.98', '48.99', '49', '49.02', '49.03', '49.04', '49.05', '49.06', '49.07', '49.08', '49.09', '49.1', '49.11', '49.12', '49.13', '49.14', '49.15', '49.16', '49.17', '49.18', '49.19', '49.2', '49.21', '49.22', '49.23', '49.24', '49.25', '49.26', '49.27', '49.28', '49.29', '49.3', '49.32', '49.33', '49.34', '49.35', '49.36', '49.37', '49.38', '49.4', '49.41', '49.42', '49.43', '49.44', '49.45', '49.46', '49.47', '49.48', '49.51', '49.52', '49.53', '49.55', '49.56', '49.58', '49.6', '49.61', '49.62', '49.63', '49.64', '49.65', '49.66', '49.67', '49.68', '49.69', '49.7', '49.71', '49.72', '49.73', '49.74', '49.75', '49.76', '49.77', '49.78', '49.79', '49.8', '49.81', '49.84', '49.85', '49.86', '49.87', '49.88', '49.89', '49.9', '49.91', '49.92', '49.94', '49.95', '49.96', </t>
         </is>
@@ -995,12 +1018,15 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>3058</v>
+      </c>
+      <c r="U8" t="n">
         <v>51122</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>4932</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>['0', '0.25', '10.9', '100', '1000', '10000', '10005.8', '10006', '10011.6', '10012.95', '10018.8', '10020', '10021.75', '10022.6', '10025', '10027.35', '1003.75', '10030', '10031', '10035', '10035.4', '10036', '10036.11', '10040', '10045', '10045.05', '10049.11', '10050', '10051.7', '10055', '10057', '10057.85', '10058.3', '10060', '10063.6', '10065', '10066.15', '10070', '10079.37', '10079.81', '10080', '10080.02', '10083.3', '10084.6', '10085', '10085.24', '10085.3', '10086.25', '10087', '10090', '10096', '10100', '10100.4', '10101.7', '10103.88', '10105', '10107.15', '10110', '10112.7', '10120', '10121.4', '10124.58', '10125', '10135', '10139', '10140', '10140.8', '10145', '10145.45', '1015', '10150', '10152.15', '10152.7', '10155', '10157.35', '10160', '10161.37', '10162.12', '10163.95', '10165.75', '10169', '10170', '10171', '10175', '1018', '1018.51', '10180', '10184.55', '10187.8', '10190.8', '102.85', '1020', '10200', '10201.2', '10205', '10205.35', '10206', '10211.75', '10215.92', '10220', '10220.14', '10224.45', '10225.28', '10229', '10230', '10231', '10234', '10234.16', '10239', '10240', '10240.41', '1025', '10250', '10252.99', '10257.3', '10259.9', '10261.95', '10265.7', '10270', '10273', '10275', '10282', '10282.42', '10290', '10291.8', '10292', '10292.5', '10294.95', '10299.37', '1030', '1030.86', '10300', '10301.57', '10304', '10304.92', '10307.7', '10310', '10310.4', '10311', '10318.88', '10322.36', '10322.9', '10326', '10326.35', '10326.7', '10329.1', '10329.55', '1033', '10330', '10332.16', '10339.34', '10339.66', '10340', '10340.4', '10340.8', '10345.88', '10346.7', '10349', '10350', '10358.06', '10360', '10361.7', '10370.2', '10374.1', '10377.06', '10380', '10384.45', '1039.11', '10390.8', '1040', '10400', '10400.71', '10408.84', '10412.26', '10415', '10417', '10417.29', '10419.4', '10420', '10427', '10428.59', '1043', '10432', '10435', '10438.93', '10439.94', '1044.72', '10440', '10440.1', '10443.33', '10443.93', '10445.16', '10452.1', '10457.88', '10465', '10466.24', '10468.5', '10471.4', '10471.7', '10472.92', '10478.83', '10479', '1049.95', '10495', '10497.1', '10498', '10498.75', '10499.95', '10499.99', '1050', '10500', '10500.01', '10509.75', '10513.4', '10517', '10517.2', '10518', '10518.03', '10520.3', '10520.8', '10525', '10526.78', '10530', '10530.5', '10533', '10533.55', '10537', '10537.91', '1054.07', '10540', '10541', '10544', '10545.41', '10545.94', '10550', '10556.8', '10557', '10566', '10570', '10575', '10575.24', '10578.79', '10579', '10580', '10582.99', '10586.6', '10589.79', '10590.2', '10594', '10596.79', '10596.92', '10599', '1060', '10600', '10605', '10605.4', '10612.5', '10619.85', '10630', '10630.3', '10631.66', '10639', '1064', '10641.4', '10642', '10644.7', '1065', '10653.25', '10656.36', '10658.45', '1066.4', '10660', '10661', '10661.55', '10662', '10664.64', '10665', '10665.21', '10667.45', '10672.7', '10674.3', '10678', '10682.85', '10683.04', '1069.2', '10690', '10691.75', '10700', '10702.68', '10711.36', '10720.41', '10721.9', '10723.24', '10727', '10732', '10738.8', '10746', '10748.24', '10750', '10752.14', '10755.25', '10756.97', '10759', '10764.44', '10764.57', '10770.1', '10775.09', '10778.41', '10786.4', '10787.1', '10788.32', '10790', '10794.4', '10795.95', '10798', '1080', '10806.6', '10806.82', '10807.4', '10810.4', '10811.3', '10818', '10820.1', '10821.99', '10822.02', '1083.5', '10832.4', '10832.69', '10833.1', '10833.84', '10835.2', '10848.49', '10857.22', '10862.3', '10863.65', '10865', '10867', '10875.62', '10877', '10881.22', '10884.1', '10890', '10893.6', '10897.23', '10898.2', '1090', '10900', '10901.55', '10905.7', '10905.95', '10908.85', '10909.45', '10915', '10923.85', '10924', '10933', '10935', '10937.14', '10939', '10948', '10949.9', '10953.48', '10955', '10957.04', '10964.65', '1097', '1099', '10990', '10997', '10997.52', '10998.52', '1100', '11000', '11001.04', '11002.78', '11011.55', '11016.4', '11017', '11019.05', '11021.19', '11025.64', '1103', '11032', '11036.55', '11042.8', '11049.83', '1106.49', '11060.95', '11069.2', '1107.55', '11077', '11079.28', '1108.5', '1108.8', '11080', '1109.98', '11092.34', '1110', '11104.95', '11108.8', '11117.43', '11122', '11122.35', '11139.36', '11144.01', '11144.39', '11145.17', '11145.7', '1115', '11153.16', '11163.55', '11165.8', '11169.96', '11170', '11195.1', '1120', '11200', '11201.14', '11203.6', '11207.5', '11212', '11214.5', '11218.29', '11224', '11224.8', '11233.8', '11244.85', '11246.78', '11246.95', '11247.72', '11249.9', '1125.7', '11250.28', '11259.16', '11259.98', '1126.4', '11260', '11266.8', '11276.74', '11295', '11299', '11299.65', '1130', '11300', '11301', '11302.2', '11304', '11307.25', '11315.35', '11322.7', '11328', '1134', '11340.45', '11344.46', '11345.98', '11346.22', '11354.02', '1136', '11362.55', '11366.12', '11367', '11372', '11385.28', '11389.3', '11390', '11394.1', '11395.9', '11400', '11403.39', '11409.5', '11410', '11410.5', '11413.72', '11420.6', '11430', '11450', '11451.09', '11452.3', '11454.9', '11467.66', '11469', '1147.25', '11470.25', '11477', '1148.65', '11481.35', '11482.47', '11483.5', '11484.35', '11484.93', '11485.2', '11490', '11491', '11495', '11496.68', '11498.5', '1150', '11500', '11511.75', '11521.35', '11525.5', '11525.85', '11530', '11538.04', '11545', '11555.6', '11558.5', '11560', '11570.1', '11575.26', '11583.1', '1160', '11603.38', '11608.8', '11612', '11613.2', '11616.14', '11619.6', '11620', '11634.95', '11643.98', '11649.72', '1165.4', '11650', '11659.66', '11666.15', '11666.87', '11673.8', '11675.89', '11676.15', '11680.4', '1170', '11700', '11701.6', '11702.95', '11710', '11711.94', '11715', '1173.62', '11731.16', '11736.66', '11738', '11742.9', '11746.92', '11757.37', '11758.69', '11769.59', '11770', '11772.58', '11779.1', '11782', '11788', '11791.91', '11793.46', '1180', '11800', '11807.22', '11807.47', '11810', '11814.49', '11828.39', '11829.5', '11830.76', '11830.89', '11832.14', '11836.2', '11836.56', '11838.67', '11842.9', '11847.6', '11848', '1185', '11860.08', '11862.22', '11862.24', '11870', '11872.15', '11878', '11879.9', '11883.76', '11888.7', '11890', '11900.31', '11902', '11907.45', '11909.1', '11909.15', '11918', '11927', '11927.7', '11938.4', '11940', '11940.53', '11946.27', '11946.81', '11948.6', '11948.8', '11949.94', '1195', '11954.2', '11965.5', '11965.75', '11969.72', '1197.14', '11972.8', '11973.79', '1199', '1200', '12000', '12005.67', '12013.91', '12018.04', '12022.25', '12024.76', '1203.2', '12030', '12034.44', '1204.7', '12044', '12049', '1205', '12050.08', '12051.85', '12053.57', '12057.18', '12064.08', '12064.3', '12067.05', '12068.6', '12077.35', '12078.89', '12080.3', '12085.6', '12087', '12087.1', '12104.95', '12108', '12108.8', '12110.79', '12116.2', '12119.2', '12127', '1213.05', '12130.95', '12137.19', '12138.71', '1214.78', '12143.82', '12144.11', '12145.7', '12152.07', '12165.1', '12180', '12184.25', '12185.22', '1219.7', '1220', '12200', '12201.5', '12210.66', '12217.6', '12219.23', '12225.6', '1223.01', '12230', '12243.34', '12244', '12250', '12253.32', '12255.75', '12256.86', '12259.85', '12261.14', '12270', '12270.4', '12271.7', '12272.6', '12275.19', '12277.5', '12284.99', '1229', '12294.16', '12300', '12303.25', '12306.15', '12307.45', '12310.78', '12317.6', '12318.38', '12319.48', '12327.6', '12333.25', '12337.6', '1234.86', '12348', '1235.7', '12382.9', '12385', '12389.75', '1239.51', '12394', '12396.08', '12397', '12400', '12401.6', '12404.63', '12410', '12423', '12424.8', '12432.58', '12440', '12442.25', '12448.73', '1245.25', '12450', '12456.15', '12457.6', '12460', '12464', '12464.46', '12474', '12479.02', '12488.85', '12489.48', '12496.8', '1250', '1250.76', '12500', '12502.36', '12504.97', '12507.25', '12507.5', '12515.06', '12516.96', '12522.61', '12527.45', '1253.55', '12531.9', '12532.5', '12539.35', '1254', '12542.15', '12542.44', '12544', '1255', '12550', '12551', '12552.78', '12556', '12559.86', '12562.42', '12562.96', '1258.8', '12591.6', '12592.63', '12596.82', '1260', '12600.25', '12605.54', '12607.66', '12608.56', '12612', '12617', '12617.5', '12618', '12621.12', '12630', '12634.9', '12637.6', '12637.78', '12641.72', '12643.6', '12654.45', '12658.05', '1266.5', '12661.15', '12664.41', '12670.5', '12673.68', '12676.8', '12677', '12685.91', '12693.16', '12700', '12709.18', '1271.59', '12712.6', '12714.6', '12716.35', '12717.6', '1272', '12725', '12726.64', '12728', '1274', '12747.12', '12756.2', '12770', '12776.39', '12778.65', '12789.75', '12790.17', '12796', '1280', '12800', '12801.47', '12832.3', '12834.55', '12835.6', '12838.58', '12849.85', '1285.71', '1285.83', '12850', '12856.02', '12860', '12877.1', '12878.8', '1288.68', '12883.1', '12883.51', '12889.85', '12891.1', '12900', '12906.97', '12907.6', '12908.55', '12918.06', '12919.57', '12921.21', '12929.73', '12933.4', '12940.92', '12941.44', '12944.4', '1295.95', '12950', '12950.1', '12951.36', '12954', '12979.74', '12983', '12990.25', '12999.15', '1300', '13000', '13001.38', '13003', '13009.5', '1301', '13013', '13018.12', '13022.26', '13031.73', '13032.77', '13033.26', '13044', '13046', '1305', '13050', '13051.78', '13052', '13052.15', '13058.5', '13059.5', '13068.4', '13069.03', '13072.25', '13082.27', '13082.95', '13087.28', '13087.89', '13093.92', '1310', '13100', '13100.88', '13105.9', '13108.88', '13111.1', '1312.76', '13120', '13124.2', '1314', '1314.51', '1315', '1315.85', '13157.5', '13166.5', '1317.75', '1319.5', '13190.4', '13195', '1320', '13200', '13212.3', '13213.15', '13216', '13217.45', '13223.3', '1323.2', '1323.7', '13230.26', '13233.8', '1325', '1325.7', '13261.03', '13266.2', '1327.9', '13281.96', '13286.6', '1329', '1329.95', '13291.2', '13295.2', '1330', '1330.2', '13300', '13313.53', '13314.81', '13315.13', '1332', '13329.95', '1333', '13331.31', '13331.55', '13333.29', '13335.11', '13341.1', '13341.44', '1335', '1336.4', '1336.7', '13370.88', '13379', '13380.3', '1339.8', '13392.85', '13396.52', '1340', '13400', '13416.4', '1343', '13431.95', '13439.68', '13440', '13447.96', '13448.98', '1345', '1345.8', '13450', '13451.6', '13453.26', '13463.2', '1347.7', '13488.91', '13496', '1350', '13500', '13508.72', '13522.64', '13528.85', '13535.65', '13540.55', '1355', '1355.96', '13560', '13562.1', '1357.25', '1358', '13581.42', '13581.45', '13586', '1360', '1360.8', '13601.95', '13619.09', '1362.2', '1363.2', '1363.3', '13630', '13638.5', '13639.95', '1364', '1365', '13656.5', '1366', '13664.31', '13669.47', '1367.85', '13676.01', '1368.3', '13699.15', '1370', '13705', '13708.25', '13719.58', '1372', '1372.16', '13720', '13725.6', '1373.05', '1373.1', '1374.9', '13741.7', '13744.65', '13746', '13747.79', '1375', '13762', '13781.1', '13791.26', '13794', '1380', '13800', '13813.45', '13815.42', '13816.45', '1382.78', '13822.07', '13827.57', '13829.27', '13829.42', '13841.79', '13842.8', '1385', '13850.73', '13859', '1386.64', '13873.35', '13874', '13876.5', '1388', '1389', '1389.55', '1389.9', '1389.95', '13890.51', '13892.5', '13896.93', '1390', '13900.92', '13903', '13906.1', '13918.15', '1392', '1393.32', '13939.9', '13942.5', '13946.55', '1395', '13950.05', '13950.8', '13968.5', '1399', '13991.68', '13991.8', '1400', '14000', '14009.45', '1401.68', '14014.65', '14017.6', '14026.2', '1403.3', '1405', '1405.9', '14055.12', '1407.95', '14082.95', '1409.6', '14096', '1410', '14109.65', '14123', '14128.93', '14134.74', '14135.35', '14146.09', '14147.76', '14158.19', '14169', '14177.65', '14186.05', '1419', '1419.84', '14190.25', '14196', '1420', '14225.35', '14226.75', '14227.9', '14239.25', '1425', '1425.6', '14250', '14273.18', '14282.56', '1429.56', '14292.48', '1430', '14304.54', '14310', '14312.6', '14315.94', '14322.02', '14326.75', '14333.61', '14334', '14345.14', '1435', '14350', '14357.19', '1436.72', '14361', '1437.7', '1438.5', '14388.57', '1439', '1439.95', '14394.95', '144.6', '1440', '1440.4', '14400', '14402.6', '14407.18', '14408.05', '1441.14', '14416.9', '14419.28', '14448.55', '1445.19', '14458.8', '1446.4', '14473.82', '14475.2', '1448', '14485', '14486.35', '1449.06', '14490', '14496.7', '1450', '1450.15', '14500', '14500.77', '14502.74', '14503.46', '14506.28', '14519.1', '1452.25', '1452.87', '14526.65', '14533.9', '14544.22', '1455', '14566.4', '14568.85', '14569.49', '14571', '14571.1', '14571.16', '14577.75', '14578.54', '14579.25', '14583', '1459.17', '14598.2', '1460', '1460.49', '14600.2', '14610.2', '14614', '14625', '14626.9', '14627.42', '1463.6', '14633.9', '14634.46', '14639.63', '1464.42', '14640', '14647.78', '14648.82', '1465', '14655', '14667.5', '1467.22', '14677.92', '14679.93', '1468.2', '1469.2', '14693', '14694.74', '14694.8', '1470', '14705', '1472.4', '14736.84', '14737.8', '14741.08', '14743.1', '14743.65', '14744.93', '14746.5', '1475', '14756.2', '1477.7', '14772.6', '14777.16', '1479', '1480', '14800', '14802.07', '14803.04', '14806.7', '14807', '14810', '14820', '14821.42', '14837.42', '14838.12', '14838.7', '14841', '1485', '1485.32', '14866.32', '14868.88', '1487.5', '14871.49', '14873.49', '14875.35', '1488', '14881.57', '1489', '14899.34', '1490', '14907.92', '1491.74', '1491.78', '14911.07', '14932.85', '14940.82', '14944.8', '1495', '14955.3', '14960.5', '14975', '1500', '15000', '15006', '15014.48', '15014.94', '15019.25', '15025', '15028.41', '1503', '15031.3', '15037.95', '15041', '1505', '15051.24', '15052', '15054.68', '1506.7', '15071', '1508.8', '15080', '15083.86', '15087', '15098.49', '15098.86', '1510', '1510.4', '1511.6', '1511.94', '15114.7', '15132.19', '1514.5', '15141.2', '1515', '1515.4', '15154.95', '15155.47', '15156.21', '15164.9', '15179.55', '15181.15', '15181.41', '1519.52', '15190', '1520', '1520.26', '1520.27', '15205', '15214.79', '1522.66', '15221.46', '15222.29', '15240.05', '15240.52', '1525', '15252.02', '15259.92', '1526', '15265.5', '1527.4', '1528.7', '15285.02', '15286', '15289.38', '15293.63', '1530', '1532.02', '15325', '15335', '1535', '1535.2', '1537.09', '1537.5', '1538', '1538.38', '1539.85', '15393', '15398.59', '1540', '15401', '15430.19', '15441.5', '15455.36', '15459.33', '1546.56', '15460', '15494.19', '15495.21', '15496', '1550', '15502', '15504.95', '15524.56', '1554.95', '15541.9', '1555', '15550.93', '15557.65', '15567.1', '1558.87', '15581.15', '15582', '1559', '1560', '1560.92', '15600', '15607.82', '15621.4', '15628.03', '1563.75', '15632.5', '1565', '15650', '15653.46', '15654', '15655.8', '15660.23', '15666.2', '15670.3', '1568.16', '15687.34', '1569.7', '1569.85', '15694.3', '15696.5', '1570', '15702.22', '1571.79', '15711.95', '1573.45', '15731', '15744', '15745.48', '1575.5', '15750', '15750.08', '15755.21', '15775.5', '15780', '15780.3', '15783.4', '1580', '1580.09', '1583.4', '15840', '15852.56', '15855', '15856.15', '15856.71', '15859.84', '15869', '15898', '1590', '15900', '15908', '1591.95', '15918', '15919.46', '15920.2', '15920.6', '15922.28', '15932', '15932.8', '15943.1', '15943.85', '15955', '15975', '1598.6', '15982.13', '1599.01', '15995', '15996.32', '15998.96', '15999.61', '15999.9', '1600', '16000', '16000.03', '16013.82', '16015.8', '16022.8', '16034.06', '16042', '1605', '1606.55', '1606.64', '16075', '16077.5', '1608.8', '16086.03', '16092.56', '1610', '16109.29', '16115.35', '1612.1', '16131.96', '16133.6', '1614', '16144.33', '16150', '16160', '16179.79', '1619.15', '16199.22', '1620', '16204.93', '16206.5', '16206.7', '16220.68', '16222.5', '16236', '1624.6', '1625', '16251.4', '16253.4', '16255.8', '16261.6', '16281.9', '16282.44', '16282.79', '16288.16', '1629.91', '1630', '16317.06', '16328', '16336', '16336.55', '16337.06', '16340', '16346.39', '16346.44', '1636.6', '16370', '16378.46', '1639.99', '1640', '16413.99', '16443.91', '16447.4', '1645', '16461.26', '16463.24', '16473.63', '16482.65', '16489.42', '1649.35', '16493.28', '165', '1650', '16500', '16516', '16523.05', '16526.45', '1653.16', '16534', '16539', '1654.62', '1655', '1655.33', '1656.9', '16564.49', '1659.44', '16594', '1660', '16603.5', '16623.2', '1664', '16640.74', '16646.2', '1665', '1665.6', '16651.6', '16652.95', '16659.75', '16666.66', '1667.5', '16679.5', '16689.91', '16698.28', '1670', '16700.3', '16707.79', '16728.66', '16730.55', '16733', '1675.5', '16758.81', '1680', '16810', '1682', '16829.72', '1683.6', '16834.61', '16841.8', '16843.89', '1687.85', '16878.19', '16889.1', '1689', '16890.9', '16897.63', '1690', '1690.97', '16910.6', '1692.85', '1692.92', '16925.4', '1693.84', '16949.5', '1695.07', '1697.82', '16976.5', '16977.2', '16980.34', '16986.43', '16998', '1700', '1700.5', '17000.67', '17014.25', '1702.96', '17021.57', '1704', '1705.4', '17057', '17063.7', '17066.22', '1708.7', '17097', '1710', '1711.6', '17117.88', '1713', '17135.11', '17139', '17140', '17149.45', '1715', '1715.6', '17156.93', '17160.6', '17170.8', '17180.66', '17180.9', '1719', '1719.2', '1719.9', '1720', '17225.92', '1723.5', '1725', '17272.75', '17273.02', '17273.58', '17310.41', '17329.95', '1733.2', '17331.1', '17334.89', '17349', '1735', '17364.23', '1737.4', '17375', '17391.65', '1740', '17400', '1745.3', '17453.12', '17455.61', '1748', '1749.35', '17495.6', '1750', '17502.02', '1751.8', '17522.08', '17522.64', '17535.63', '1754.57', '1755', '1755.05', '17569.06', '1757.53', '17571.26', '17573.46', '1758', '17599', '176.4', '1760', '1761.56', '17613.2', '17628.83', '17633.09', '1764.2', '17650', '17656.79', '17657.4', '1767.5', '1768.8', '17681.23', '17694.6', '1770.8', '17700', '1771.72', '1771.93', '17717.61', '17722.71', '1773.92', '17738', '17744.15', '1775', '17759.64', '17784', '17793', '17794.12', '1780', '1780.39', '1782', '17822', '17823.6', '1783.49', '17842', '17842.6', '17848', '17849.85', '17857.7', '17869.35', '17879.23', '17882.17', '17883.77', '17891.6', '1790', '17915.61', '17919.44', '1794.8', '17940.37', '1795', '17957', '17959.82', '17971.67', '17971.68', '17975.87', '17986.94', '17997.18', '180', '1800', '18002', '18026', '18027.35', '18028', '18050.88', '1806.1', '1806.4', '1806.8', '1809.25', '18096.38', '181.2', '181.5', '18109.65', '18122.49', '18134', '18141.59', '18141.85', '18146.08', '18148.44', '1815', '1815.6', '18157.4', '18157.42', '18159.06', '1816.52', '18189', '1819.56', '18190.66', '18199.8', '1822.05', '18220', '18223.22', '18223.6', '1823', '18237.5', '18260', '18263.21', '18263.45', '18266.66', '1827.33', '18274.48', '18289.74', '1829', '1830', '18323.45', '18332.35', '18342.4', '18344', '1835', '18360', '18360.69', '1837', '1837.9', '18380.5', '18387.88', '18389.16', '1840', '1841', '18417.69', '18421.65', '18431.6', '18436.13', '18436.91', '18439', '1844.5', '18453.33', '18474.74', '1848', '1849.05', '1850', '1852.3', '18520', '18524.08', '18527.75', '18539.38', '1854.8', '18544.3', '1855.15', '18589.5', '1860', '1860.7', '1860.8', '18615.5', '18635.07', '18665.2', '18695.42', '1870', '18707.65', '1871', '18713', '18737.82', '1874.2', '1875', '1876.86', '1877.2', '1877.84', '1880.61', '18805', '1881.33', '18816.14', '1884.99', '18842.64', '1885', '1888', '18885', '189.5', '1892.1', '18921.21', '1893.28', '18938.15', '18943.68', '18957.76', '18978.2', '18980.03', '18999.91', '1900', '19031.46', '19033.4', '19048.92', '1905', '19067.06', '1907.18', '19079.2', '1910', '1911.5', '1913', '1914.4', '1917.57', '19197.58', '1920', '1922.4', '1922.95', '19223.15', '19242.5', '19283.9', '19283.99', '19298.88', '1930', '19317.45', '19338.6', '1934.1', '1934.43', '1938.9', '19393.05', '19393.08', '1940', '1940.5', '1942.9', '19426.2', '1943.75', '1944.5', '1948.7', '1949', '19490.37', '1950', '1950.1', '1950.75', '19509.64', '19519.52', '1956.95', '19588.95', '1960', '1961', '19627.47', '1963', '19630.99', '1964.27', '1965', '1966.9', '19671.24', '19672.8', '1969.08', '19702.55', '1971.25', '1972.95', '19727.2', '1973.7', '1973.85', '1974', '1975.12', '19761.4', '19762', '19767.3', '19773.36', '19776.55', '1978.3', '1979.93', '19796.06', '1980', '1980.69', '19804.4', '1981.5', '1983.4', '19831.4', '19850', '1987.03', '1987.61', '1987.89', '19884.2', '19886.4', '1990', '19910.84', '19920.49', '19957', '1997.7', '19971.4', '19987.31', '1999.52', '200', '2000', '2000.45', '20000', '20004.7', '20029.5', '2006', '20068.44', '20074.5', '2008.7', '20087.02', '20087.94', '2010', '20101.01', '20114.25', '20116.95', '2014.5', '20145.48', '2015.67', '20163.95', '20178.9', '2020', '2021.68', '20214.8', '2022', '20226', '20251.38', '2028.7', '2029', '203.25', '2030', '20311.61', '2032', '2032.8', '2035', '2035.25', '20361.4', '2038.66', '20385', '20390.4', '2040', '2040.25', '2040.38', '20415.43', '2043.47', '20432.98', '2045', '2046', '2049.36', '20491.6', '2050', '20500', '20502.82', '20532.5', '2054.24', '20547.32', '20562.5', '2058', '20583.28', '2060', '20602.31', '2061.12', '20617.88', '20625.65', '20637.82', '2064.16', '20640', '20650', '20650.02', '2069.05', '2069.8', '20695.52', '2070', '2071.55', '20736.75', '20756.74', '20764.6', '20780.62', '2080', '20800', '20821.15', '20835.72', '20844.91', '2085', '20860.5', '20872.27', '20897.25', '209.5', '2090', '2090.89', '20900', '2094.95', '2096', '2096.8', '20985.7', '20997.42', '2100', '2100.67', '21000', '21007', '21008.32', '21010.97', '21036.88', '21050.17', '2108.8', '21083', '2109.87', '2112.14', '21135.91', '21138.5', '21140', '2115.7', '2116.4', '21168.09', '21179.7', '2118.55', '2120.87', '21215.3', '2122.85', '2125', '21288.93', '21293.1', '21300', '2132.06', '21326.58', '21330', '2136.34', '2136.4', '21364.54', '2140', '21400', '21406.63', '2142', '21453.5', '21456.68', '21463.84', '21466.9', '21472.57', '2150', '21500', '2151.84', '21514.24', '2153', '2153.1', '2155.5', '21555.36', '2156', '2158.3', '2160', '21611.16', '2165.38', '21652.11', '2166.1', '21685.45', '2169.4', '217.94', '2170', '2171.15', '21719.68', '21720.32', '21725', '21727.4', '21754.72', '21755.05', '21770.5', '2179.4', '21790', '21796.48', '2180', '21801.01', '21806.9', '21808.47', '2181.27', '2181.55', '21810.84', '21812.45', '2182', '2182.07', '2183.2', '2184.7', '2185.75', '21850', '21890.73', '21915', '2192.96', '21929.75', '21943.39', '2195.1', '21982.86', '2200', '22000', '22014', '22020', '2203.76', '22035.55', '22041.14', '2205', '2209.25', '22090', '22093.36', '2215.95', '22166', '2217.6', '2220', '22202.5', '22219.64', '2223.89', '2225', '2228', '2230', '2233.6', '2235.96', '2236.4', '2239.55', '22394.02', '2240', '2242.46', '22429.06', '2244', '22442.27', '2246', '2246.28', '2248', '2248.1', '2249.77', '22494.09', '2250', '22500', '22503.23', '22505.7', '2253.55', '22530.2', '22531.52', '2254.19', '2255', '2255.7', '2255.95', '2256.7', '22573.45', '22604.54', '2261.6', '22614.77', '22630', '2265', '2268', '2268.3', '2270', '22720.96', '22731', '22739.13', '2274.7', '22750', '22760.8', '2280', '22800', '2283.5', '2286.2', '2289', '22893.79', '2291.4', '22910.14', '22926.7', '2293.21', '2296', '2297.84', '2300', '23000', '23029.85', '23053.72', '23084.86', '23090', '23090.34', '2310.7', '23101.37', '23102.35', '23103.6', '23108.7', '23110.16', '23125.45', '23138.97', '2315.8', '23169.48', '2317.6', '23185', '23186.99', '23188.85', '2320', '23213', '23220.17', '23223.55', '23248', '2325', '23260', '23270', '2329.7', '23302.25', '2331', '23337.5', '23338.49', '23340', '2335.1', '2336.7', '23369.78', '23381.48', '2340', '2341.72', '23427.64', '2344.15', '2344.25', '2344.9', '23467.28', '2347.3', '23472.97', '2350', '23500', '23508.36', '23512.02', '2352', '23533.7', '23540', '23542.99', '2355.79', '23550', '23575', '23608.33', '2361.4', '23630', '23633.39', '23650.68', '2366.9', '23666.45', '23667', '23670.05', '23675.91', '23690', '237.23', '23707.86', '2371.54', '23730.07', '23740', '23743.83', '23744.02', '2375.08', '23755.55', '23756.61', '23759.8', '2376.85', '23780', '23785.74', '2380.15', '2382.02', '23833.37', '23847.55', '23848.4', '2385.17', '23850', '23861.72', '23864.05', '23874.3', '23890.85', '2391.5', '23918.5', '23923.25', '23923.5', '2393.9', '23935.18', '23935.74', '23939.82', '2394', '2394.95', '23957.15', '23960', '23975.47', '23979.65', '2399.99', '2400', '2402.8', '24028.98', '2403.95', '24030', '24047.21', '2405', '24059', '2408.8', '24080.93', '2409.2', '24101.61', '24143.1', '24159', '2418.75', '24190', '24199.35', '24199.92', '2420', '24210', '2422', '24226.03', '24248.65', '2428.35', '2428.8', '24283.68', '24285.9', '24288.48', '2429', '24298.5', '24395.2', '24397.35', '2441.57', '24414.05', '24429.64', '24441.6', '2445.76', '2446.7', '24467.45', '24478.44', '24479.22', '2448.95', '2449.29', '2451', '24535.2', '24535.41', '2454', '2457.99', '2458.8', '24583.7', '246', '2461.8', '2461.94', '24621.45', '24630.84', '24639.06', '24658.5', '2467.98', '2468.8', '2469.5', '24708.4', '2471.44', '2472.99', '2474.74', '2476.08', '24799.95', '2480', '2480.54', '2482', '24840.8', '24862.8', '24891.82', '2490', '24902.94', '24935.01', '2496.4', '24971.25', '2498.8', '2500', '2507.48', '25099.1', '2511.6', '25118.45', '2513.75', '2516.95', '2518.07', '2519.44', '2520', '25200', '25237.05', '2524.95', '2525', '2525.86', '2526.8', '2527.92', '2530', '25311.34', '25311.61', '2532.35', '2534.45', '2535', '2537', '2538.3', '2541.4', '2542.4', '25423.8', '2544', '25447.53', '25464.43', '25478.1', '2548', '2550', '2550.92', '25511.51', '25535.35', '2554.93', '2558', '2558.9', '2560', '25600.9', '25635.36', '2564.76', '25641.64', '25648', '2567.5', '2567.52', '25678.2', '2568', '2570', '2572', '2573.23', '2573.48', '2574.35', '25744', '2575', '2575.37', '2578.88', '2580', '25807.75', '25812', '25813.23', '2582.85', '25839.4', '2584.95', '2585.6', '25854.05', '2587.33', '2588', '2590', '2590.2', '25901.5', '2591.55', '2592.73', '25926.3', '25929.2', '2594', '2595.58', '25990.56', '2600', '26005.72', '26006.91', '2601', '26013.84', '2602', '26022.4', '26045.61', '2606.02', '2606.17', '26096.65', '2610', '26108.88', '26158.4', '2617.47', '2617.56', '2618', '2620', '26204.07', '26207.52', '26219', '2623.25', '2623.9', '2625', '2625.48', '2627', '26280.98', '2629.1', '2630', '26311.5', '26345.7', '2636.41', '26366.56', '2638.4', '2639', '26396.67', '2640', '2640.2', '2640.6', '2641.35', '2642.45', '26423.95', '26433.15', '26439.24', '2644', '26497.2', '2650', '2652.25', '2653.6', '26546.12', '2660', '2660.69', '2662.94', '2664.2', '2664.24', '2665', '2665.26', '2665.7', '2665.95', '26657.09', '26676.34', '26677', '2668', '2669.98', '2670', '26702.54', '2672', '26741.8', '2675', '2678.8', '268.43', '268.7', '2680', '26832.7', '2685.4', '2686.48', '2686.5', '2687.31', '2688.09', '26905.17', '2692.7', '2694.9', '26950', '2696.05', '270', '2700', '27000', '2703.08', '2706', '2708.32', '2708.37', '2710', '2714.2', '2714.8', '272.3', '2720', '2725', '2725.36', '27253', '27275.54', '2729', '27305.69', '2733.05', '27359.36', '27370', '2739', '2740', '27406.84', '27410.04', '2743.92', '2744', '27455.78', '2749.75', '2750', '27500', '27503.7', '27528.81', '2754', '2757', '2757.33', '27571.67', '2759.52', '2760.93', '2763.25', '2765', '2768.22', '27688.65', '2771.78', '2773.95', '27740.05', '2776.98', '27786.18', '2779', '2780', '2780.58', '27813.8', '27819', '2782', '27831.53', '2784.6', '2785', '27858.78', '2790', '27915', '2792.1', '27937.57', '2794', '27968.01', '2799.65', '2799.84', '2800', '28000.24', '2801.05', '28014.6', '28026.9', '2805.9', '2807.61', '28070.19', '2808.25', '28095.25', '2810', '2810.3', '28106.16', '2812.95', '2813.45', '2817.58', '28182', '2819.6', '2821.58', '2825', '2825.7', '2827.02', '28277.23', '28279.63', '2828.1', '2830', '2835', '28366', '2838.9', '2839', '2840', '28414.8', '28419.93', '2842.8', '2843', '2844.9', '28442.1', '2846.5', '2850', '2853', '2854', '28540', '2856', '28597.01', '2860', '28611.96', '2863.25', '2867.6', '2868.6', '2869.96', '2870', '28702.1', '28730.76', '28732', '2877.84', '2878.43', '2880', '2880.82', '28807.32', '2890', '28928.23', '2894', '28972.35', '2899', '2900', '29005.6', '2905.98', '2906', '2907.26', '2910', '29140', '29144.78', '2916', '2916.15', '2920', '2920.75', '29201.65', '2925', '29263.2', '2928.6', '2929', '29293.73', '2934.02', '2936', '2937', '29370.71', '2938.95', '2939.2', '2939.5', '2940', '2944.04', '2945', '2950', '2951.43', '2951.45', '2953.6', '2956.4', '2958.35', '29588.67', '2959.9', '2960', '2960.76', '29629.28', '2965.47', '29687.46', '2969', '2970', '2972.2', '2973.81', '2978.43', '2981.99', '2983.8', '29854.29', '2988.15', '2990', '2991', '2991.1', '2991.9', '2994', '2995', '300', '3000', '30000', '30006', '3001.17', '3002.45', '3004.3', '30040', '30043.8', '30044.13', '30080', '3010', '3010.91', '30108.8', '3013.24', '30139.3', '3015.6', '30171.39', '3019', '3020', '3020.85', '3022.4', '30224.45', '3023.4', '30240.92', '3025', '30251.23', '3026', '3026.65', '3027.83', '3030', '3030.4', '3030.7', '30300.6', '3032', '3033.4', '3034', '30358.4', '3036.2', '30377.86', '30395.94', '3040', '30410', '3043.05', '3043.45', '3043.99', '3044.6', '3046.49', '30466.91', '3049.95', '3050', '30500', '3053.76', '3054.88', '3055', '3056.74', '3058', '3059.2', '3059.85', '3059.95', '3060', '3060.5', '30608.71', '30612.14', '30687.07', '3069.73', '3069.85', '30690.29', '307.43', '3070', '3071', '3072.05', '3072.85', '3074.7', '30740', '3075', '3075.43', '30758.75', '3077.95', '30770.57', '3079.8', '308.25', '3080', '3080.9', '3082', '30848.7', '3085', '3090', '3095.1', '30950.83', '3097.34', '3098.65', '31.95', '3100', '31066.86', '3108.2', '3109.13', '31092', '3111', '31112.85', '31119', '3115.5', '3119.14', '312.75', '3120.13', '3126.2', '3129.05', '3130', '3132.45', '31339.65', '3134', '31340', '3135', '3137.89', '31373.77', '3138.8', '3139.5', '3140', '3141.02', '3141.6', '3142.98', '31429.24', '3143.1', '3145', '3146', '3147', '31478.18', '3148', '31490.49', '3150', '3150.75', '31503.64', '31583.7', '3160', '31607', '31639.2', '3164.47', '3164.8', '3166.35', '3167.7', '317.75', '3170', '31708.37', '3176.54', '3177.5', '3179', '3180', '3180.12', '3180.31', '31808.25', '31813.15', '3185', '3186.14', '31866.5', '31885.5', '3190', '3190.21', '31916.11', '3192.8', '3193.4', '3194.75', '3195', '31952.47', '31952.5', '3196.44', '3200', '3201.04', '3201.3', '3202', '3202.6', '32034.95', '3207.2', '32081.26', '3209.95', '3210', '3211.85', '3212.46', '32133.62', '32139.14', '32149', '32153.23', '3216.05', '3219.65', '3220', '32218.02', '32240.85', '3225', '32263.68', '3227.47', '3227.5', '3230', '3230.15', '32302.81', '3232.25', '32365.5', '32399.75', '3240', '3240.25', '3240.34', '3241.96', '32423.76', '32493.78', '325', '3250', '3250.2', '3250.4', '32547.79', '3256', '32568.71', '3259', '3260', '3261.55', '3262.2', '3266.6', '3267', '3270', '3270.48', '3271.47', '32720.1', '3274.78', '3275', '3279.91', '32796.2', '3280', '32809.65', '32891.92', '3290', '3290.33', '3290.78', '3292.95', '3295', '32975.04', '3300', '33000', '33061.15', '3311', '33134.4', '3314.15', '3320', '33201.6', '3324.08', '33241.89', '3328.5', '3328.8', '3329.8', '3330', '33330.15', '3335', '33364.35', '3340', '3347.28', '33479.25', '3348', '3350', '3350.49', '3353.59', '33555.73', '3360', '3363.15', '33647.98', '3368.2', '3369.7', '3375.86', '33754.6', '3379', '3380', '33801.64', '3381.3', '3384', '33842.32', '3387', '3390', '3392.72', '3394', '34.7', '340.5', '3400', '3410', '34125.35', '3413.11', '3416.2', '3417.5', '3419', '3419.24', '342', '3420', '34207.71', '3421.8', '3426.55', '3438.07', '3439', '3440', '3441.16', '34434.04', '34437.6', '3444', '3445', '3445.85', '3446.1', '3450', '3453.7', '3454.9', '3460', '3466', '3469.95', '347.36', '347.45', '3470', '3475', '34766.08', '34774', '3478.1', '3480', '34848.59', '3487.28', '3488.12', '34893.92', '34897.54', '3491.5', '34927.96', '3493.75', '34931.86', '3499.95', '3500', '35011.05', '3502', '3503', '3505', '3505.6', '3508.05', '3509', '35094.05', '3510', '3513', '3514.25', '3515', '3517.6', '3518', '3520', '35208.2', '35217.99', '3522.4', '35235.68', '3525', '35256.09', '3526.5', '3527', '3527.25', '35284.62', '3530', '3530.21', '3532', '3532.6', '3532.9', '3533.15', '3533.88', '3534.18', '3534.19', '3535.2', '3536.4', '3538.4', '3539', '3540', '3543.03', '35439.56', '3544', '3545', '3547.6', '3548', '3549', '355.35', '3550', '3554.99', '3555', '3555.7', '3556.8', '3558', '3560', '3562.5', '3562.65', '3564.29', '3565', '3567.6', '35681.6', '3570', '3571.9', '3572', '3575.15', '3575.4', '3576.23', '3577', '3577.16', '3579.2', '3580', '35801.39', '3586.6', '3588', '3589.45', '359.19', '3590', '3590.25', '3592', '3592.18', '3595', '3596.83', '3597.66', '3600', '36032.07', '3605', '36054.8', '3608.8', '36086.75', '3610', '36129.28', '36149.84', '3617.9', '3619.15', '3620', '3623.1', '3624', '3625', '3626.2', '3629', '3629.96', '3629.99', '3630', '36331.35', '3636.8', '3640', '3641.1', '36436.36', '364</t>
         </is>

--- a/examples/Australia OGD/victim_assistance/profile.xlsx
+++ b/examples/Australia OGD/victim_assistance/profile.xlsx
@@ -455,15 +455,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -476,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -535,12 +540,15 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>71767</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>11859</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['1000505', '1000589', '1000651', '1000676', '1000705', '1000764', '1001581', '1001616', '1001656', '1001669', '1001727', '1001745', '1001807', '1001855', '1001962', '1001987', '10020', '1002254', '1002283', '1002302', '1002329', '1002389', '1002437', '1002450', '1002510', '1002534', '1002618', '1002654', '1002706', '1002768', '1002811', '1003111', '1003178', '1003211', '1003224', '1003284', '1003365', '1003411', '1003425', '1003497', '1003572', '1004267', '1004297', '1004314', '1004364', '1004393', '1004448', '1004480', '1004511', '1004566', '1004604', '1004637', '1004661', '1004766', '1004798', '1004839', '1005123', '1005244', '1005285', '1005302', '1005362', '1005414', '1005491', '1005522', '10058', '1005942', '1005993', '1006074', '1006131', '1006166', '1006195', '1006251', '1006592', '1006652', '1006695', '1006792', '1006818', '1007129', '1007221', '1007269', '1007320', '10076', '1008053', '1008115', '1008135', '1008149', '1008170', '1008243', '1008283', '1008375', '1008490', '1008872', '1008902', '1008937', '1008968', '1009010', '1009088', '1009103', '1009140', '1009195', '1009229', '1009347', '1009409', '1009764', '1009809', '1009858', '1009962', '1009990', '1010012', '1010048', '1010074', '1010339', '1010399', '1010522', '1010542', '1010583', '1010628', '1010726', '1010751', '10109', '1011171', '1011238', '1011274', '1011389', '1011422', '1012088', '1012167', '1012197', '1012230', '1012261', '1012318', '1012331', '1012387', '1012438', '1012747', '1012786', '10128', '1012818', '1012852', '1012900', '1012971', '1012990', '1013029', '1013063', '1013081', '1013448', '1013484', '1013578', '1013939', '1013979', '1014007', '1014019', '1014056', '1014084', '1014108', '1014139', '1014151', '1014177', '1014227', '1014249', '1014288', '1014329', '1014376', '1014404', '1014452', '1014483', '1014885', '1014910', '1014924', '1014938', '1015027', '1015058', '1015084', '1015105', '1015129', '1015155', '1015216', '1015907', '1015941', '1015970', '1016008', '1016083', '1016132', '1016235', '1016268', '1016304', '1016362', '1016477', '1016514', '1016763', '1016797', '10168', '1016840', '1016888', '1017066', '1017087', '1017120', '1017162', '1017353', '1017639', '1017742', '1017790', '1017805', '1017833', '1017851', '1017913', '1017963', '1017989', '1019125', '1019166', '10192', '1019229', '1019309', '1019341', '1019383', '1019395', '1019437', '1019479', '1019520', '1019560', '1019941', '1020009', '1020068', '1020084', '1020127', '1020184', '1020215', '1020273', '1020305', '10208', '1021189', '1021270', '1021299', '1021361', '1021563', '1021840', '1021884', '1021913', '1021994', '1022040', '1022091', '1022128', '1022164', '1022202', '1022228', '1022258', '1022285', '1022329', '1022410', '1022423', '1022452', '1022485', '1022503', '1022522', '1022798', '1022882', '1022965', '1023008', '1023021', '1023036', '1023083', '1023109', '1023160', '1023446', '1023459', '1023501', '1023583', '1023616', '1023634', '1023676', '1023688', '1023720', '1023767', '1024172', '1024258', '1024337', '1024419', '1024532', '10247', '102519', '1025262', '1025360', '1025425', '1025469', '1025486', '1025519', '1025531', '1025568', '1025598', '1025644', '1026110', '1026166', '1026236', '1026273', '1026293', '1026344', '1026376', '1026764', '1026864', '1026900', '1026915', '1026960', '1026995', '1027019', '1027072', '1027130', '1027548', '1027584', '1027653', '1028063', '1028195', '1028265', '1028927', '1028969', '1029002', '1029029', '1029092', '1029125', '1029167', '1029200', '1029261', '1029314', '1029351', '1029390', '1029676', '1029706', '1029734', '1029768', '1029810', '1029823', '1029866', '1029911', '1029950', '1029966', '1029987', '1030036', '1030092', '1030185', '1030539', '1030618', '1030676', '1030712', '1030852', '1031115', '1031164', '1031373', '1031451', '1031709', '1031763', '1031808', '1031845', '1031880', '1031936', '1031976', '1032033', '1032058', '1032076', '1032122', '1032860', '1032919', '1032962', '1033003', '1033038', '1033058', '1033132', '1033153', '1033193', '1033301', '1033611', '1033714', '1033749', '1033834', '1033890', '1033918', '1035083', '1035130', '1035202', '1035241', '1035300', '1035350', '1035430', '1035477', '1035542', '1035587', '1035631', '1036356', '1036440', '1036471', '1036489', '1036524', '1036568', '1036581', '1036596', '1036640', '1036652', '1036687', '1036722', '1036773', '1036787', '1036840', '1036852', '1036891', '1036921', '1037329', '1037361', '1037379', '1037421', '1037526', '1037543', '1037586', '1037609', '1037628', '1037660', '1037716', '1037753', '1038282', '1038335', '1038372', '1038406', '1038419', '1038455', '1038537', '1038620', '1039081', '1039108', '1039181', '103936', '1039472', '1039513', '1039571', '1039600', '1039651', '1039685', '1039718', '1039769', '1039844', '1039890', '1040570', '1040604', '1040636', '1040688', '1040755', '1040830', '1040891', '1041009', '1041360', '1041392', '1041484', '1041532', '1041563', '1041598', '1041653', '1041734', '1041809', '1041830', '1041917', '1042414', '1042538', '1042593', '1042652', '1043098', '1043120', '10435', '1043564', '1043585', '1043625', '1043640', '1043707', '1043745', '1043798', '1043810', '1043876', '1043906', '1043937', '1043959', '1043983', '1044012', '1044062', '1044094', '1044131', '1044188', '1044224', '1044914', '1045023', '1045111', '1045187', '1045735', '1045787', '1045815', '1045837', '1045883', '1045954', '1045970', '1046019', '1046046', '1046113', '1046465', '1046501', '1046575', '1046664', '1046699', '1046734', '1046808', '10472', '1047258', '1047709', '1047815', '1047970', '1048646', '1048702', '1048787', '1048800', '1048847', '1048883', '1048935', '1048978', '1049028', '1049078', '1049105', '1049129', '1049165', '1049235', '1049651', '1049779', '1049796', '1049849', '1049873', '1050015', '1050345', '1050401', '1050447', '1050474', '1050494', '1050884', '1050968', '1051076', '1051355', '1051400', '1051460', '1051503', '1051545', '1051610', '1051674', '1051713', '1051757', '1051792', '1051824', '1051845', '1051875', '1052619', '1052656', '1052721', '1052792', '1052828', '1052881', '1052922', '1052976', '1053459', '1053527', '1053673', '1054014', '1054073', '1054157', '1054194', '1054235', '1054271', '1054312', '1054398', '1054411', '1054483', '1054506', '1054535', '1054821', '1054868', '1054894', '10549', '1054923', '1055302', '1055327', '1055347', '1055372', '1055402', '1055432', '1055471', '1055512', '1055547', '1055578', '1055628', '1055686', '1055716', '1055761', '1055776', '1056573', '1056611', '1056643', '1056688', '1056737', '1056780', '1056850', '1056871', '1056938', '1056952', '1056993', '1057032', '1057064', '1057108', '1057408', '1057425', '1057486', '1057534', '1057562', '1057665', '1057691', '1057771', '1057825', '1057857', '1057917', '1057948', '1058032', '1058260', '1058332', '1058374', '1058481', '1058507', '1058917', '1059027', '1059108', '1059372', '1059399', '1059412', '1059442', '1059474', '1059522', '1059563', '1059578', '1059624', '1059669', '1059707', '1059734', '1059774', '1059811', '1059845', '1059896', '1059945', '1059968', '1060018', '1060659', '1060686', '1060796', '1060888', '1060982', '1061020', '1061333', '1061359', '1061407', '1061445', '1061491', '1061552', '1061606', '1061683', '1061716', '1061742', '1062126', '1062170', '10622', '1062232', '1062245', '1062336', '1062364', '1062405', '1062451', '1062884', '1062902', '1063015', '1063106', '1063542', '1063596', '1063695', '1064635', '1064667', '1064716', '1064738', '1064753', '1064787', '1064806', '1064818', '1064844', '1064885', '1064897', '1064949', '1064992', '106504', '1065040', '1065071', '1065089', '1065128', '1065160', '1065195', '1065238', '106524', '1065536', '1065569', '1065600', '1065626', '1065641', '1065772', '1065813', '106584', '1065889', '1065911', '1066405', '1066733', '1066771', '1066798', '1066812', '1066850', '1066895', '1067048', '1067085', '1067806', '1067838', '1067994', '10680', '1068016', '1068076', '1068192', '1068227', '1068247', '1068544', '1068629', '1068653', '1068699', '1068716', '1068812', '1068905', '1068937', '1068958', '1068989', '1069078', '1069108', '1069392', '1069415', '1069449', '1069532', '1069589', '1069628', '1069666', '1069702', '1070586', '1070621', '1070649', '1070683', '1070723', '1070760', '1070811', '1070872', '1070917', '1070966', '1071699', '107172', '1071737', '1071769', '1071785', '1071833', '1071885', '1071936', '1071970', '1072024', '1072036', '1072083', '1072120', '1072176', '1072230', '1072253', '1072298', '107238', '107261', '1072614', '1072653', '1072665', '1072702', '1072754', '1072818', '1072835', '1072898', '1072953', '1073008', '1073100', '1073150', '1073198', '10733', '1073480', '1073531', '1073565', '1073641', '1073698', '1073732', '1073790', '1073859', '1073925', '1073967', '1073985', '107431', '1074381', '1074474', '1074543', '1074603', '1074657', '1074693', '1074956', '1074971', '1075004', '1075033', '1075045', '1075074', '1075222', '1075262', '1075294', '1075307', '1075345', '1075399', '1076127', '1076176', '1076294', '1076330', '1076365', '1076377', '1076421', '1076490', '1076610', '1076845', '1076905', '1076974', '1077100', '1077449', '1077506', '1077520', '1077628', '1077642', '1077782', '1077794', '1078070', '1078097', '1078219', '1079295', '10793', '1079371', '1079417', '1079491', '1079526', '1079578', '1080362', '1080399', '1080432', '1080510', '1080567', '1080608', '1080620', '1080665', '1080688', '1080725', '1080773', '1080803', '1080866', '1080923', '1080984', '1081270', '1081303', '1081355', '1081432', '1081509', '1081550', '1081914', '1081936', '1081989', '1082026', '1082059', '1082124', '1082151', '1082238', '1082300', '1082622', '1082652', '1082706', '1082922', '1083000', '1083238', '1083266', '1083299', '1083316', '1083355', '1083399', '1083443', '1083458', '1083492', '1083541', '1083554', '1083584', '1083653', '1084327', '1084368', '1084430', '1084467', '1084485', '1084549', '1084580', '1084631', '1084664', '1084725', '1084813', '1085156', '1085195', '1085236', '1085313', '1085803', '1085864', '1086206', '1086232', '1086259', '1086316', '1086398', '1086458', '1086547', '10880', '1088124', '1088803', '1088829', '1088844', '1088877', '1088905', '1088954', '1088994', '1089007', '1089057', '1089106', '1089158', '1089204', '1089247', '1089581', '1089910', '1090279', '1090318', '1090337', '1090386', '1090463', '1090528', '1090584', '1090627', '1090684', '1090993', '1091049', '1091071', '1091150', '1091201', '1091244', '1091317', '1091365', '1091394', '1091779', '1091842', '1091885', '1091938', '1091969', '1091997', '1092034', '1092046', '1092766', '1092785', '1092809', '1092821', '1092859', '1092909', '1092954', '1092978', '1093014', '1093027', '1093047', '1093064', '1093077', '1093095', '1093120', '1093148', '1093180', '1093205', '1093239', '1093266', '1093309', '1093354', '1093754', '1094021', '1094055', '1094097', '1094135', '1094366', '1094383', '1094419', '1094535', '1094610', '1094641', '1094736', '1094836', '1095153', '1095185', '1095237', '1095303', '1095383', '1095411', '1095433', '1095490', '1095508', '1095554', '1095874', '1095926', '1095960', '1096012', '1096071', '1096114', '1096139', '1096156', '1096193', '1096226', '1096242', '1096997', '1097020', '1097072', '1097100', '1097130', '1097146', '1097169', '1097186', '1097206', '1097246', '1097265', '1097305', '1097320', '1097338', '1097448', '1097470', '1097488', '1097514', '1097526', '1097582', '1097635', '1098372', '1098420', '1098779', '10988', '1098848', '1098905', '1098962', '1098976', '1099070', '1099112', '1099213', '1099242', '1099573', '1099595', '1099622', '1099639', '1099669', '1099682', '1099695', '1099718', '1099741', '1099762', '1099823', '1099856', '1099893', '1099936', '1099984', '1100021', '1100928', '1100944', '1100960', '1100988', '1101005', '1101034', '1101046', '1101105', '1101126', '1101157', '1101182', '1101198', '1101220', '1101261', '1101276', '1101324', '1101359', '1101397', '1101415', '1101450', '1101535', '1101584', '1101610', '1101951', '1101978', '1102014', '1102101', '1102132', '1102169', '1102196', '1102237', '1102253', '1102329', '1102425', '1102480', '1102785', '1102860', '1102963', '1103003', '1103024', '1103053', '1103089', '1103130', '1103529', '1103549', '1103670', '1103737', '1103835', '1104245', '1104295', '1104315', '1104348', '1104363', '1104384', '1105149', '1105161', '1105182', '1105211', '1105223', '1105244', '1105263', '1105282', '1105313', '1105326', '1105360', '1105390', '1105494', '1105529', '11057', '1105862', '1105961', '1106039', '1106106', '1106140', '1106165', '1106465', '1106507', '1106534', '1106583', '1106686', '1106751', '1106841', '1106868', '1106921', '1107161', '1107180', '1107223', '1107335', '1107400', '1107519', '1107858', '1107892', '1107916', '1107960', '1108012', '1108054', '11083', '1108732', '1108827', '1108872', '1108884', '1108939', '1108959', '1109038', '1109074', '1109093', '1109166', '1109198', '1109297', '1109602', '1109657', '1109719', '1109759', '1109809', '1109921', '1109959', '1110188', '1110206', '1110234', '1110256', '1110277', '1110417', '1110447', '1110773', '1110786', '1110826', '1110850', '1110886', '1110906', '1110918', '1110935', '11115', '1113132', '1113150', '1113168', '1113186', '1113210', '1113228', '1113302', '1113336', '1113354', '1113406', '1113422', '1113474', '1113526', '1113621', '1113997', '1114044', '1114065', '1114099', '1114166', '1114203', '1114258', '1114277', '1114296', '1114326', '1114853', '1114890', '1115245', '1115317', '1115372', '1115481', '1115526', '1115635', '1115910', '1115954', '1116095', '11166', '1116855', '1116938', '1116957', '1116976', '1117010', '1117030', '1117050', '1117107', '1117155', '1117179', '1117216', '1117260', '1117289', '1117314', '1117357', '1117715', '1117735', '1117794', '1117902', '1118271', '1118381', '1118424', '1118461', '1118921', '1119012', '1119041', '1119064', '1119092', '11191', '1119120', '1119136', '1119222', '1119283', '1119575', '1119588', '1119652', '1119687', '111969', '1119715', '1119739', '1119758', '1119782', '1119802', '1119867', '1120607', '1120630', '1120643', '1120724', '1120753', '112076', '1120768', '1120829', '1120845', '1120918', '1120938', '1121033', '1121074', '1121169', '112117', '1121183', '1121610', '1121642', '1121676', '112172', '1121727', '1121743', '1121779', '1121820', '1121869', '1121877', '1121924', '1121939', '1122332', '1122353', '1122376', '1122427', '1122448', '1122871', '1122979', '1123036', '1123388', '1123412', '1123464', '11235', '1123511', '1123534', '1123589', '1123630', '1123680', '1124365', '1124378', '1124391', '1124406', '1124446', '1124506', '1124541', '1124567', '1124583', '112460', '1124605', '1124686', '1124796', '1124843', '112501', '1125402', '1125487', '1125541', '1125561', '1125593', '1125625', '1125678', '112581', '1125974', '1125993', '1126108', '1126199', '1126235', '1126261', '1126613', '1126634', '1126655', '1126697', '1126719', '1126746', '1126780', '112681', '1126814', '1126908', '1126981', '112749', '1127880', '1127911', '1127933', '1127987', '1128059', '1128089', '1128112', '1128150', '1128180', '1128198', '1128211', '1128237', '1128263', '1128278', '1128351', '1128728', '1128813', '1128857', '1128884', '1128916', '1128948', '1128976', '1129029', '1129073', '1129124', '1129171', '11295', '113000', '113012', '113078', '113179', '11337', '113465', '113497', '113587', '113663', '113718', '113775', '113818', '11426', '114330', '114396', '11444', '114547', '114607', '114865', '114901', '114913', '114927', '114964', '11499', '115054', '115100', '115183', '115707', '115767', '115822', '115846', '115918', '11607', '116222', '11625', '116258', '116273', '116301', '116373', '11639', '116423', '116944', '117025', '11703', '117109', '117138', '117170', '11733', '117471', '11750', '117515', '117556', '117579', '117643', '117686', '117716', '117833', '117874', '118229', '118253', '118338', '118361', '118473', '11871', '118807', '118835', '118908', '11899', '119183', '119222', '119237', '119294', '119349', '119402', '119414', '119455', '119487', '119517', '11952', '11990', '120081', '120101', '120133', '120155', '120231', '120261', '120290', '120305', '120350', '120369', '12043', '120615', '120627', '120746', '120790', '12108', '121166', '121199', '121242', '121325', '121587', '121628', '121664', '121685', '121734', '121755', '121775', '121832', '121861', '121906', '12205', '122139', '122167', '122251', '122334', '122421', '122457', '12251', '123038', '123085', '123164', '123232', '123435', '123453', '123477', '123492', '123575', '123629', '123663', '123689', '123721', '12373', '12397', '124048', '124119', '124133', '124194', '124249', '12428', '124286', '124321', '124376', '124410', '124426', '124467', '124494', '124541', '12460', '124744', '12480', '124807', '124827', '124908', '124932', '124989', '125015', '12518', '125226', '12531', '125314', '125356', '125397', '125488', '12559', '12571', '125914', '12603', '126060', '126080', '12625', '126314', '126347', '126385', '12640', '126419', '126434', '126499', '126573', '126587', '126632', '126656', '126700', '126742', '126927', '12700', '127007', '127036', '127062', '127120', '127160', '127249', '127261', '127274', '127286', '12730', '127359', '127594', '12765', '127684', '127757', '127781', '127899', '127922', '127963', '128005', '128245', '128289', '128337', '128350', '128362', '128379', '128446', '12861', '12883', '129012', '129067', '129083', '129124', '129163', '12918', '129199', '12935', '129517', '129529', '129660', '12974', '129870', '129904', '12996', '129984', '130015', '130040', '130081', '130210', '13025', '130253', '130309', '130403', '130453', '130473', '13050', '130520', '130557', '130638', '130680', '130770', '130783', '130798', '130837', '130866', '130892', '130910', '130930', '130990', '131041', '131066', '131085', '131099', '13130', '131414', '131451', '131524', '131569', '13166', '131691', '131752', '131765', '131861', '131893', '131931', '131943', '13199', '132009', '132258', '132326', '132374', '132413', '132465', '132521', '132571', '132597', '13268', '132831', '13286', '132881', '132920', '132937', '13298', '133017', '133051', '133269', '133287', '133346', '133387', '13339', '133399', '133425', '13375', '134045', '134148', '13420', '134217', '134245', '134307', '13434', '134499', '134517', '134557', '134574', '134638', '134659', '134703', '134766', '13501', '135068', '135097', '135115', '135157', '135224', '13528', '135322', '135349', '135367', '135428', '13547', '135472', '135496', '135536', '135658', '135846', '135878', '135932', '13596', '135976', '136063', '136132', '136152', '136212', '13651', '136525', '136632', '137028', '137076', '137124', '13719', '137201', '137248', '137489', '137518', '137582', '137645', '13766', '137696', '137720', '137982', '138006', '138049', '138068', '138137', '138166', '138220', '13840', '138454', '138530', '138546', '138565', '13858', '138590', '138609', '138631', '138671', '13873', '139133', '139285', '13930', '139310', '139324', '139370', '13967', '13986', '140034', '140051', '140086', '140130', '140199', '140211', '140241', '140306', '140352', '140408', '140461', '14055', '140702', '140765', '140833', '140862', '140899', '140938', '140957', '140982', '140995', '141112', '14116', '141208', '141226', '141254', '141492', '14150', '141554', '141574', '141624', '141660', '141714', '142104', '14212', '142172', '142474', '142491', '142560', '142594', '14268', '142741', '14284', '14315', '143296', '143378', '143758', '143782', '143957', '14418', '144227', '14450', '144674', '144708', '144762', '144807', '144905', '144919', '144933', '145239', '14530', '145306', '145769', '145814', '145848', '145940', '14610', '146196', '146269', '14640', '146471', '146551', '14660', '146633', '146748', '146761', '14680', '146843', '146920', '146977', '147048', '147124', '147144', '14720', '147211', '147229', '147286', '14732', '147329', '147877', '14796', '148048', '14821', '148278', '148441', '14867', '148897', '148923', '148940', '148957', '14899', '149110', '14920', '149351', '149377', '149417', '149574', '14963', '149901', '149933', '149945', '149967', '150654', '151041', '151097', '151249', '151572', '151592', '151680', '151701', '152052', '152142', '152229', '152421', '152453', '152521', '152537', '152570', '152609', '152641', '152674', '153212', '153239', '153305', '153362', '153414', '153716', '153735', '153794', '153834', '153925', '154201', '154266', '154297', '154420', '154533', '154814', '155293', '155376', '155408', '155422', '155454', '156168', '156192', '156503', '156569', '156581', '156634', '156653', '156700', '156910', '157041', '157141', '157155', '157225', '157410', '157478', '157575', '157701', '157741', '158093', '158132', '158179', '158792', '158820', '158900', '159234', '159269', '159329', '159347', '159397', '159412', '159496', '159509', '159909', '159923', '159976', '160000', '160056', '160108', '160144', '160178', '160453', '160492', '160516', '160576', '160883', '160935', '160999', '161019', '161075', '161120', '161148', '161175', '161302', '161376', '161444', '161456', '161471', '161513', '161542', '161556', '161649', '161741', '161794', '161975', '161987', '162016', '162033', '162115', '162188', '162214', '162238', '162272', '162292', '162306', '162476', '162501', '162635', '162678', '162699', '162728', '162960', '162998', '163035', '163049', '163124', '163161', '163187', '163202', '163220', '163269', '163320', '163336', '163348', '163389', '163442', '163471', '163499', '163544', '163618', '163664', '163676', '163780', '163828', '163918', '163935', '163962', '164008', '164053', '164148', '164187', '164582', '164659', '164867', '164967', '165246', '165275', '165311', '165348', '165490', '165575', '165885', '165988', '166070', '166316', '166342', '166385', '166521', '166621', '166660', '166748', '166871', '166913', '166990', '167052', '167174', '167224', '167254', '167892', '167935', '167985', '168046', '168079', '168105', '168140', '168293', '168312', '168662', '168680', '168762', '168778', '168792', '168913', '168925', '169039', '169127', '169158', '169231', '169481', '169516', '169541', '169575', '169683', '169702', '169842', '169891', '169938', '169977', '170000', '170024', '171879', '171899', '171912', '172011', '172058', '172073', '172206', '172340', '172390', '172405', '172446', '172526', '172562', '172591', '172610', '172652', '172710', '172897', '172932', '172946', '172993', '173019', '173052', '173097', '173115', '173127', '173177', '173250', '173278', '173361', '173527', '173586', '173616', '173654', '173713', '173745', '173770', '173791', '173818', '173906', '174457', '174492', '174521', '174594', '174611', '174649', '174679', '174753', '174769', '174790', '174838', '174877', '175905', '175919', '175974', '176230', '176300', '176337', '176587', '176612', '176641', '176675', '176710', '177020', '177058', '177092', '177138', '177220', '177475', '177521', '177552', '177610', '177657', '177683', '178119', '178136', '178425', '178459', '178521', '178559', '178625', '178657', '178699', '178769', '179082', '179095', '179139', '179195', '179217', '179235', '179282', '179303', '179366', '179655', '179731', '179792', '179804', '180490', '180534', '180578', '180644', '180689', '180716', '180730', '180806', '180857', '180918', '181281', '181367', '181406', '181537', '181733', '181745', '181791', '181876', '181910', '181963', '182075', '182409', '182423', '182675', '182710', '182759', '182822', '182843', '182917', '182941', '182988', '183483', '183553', '183571', '183639', '183661', '183727', '183794', '184059', '184117', '184196', '184209', '184267', '184324', '184340', '184565', '184637', '184707', '184751', '185175', '185201', '185222', '185321', '185576', '185808', '185846', '185905', '185919', '185975', '186497', '186616', '186697', '186733', '186752', '186954', '187039', '187075', '187121', '187149', '187190', '187232', '187264', '187293', '187327', '187543', '187559', '187608', '187719', '187738', '187772', '187789', '187801', '187815', '187843', '187865', '188055', '188187', '188226', '188269', '188296', '188315', '188330', '188608', '188625', '188643', '188670', '188691', '188724', '188737', '188814', '188844', '188949', '189551', '189564', '189606', '189693', '189711', '189758', '189936', '189965', '190128', '190187', '190230', '190245', '190261', '190313', '190359', '190377', '190619', '190632', '190665', '190867', '190896', '190925', '190965', '191009', '191035', '191049', '191086', '191108', '191295', '191347', '191361', '191398', '191556', '191875', '191938', '191997', '192035', '192070', '192132', '192144', '192271', '192287', '192317', '192943', '193081', '193136', '193178', '193198', '193230', '193242', '193454', '193484', '193501', '193563', '193590', '193602', '193636', '193654', '193757', '193791', '193822', '194063', '194094', '194112', '194218', '194299', '194320', '194572', '194766', '194998', '195075', '195235', '195291', '195973', '196002', '196017', '196031', '196339', '196411', '196468', '196488', '196552', '196604', '196796', '196823', '196845', '196890', '196902', '196947', '197025', '197060', '197075', '197105', '197127', '197140', '197198', '197391', '197436', '197502', '197537', '197613', '197633', '197688', '197742', '197764', '197789', '197824', '197857', '197881', '198116', '198135', '198218', '198264', '198346', '198383', '198414', '198458', '199024', '199104', '199198', '199542', '199575', '199611', '199658', '199678', '199697', '199783', '199803', '199839', '199895', '200117', '200149', '200195', '200209', '200279', '200310', '200363', '200415', '200501', '200586', '200614', '200856', '200947', '201010', '201054', '201086', '201108', '201123', '201266', '201281', '201532', '201563', '201583', '201673', '201713', '201764', '201787', '201870', '201883', '201997', '202540', '202579', '202629', '202687', '202728', '202797', '202817', '202863', '203053', '203109', '203139', '203158', '203181', '203198', '203227', '203267', '203286', '203339', '203366', '203408', '203496', '203518', '203544', '203557', '203617', '203818', '203844', '203899', '203912', '203925', '203946', '204030', '204097', '204163', '204195', '204300', '204332', '204404', '204433', '204540', '204552', '204577', '204651', '204844', '204862', '204916', '204978', '205018', '205088', '205116', '205173', '205207', '205390', '205686', '206257', '206286', '206329', '206379', '206432', '206467', '206572', '206816', '206852', '206981', '207152', '207484', '207676', '207698', '207950', '207984', '208120', '208238', '208350', '208634', '209452', '209539', '209782', '209861', '209908', '209920', '209933', '209977', '210003', '210386', '210466', '210529', '210587', '210640', '210654', '210732', '210782', '210827', '210839', '210869', '211045', '211090', '211140', '211218', '211241', '211294', '211313', '211342', '211371', '211426', '211440', '211452', '211466', '211565', '211609', '211867', '211887', '211942', '211978', '212072', '212804', '212874', '212965', '213004', '213135', '213338', '213392', '213438', '213468', '213482', '213733', '213765', '213826', '213877', '213917', '213946', '213978', '214217', '214234', '214248', '214376', '214390', '214406', '214487', '214517', '214539', '214580', '214623', '214844', '215694', '215791', '215808', '215822', '215880', '215980', '216192', '216267', '216437', '216488', '216539', '216762', '216784', '216812', '217031', '217073', '217114', '217142', '217165', '217225', '217250', '217345', '217425', '217747', '217817', '217876', '217962', '218017', '219263', '219291', '219386', '219681', '219735', '219764', '219788', '219810', '220122', '220181', '220253', '220319', '220427', '221327', '221358', '221416', '221658', '221708', '221817', '221830', '221861', '221943', '221962', '222076', '222107', '222325', '222375', '222433', '222446', '222488', '222544', '222556', '222581', '222624', '222687', '222894', '222916', '222966', '222984', '223013', '223039', '223105', '223119', '223176', '223202', '223261', '223314', '223744', '223780', '223855', '223923', '223973', '224064', '224114', '224415', '224435', '224522', '224538', '224564', '224605', '224626', '224685', '224760', '224778', '224835', '225134', '225205', '225281', '225345', '225596', '225782', '225870', '226264', '226347', '226407', '226979', '227149', '227213', '227290', '227551', '227609', '227623', '227744', '227834', '228082', '228094', '228107', '228288', '228352', '228450', '228523', '228889', '228926', '228974', '228992', '229059', '229122', '229225', '229239', '229257', '229353', '229373', '229451', '229463', '229484', '229526', '229566', '229611', '229657', '229680', '229727', '229786', '229824', '230446', '230530', '230571', '230600', '230661', '230687', '230755', '230854', '231096', '231165', '231201', '231217', '231230', '231270', '231299', '231402', '231419', '231462', '231744', '231826', '231911', '231940', '232011', '232043', '232100', '232324', '232362', '232395', '232478', '232577', '232592', '232902', '232948', '233022', '233074', '233089', '233231', '233822', '233970', '234844', '234906', '234950', '235099', '235154', '235233', '235301', '235496', '235527', '235597', '235624', '235679', '235705', '235748', '235792', '235871', '236211', '236226', '236836', '236880', '236933', '236978', '236990', '237144', '237161', '237187', '237422', '237509', '237526', '237543', '237567', '237651', '237688', '237851', '237867', '237880', '238069', '238115', '238165', '238182', '238207', '238252', '238287', '238327', '238340', '238383', '238493', '238511', '238526', '238638', '238915', '238992', '239048', '239089', '239135', '239157', '239207', '239219', '239289', '239329', '239389', '239415', '239464', '239648', '239695', '239736', '239758', '239819', '239930', '240714', '240808', '240828', '241127', '241146', '241192', '241279', '241310', '241388', '241430', '241677', '241708', '241720', '241738', '241784', '241813', '241825', '241841', '241873', '241896', '242183', '242285', '242313', '242400', '242438', '242454', '242469', '242482', '242497', '242514', '242595', '242609', '242658', '243296', '243327', '243342', '243354', '244068', '244514', '244562', '244592', '244616', '244635', '244680', '244740', '245025', '245052', '245064', '245117', '245135', '245163', '245175', '245216', '245229', '245268', '245280', '245352', '245385', '245409', '245541', '246104', '246133', '246322', '246388', '246447', '246762', '246824', '246865', '246940', '246991', '247608', '247626', '247720', '247780', '247804', '248153', '248167', '248275', '248290', '248325', '248372', '248406', '248431', '248474', '248512', '248549', '248562', '248579', '248596', '248634', '248666', '248682', '248854', '249173', '249230', '249256', '249276', '249302', '249391', '249525', '250280', '250330', '250613', '250627', '250657', '250722', '250753', '250805', '250892', '250942', '250960', '251047', '251337', '251423', '251444', '251463', '251506', '251536', '251569', '251861', '251883', '251904', '251931', '252063', '252103', '252123', '252160', '252179', '252207', '252280', '252337', '252363', '252617', '252682', '252696', '252759', '252780', '252844', '252896', '253633', '253732', '253780', '253843', '254126', '254149', '254206', '254258', '254270', '254336', '254352', '254391', '254674', '254699', '254713', '254747', '254781', '254805', '254866', '254920', '254941', '254955', '254985', '255020', '255064', '255092', '255131', '255148', '255165', '255177', '255191', '255207', '255240', '255253', '255531', '255559', '255575', '255627', '255685', '255698', '255726', '255824', '255847', '255859', '255872', '255884', '255926', '255962', '255998', '256032', '256077', '256101', '256123', '256319', '256333', '256416', '256454', '256478', '256537', '256564', '256596', '256698', '256763', '257325', '257342', '257355', '257386', '257522', '257564', '258033', '258130', '258168', '258183', '258240', '258269', '258302', '258343', '258373', '258434', '258722', '258766', '258829', '258855', '258897', '258973', '259002', '259029', '259093', '259138', '259190', '259442', '259463', '259495', '259512', '259621', '259635', '259663', '259686', '259704', '260079', '260102', '260146', '260166', '260288', '260921', '260939', '261013', '261047', '261109', '261208', '261302', '261344', '261410', '261688', '261705', '261786', '261905', '262377', '262452', '262473', '262507', '262571', '262583', '262611', '262627', '262641', '262733', '262802', '262814', '262827', '262878', '262906', '262924', '262957', '262984', '263008', '263024', '263095', '263152', '263173', '263393', '263405', '263478', '263496', '263523', '263571', '263659', '263702', '263774', '264094', '264127', '264163', '264201', '264240', '264294', '264366', '265187', '265252', '265265', '265331', '265349', '265403', '265427', '265492', '265510', '265</t>
         </is>
@@ -553,7 +561,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -616,12 +624,15 @@
         <v>5267</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>133730</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>11</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['Assault', 'Burglary', 'Domestic Violence', 'Homicide - DV', 'Homicide - MVA', 'Homicide - Other', 'Motor Vehicle Accident', 'Other', 'Robbery', 'Sexual Offences', 'Stalking/Threats']</t>
         </is>
@@ -634,7 +645,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -697,12 +708,15 @@
         <v>6937</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>114703</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>7</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['Funeral Only', 'Not Eligible', 'Parent Secondary', 'Primary', 'Related', 'Witness Secondary', 'Yet To Be Determined']</t>
         </is>
@@ -715,7 +729,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -778,12 +792,15 @@
         <v>6022</v>
       </c>
       <c r="U5" t="n">
-        <v>11862</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>11862</v>
+      </c>
+      <c r="W5" t="n">
         <v>6</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['17', '2', 'B', 'F', 'M', 'U']</t>
         </is>
@@ -796,7 +813,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -859,12 +876,15 @@
         <v>8313</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>52710</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>5</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['Aboriginal', 'Aboriginal and Torres Strait', 'No', 'Torres Strait Islander', 'Unknown']</t>
         </is>
@@ -877,7 +897,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -940,12 +960,15 @@
         <v>27</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>57111</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>5264</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t xml:space="preserve">['-0.07', '-0.1', '-0.41', '0', '0.01', '0.03', '0.13', '0.16', '0.17', '0.18', '0.19', '0.22', '0.28', '0.32', '0.33', '0.38', '0.42', '0.53', '0.56', '0.57', '0.58', '0.61', '0.63', '0.64', '0.75', '0.86', '0.87', '0.9', '0.91', '0.93', '0.94', '1.01', '1.04', '1.07', '1.09', '1.27', '1.31', '1.32', '1.34', '1.35', '1.42', '1.45', '1.46', '1.52', '1.55', '1.57', '1.6', '1.61', '1.62', '1.64', '1.68', '1.71', '1.74', '1.75', '1.76', '1.77', '1.82', '1.84', '1.85', '1.89', '1.91', '1.92', '10.01', '10.03', '10.04', '10.05', '10.07', '10.08', '10.09', '10.12', '10.14', '10.15', '10.16', '10.17', '10.18', '10.2', '10.23', '10.25', '10.26', '10.27', '10.29', '10.3', '10.31', '10.32', '10.35', '10.38', '10.39', '10.4', '10.41', '10.42', '10.44', '10.45', '10.46', '10.47', '10.5', '10.51', '10.52', '10.54', '10.55', '10.56', '10.58', '10.59', '10.61', '10.62', '10.64', '10.67', '10.68', '10.7', '10.74', '10.75', '10.76', '10.78', '10.79', '10.81', '10.82', '10.84', '10.85', '10.87', '10.88', '10.9', '10.91', '10.93', '10.94', '10.95', '10.96', '10.97', '10.98', '10.99', '11', '11.01', '11.02', '11.03', '11.04', '11.05', '11.06', '11.08', '11.11', '11.12', '11.13', '11.15', '11.16', '11.17', '11.18', '11.19', '11.22', '11.23', '11.24', '11.25', '11.26', '11.27', '11.28', '11.3', '11.31', '11.33', '11.35', '11.36', '11.38', '11.39', '11.4', '11.41', '11.42', '11.43', '11.44', '11.45', '11.46', '11.47', '11.48', '11.5', '11.51', '11.52', '11.53', '11.54', '11.55', '11.56', '11.57', '11.58', '11.59', '11.6', '11.61', '11.63', '11.64', '11.65', '11.67', '11.68', '11.69', '11.72', '11.73', '11.74', '11.75', '11.76', '11.78', '11.79', '11.8', '11.82', '11.84', '11.85', '11.86', '11.87', '11.88', '11.89', '11.92', '11.93', '11.94', '11.95', '11.96', '11.97', '11.98', '12', '12.01', '12.02', '12.04', '12.08', '12.09', '12.1', '12.12', '12.13', '12.14', '12.15', '12.17', '12.19', '12.2', '12.21', '12.23', '12.24', '12.26', '12.28', '12.3', '12.31', '12.32', '12.33', '12.34', '12.37', '12.38', '12.39', '12.4', '12.41', '12.42', '12.45', '12.48', '12.5', '12.52', '12.53', '12.54', '12.55', '12.56', '12.57', '12.59', '12.6', '12.61', '12.62', '12.63', '12.65', '12.66', '12.67', '12.68', '12.7', '12.71', '12.72', '12.73', '12.75', '12.76', '12.77', '12.78', '12.8', '12.81', '12.82', '12.84', '12.85', '12.86', '12.87', '12.88', '12.89', '12.9', '12.91', '12.92', '12.93', '12.94', '12.95', '12.96', '12.97', '12.98', '12.99', '13', '13.01', '13.02', '13.04', '13.05', '13.06', '13.07', '13.09', '13.11', '13.12', '13.13', '13.14', '13.15', '13.16', '13.18', '13.19', '13.22', '13.24', '13.25', '13.26', '13.27', '13.28', '13.29', '13.3', '13.31', '13.33', '13.35', '13.36', '13.38', '13.4', '13.41', '13.42', '13.43', '13.45', '13.46', '13.47', '13.48', '13.49', '13.5', '13.51', '13.52', '13.53', '13.55', '13.56', '13.57', '13.58', '13.59', '13.6', '13.61', '13.62', '13.63', '13.64', '13.65', '13.66', '13.67', '13.68', '13.69', '13.7', '13.71', '13.72', '13.73', '13.74', '13.75', '13.76', '13.77', '13.78', '13.79', '13.81', '13.82', '13.83', '13.84', '13.85', '13.86', '13.87', '13.88', '13.89', '13.9', '13.91', '13.92', '13.93', '13.94', '13.96', '13.97', '13.98', '13.99', '14.01', '14.02', '14.03', '14.04', '14.05', '14.06', '14.07', '14.08', '14.09', '14.1', '14.12', '14.13', '14.15', '14.16', '14.17', '14.18', '14.19', '14.21', '14.22', '14.23', '14.24', '14.25', '14.26', '14.27', '14.28', '14.29', '14.3', '14.32', '14.33', '14.34', '14.36', '14.37', '14.39', '14.4', '14.41', '14.42', '14.43', '14.44', '14.45', '14.46', '14.47', '14.48', '14.5', '14.51', '14.52', '14.54', '14.55', '14.56', '14.57', '14.58', '14.59', '14.6', '14.61', '14.62', '14.63', '14.64', '14.66', '14.67', '14.68', '14.69', '14.7', '14.71', '14.72', '14.73', '14.74', '14.75', '14.76', '14.77', '14.78', '14.79', '14.8', '14.81', '14.82', '14.83', '14.84', '14.85', '14.86', '14.87', '14.88', '14.9', '14.91', '14.92', '14.93', '14.94', '14.95', '14.96', '14.97', '14.98', '14.99', '15', '15.01', '15.02', '15.03', '15.04', '15.05', '15.06', '15.07', '15.08', '15.1', '15.11', '15.12', '15.13', '15.15', '15.16', '15.17', '15.18', '15.19', '15.2', '15.21', '15.22', '15.23', '15.24', '15.25', '15.26', '15.27', '15.28', '15.3', '15.31', '15.32', '15.33', '15.34', '15.35', '15.36', '15.38', '15.39', '15.41', '15.42', '15.45', '15.46', '15.47', '15.48', '15.49', '15.5', '15.51', '15.52', '15.53', '15.54', '15.55', '15.56', '15.57', '15.58', '15.59', '15.6', '15.61', '15.62', '15.63', '15.64', '15.65', '15.66', '15.67', '15.68', '15.72', '15.73', '15.74', '15.75', '15.77', '15.78', '15.79', '15.8', '15.81', '15.82', '15.83', '15.84', '15.85', '15.87', '15.88', '15.89', '15.9', '15.92', '15.94', '15.95', '15.96', '15.97', '15.98', '15.99', '16.01', '16.02', '16.04', '16.06', '16.07', '16.08', '16.09', '16.1', '16.11', '16.12', '16.13', '16.14', '16.15', '16.16', '16.17', '16.18', '16.19', '16.21', '16.22', '16.23', '16.25', '16.26', '16.27', '16.28', '16.29', '16.31', '16.32', '16.33', '16.34', '16.35', '16.36', '16.37', '16.38', '16.39', '16.4', '16.43', '16.44', '16.45', '16.46', '16.47', '16.48', '16.49', '16.5', '16.51', '16.52', '16.53', '16.54', '16.55', '16.56', '16.57', '16.58', '16.59', '16.6', '16.61', '16.62', '16.63', '16.64', '16.65', '16.67', '16.68', '16.69', '16.7', '16.71', '16.72', '16.73', '16.74', '16.75', '16.76', '16.77', '16.78', '16.79', '16.8', '16.81', '16.82', '16.83', '16.84', '16.85', '16.86', '16.88', '16.9', '16.91', '16.92', '16.93', '16.94', '16.95', '16.96', '16.97', '16.98', '16.99', '17.01', '17.02', '17.03', '17.04', '17.05', '17.07', '17.09', '17.1', '17.11', '17.12', '17.13', '17.14', '17.16', '17.17', '17.18', '17.19', '17.2', '17.21', '17.22', '17.24', '17.25', '17.27', '17.28', '17.3', '17.31', '17.36', '17.39', '17.41', '17.42', '17.45', '17.46', '17.47', '17.48', '17.49', '17.5', '17.51', '17.52', '17.53', '17.54', '17.55', '17.57', '17.58', '17.59', '17.6', '17.61', '17.62', '17.64', '17.65', '17.66', '17.67', '17.69', '17.7', '17.71', '17.72', '17.73', '17.74', '17.75', '17.76', '17.77', '17.78', '17.79', '17.8', '17.81', '17.82', '17.83', '17.84', '17.85', '17.86', '17.87', '17.88', '17.89', '17.9', '17.91', '17.92', '17.94', '17.95', '17.96', '17.97', '17.98', '17.99', '18', '18.01', '18.02', '18.03', '18.04', '18.07', '18.08', '18.09', '18.1', '18.11', '18.12', '18.13', '18.14', '18.15', '18.17', '18.18', '18.19', '18.2', '18.21', '18.22', '18.23', '18.24', '18.25', '18.26', '18.27', '18.28', '18.29', '18.3', '18.31', '18.32', '18.33', '18.34', '18.35', '18.36', '18.37', '18.38', '18.39', '18.4', '18.41', '18.42', '18.43', '18.44', '18.45', '18.46', '18.47', '18.48', '18.49', '18.5', '18.51', '18.52', '18.54', '18.55', '18.56', '18.57', '18.58', '18.59', '18.6', '18.61', '18.62', '18.63', '18.64', '18.65', '18.66', '18.67', '18.71', '18.72', '18.73', '18.74', '18.75', '18.76', '18.77', '18.78', '18.79', '18.81', '18.82', '18.83', '18.84', '18.85', '18.86', '18.88', '18.89', '18.9', '18.91', '18.92', '18.93', '18.94', '18.95', '18.97', '18.98', '18.99', '19', '19.01', '19.02', '19.04', '19.06', '19.07', '19.08', '19.09', '19.1', '19.11', '19.12', '19.13', '19.15', '19.16', '19.17', '19.18', '19.19', '19.2', '19.21', '19.22', '19.24', '19.25', '19.26', '19.27', '19.28', '19.29', '19.3', '19.31', '19.32', '19.33', '19.34', '19.35', '19.36', '19.37', '19.38', '19.39', '19.4', '19.42', '19.43', '19.44', '19.45', '19.46', '19.47', '19.48', '19.49', '19.5', '19.51', '19.52', '19.53', '19.54', '19.55', '19.56', '19.58', '19.59', '19.6', '19.62', '19.63', '19.64', '19.65', '19.66', '19.67', '19.69', '19.7', '19.72', '19.73', '19.74', '19.75', '19.76', '19.77', '19.78', '19.81', '19.82', '19.83', '19.84', '19.85', '19.86', '19.87', '19.9', '19.91', '19.92', '19.93', '19.94', '19.95', '19.96', '19.97', '19.98', '19.99', '2', '2.01', '2.09', '2.12', '2.17', '2.21', '2.26', '2.27', '2.28', '2.3', '2.35', '2.38', '2.39', '2.41', '2.44', '2.48', '2.5', '2.51', '2.52', '2.53', '2.55', '2.56', '2.58', '2.59', '2.64', '2.67', '2.69', '2.7', '2.76', '2.77', '2.78', '2.79', '2.8', '2.85', '2.88', '2.92', '2.96', '20', '20.02', '20.04', '20.05', '20.07', '20.08', '20.09', '20.1', '20.12', '20.13', '20.14', '20.15', '20.16', '20.17', '20.19', '20.2', '20.21', '20.22', '20.23', '20.24', '20.27', '20.28', '20.29', '20.3', '20.31', '20.32', '20.33', '20.34', '20.35', '20.36', '20.37', '20.38', '20.39', '20.4', '20.41', '20.42', '20.43', '20.44', '20.45', '20.46', '20.47', '20.48', '20.49', '20.5', '20.51', '20.52', '20.53', '20.54', '20.55', '20.56', '20.57', '20.58', '20.59', '20.6', '20.61', '20.62', '20.63', '20.64', '20.65', '20.66', '20.67', '20.68', '20.69', '20.7', '20.71', '20.72', '20.73', '20.74', '20.75', '20.76', '20.77', '20.78', '20.79', '20.8', '20.81', '20.82', '20.83', '20.85', '20.86', '20.87', '20.88', '20.89', '20.9', '20.91', '20.92', '20.93', '20.94', '20.95', '20.96', '20.97', '20.99', '21', '21.01', '21.02', '21.03', '21.04', '21.05', '21.08', '21.09', '21.1', '21.11', '21.12', '21.13', '21.14', '21.15', '21.16', '21.17', '21.18', '21.2', '21.21', '21.22', '21.23', '21.24', '21.25', '21.27', '21.28', '21.29', '21.3', '21.31', '21.32', '21.33', '21.34', '21.35', '21.36', '21.37', '21.38', '21.39', '21.4', '21.41', '21.42', '21.46', '21.47', '21.48', '21.49', '21.5', '21.51', '21.52', '21.53', '21.54', '21.55', '21.56', '21.57', '21.58', '21.59', '21.6', '21.61', '21.62', '21.63', '21.64', '21.65', '21.66', '21.67', '21.69', '21.7', '21.71', '21.72', '21.73', '21.74', '21.75', '21.76', '21.78', '21.79', '21.8', '21.81', '21.82', '21.83', '21.84', '21.85', '21.86', '21.87', '21.88', '21.9', '21.91', '21.92', '21.93', '21.94', '21.95', '21.96', '21.97', '21.99', '22', '22.02', '22.03', '22.04', '22.05', '22.06', '22.07', '22.08', '22.09', '22.1', '22.12', '22.13', '22.15', '22.16', '22.17', '22.18', '22.19', '22.2', '22.21', '22.22', '22.24', '22.25', '22.26', '22.27', '22.28', '22.29', '22.3', '22.31', '22.32', '22.33', '22.34', '22.35', '22.36', '22.37', '22.38', '22.39', '22.4', '22.41', '22.42', '22.43', '22.44', '22.45', '22.47', '22.48', '22.49', '22.5', '22.51', '22.52', '22.53', '22.54', '22.55', '22.56', '22.57', '22.58', '22.59', '22.6', '22.61', '22.62', '22.63', '22.64', '22.67', '22.68', '22.7', '22.71', '22.72', '22.73', '22.74', '22.75', '22.76', '22.77', '22.78', '22.79', '22.8', '22.81', '22.82', '22.83', '22.84', '22.85', '22.87', '22.88', '22.89', '22.9', '22.91', '22.92', '22.94', '22.95', '22.96', '22.97', '22.98', '22.99', '23', '23.01', '23.02', '23.03', '23.04', '23.05', '23.07', '23.08', '23.09', '23.1', '23.11', '23.12', '23.13', '23.14', '23.15', '23.16', '23.17', '23.18', '23.19', '23.2', '23.21', '23.23', '23.24', '23.25', '23.26', '23.27', '23.28', '23.3', '23.31', '23.32', '23.33', '23.35', '23.36', '23.37', '23.38', '23.39', '23.4', '23.42', '23.43', '23.45', '23.46', '23.47', '23.48', '23.5', '23.51', '23.52', '23.53', '23.54', '23.55', '23.56', '23.57', '23.58', '23.59', '23.6', '23.61', '23.62', '23.64', '23.65', '23.67', '23.68', '23.69', '23.7', '23.71', '23.72', '23.73', '23.74', '23.75', '23.76', '23.77', '23.78', '23.79', '23.8', '23.81', '23.83', '23.84', '23.85', '23.86', '23.87', '23.88', '23.89', '23.9', '23.91', '23.92', '23.93', '23.94', '23.95', '23.96', '23.97', '23.98', '23.99', '24.02', '24.03', '24.04', '24.05', '24.06', '24.07', '24.08', '24.09', '24.1', '24.11', '24.13', '24.14', '24.15', '24.16', '24.17', '24.18', '24.19', '24.2', '24.21', '24.22', '24.23', '24.24', '24.25', '24.26', '24.27', '24.28', '24.29', '24.3', '24.31', '24.32', '24.33', '24.34', '24.35', '24.36', '24.37', '24.38', '24.39', '24.41', '24.42', '24.43', '24.44', '24.45', '24.46', '24.47', '24.48', '24.49', '24.5', '24.51', '24.52', '24.53', '24.54', '24.55', '24.56', '24.57', '24.58', '24.59', '24.6', '24.61', '24.62', '24.63', '24.64', '24.66', '24.67', '24.68', '24.69', '24.7', '24.71', '24.72', '24.73', '24.74', '24.75', '24.76', '24.77', '24.78', '24.79', '24.8', '24.81', '24.83', '24.84', '24.85', '24.86', '24.87', '24.88', '24.9', '24.91', '24.92', '24.93', '24.94', '24.95', '24.96', '24.97', '24.98', '24.99', '25', '25.01', '25.02', '25.03', '25.04', '25.05', '25.06', '25.08', '25.09', '25.1', '25.11', '25.13', '25.14', '25.15', '25.16', '25.17', '25.18', '25.19', '25.2', '25.21', '25.22', '25.23', '25.24', '25.25', '25.26', '25.27', '25.28', '25.29', '25.3', '25.31', '25.32', '25.34', '25.35', '25.36', '25.37', '25.38', '25.39', '25.4', '25.41', '25.42', '25.43', '25.44', '25.45', '25.46', '25.47', '25.48', '25.49', '25.5', '25.51', '25.52', '25.53', '25.54', '25.55', '25.56', '25.57', '25.58', '25.59', '25.6', '25.61', '25.62', '25.63', '25.64', '25.65', '25.66', '25.67', '25.68', '25.69', '25.7', '25.71', '25.72', '25.73', '25.74', '25.75', '25.76', '25.77', '25.78', '25.79', '25.81', '25.82', '25.83', '25.84', '25.85', '25.86', '25.87', '25.88', '25.9', '25.91', '25.92', '25.93', '25.94', '25.95', '25.96', '25.97', '25.98', '25.99', '26.01', '26.02', '26.03', '26.04', '26.05', '26.06', '26.07', '26.08', '26.09', '26.11', '26.12', '26.13', '26.15', '26.16', '26.17', '26.19', '26.2', '26.21', '26.22', '26.23', '26.24', '26.25', '26.26', '26.27', '26.28', '26.29', '26.3', '26.31', '26.32', '26.33', '26.34', '26.35', '26.36', '26.37', '26.38', '26.39', '26.4', '26.41', '26.43', '26.44', '26.45', '26.46', '26.47', '26.48', '26.49', '26.5', '26.51', '26.52', '26.53', '26.54', '26.55', '26.56', '26.57', '26.58', '26.59', '26.6', '26.61', '26.62', '26.63', '26.64', '26.65', '26.66', '26.67', '26.68', '26.69', '26.7', '26.71', '26.72', '26.73', '26.74', '26.75', '26.76', '26.77', '26.78', '26.79', '26.82', '26.83', '26.84', '26.85', '26.86', '26.87', '26.88', '26.89', '26.9', '26.91', '26.92', '26.93', '26.95', '26.96', '26.97', '26.98', '26.99', '27', '27.01', '27.02', '27.03', '27.04', '27.05', '27.06', '27.07', '27.08', '27.09', '27.1', '27.11', '27.12', '27.13', '27.14', '27.15', '27.16', '27.17', '27.18', '27.19', '27.2', '27.21', '27.22', '27.23', '27.24', '27.25', '27.26', '27.27', '27.28', '27.29', '27.3', '27.31', '27.32', '27.33', '27.35', '27.36', '27.37', '27.38', '27.39', '27.4', '27.41', '27.42', '27.43', '27.44', '27.45', '27.46', '27.47', '27.48', '27.49', '27.5', '27.51', '27.52', '27.54', '27.55', '27.56', '27.57', '27.58', '27.59', '27.6', '27.61', '27.62', '27.64', '27.65', '27.66', '27.67', '27.68', '27.69', '27.7', '27.71', '27.72', '27.73', '27.74', '27.75', '27.76', '27.77', '27.78', '27.79', '27.8', '27.81', '27.82', '27.83', '27.84', '27.85', '27.86', '27.87', '27.88', '27.89', '27.9', '27.91', '27.92', '27.93', '27.94', '27.95', '27.96', '27.97', '27.98', '27.99', '28.01', '28.02', '28.03', '28.04', '28.06', '28.07', '28.08', '28.09', '28.1', '28.11', '28.12', '28.13', '28.14', '28.15', '28.16', '28.17', '28.18', '28.19', '28.2', '28.21', '28.22', '28.23', '28.24', '28.25', '28.26', '28.27', '28.29', '28.3', '28.31', '28.32', '28.33', '28.34', '28.35', '28.36', '28.37', '28.38', '28.39', '28.41', '28.42', '28.43', '28.44', '28.45', '28.46', '28.47', '28.48', '28.49', '28.5', '28.54', '28.55', '28.56', '28.57', '28.58', '28.59', '28.6', '28.61', '28.62', '28.63', '28.64', '28.65', '28.66', '28.67', '28.68', '28.69', '28.7', '28.71', '28.72', '28.73', '28.74', '28.75', '28.76', '28.77', '28.78', '28.79', '28.8', '28.81', '28.82', '28.83', '28.84', '28.85', '28.87', '28.89', '28.9', '28.91', '28.92', '28.93', '28.94', '28.95', '28.96', '28.97', '28.98', '29', '29.01', '29.02', '29.03', '29.04', '29.05', '29.06', '29.08', '29.09', '29.1', '29.11', '29.12', '29.13', '29.14', '29.15', '29.16', '29.17', '29.18', '29.21', '29.22', '29.23', '29.24', '29.25', '29.26', '29.27', '29.28', '29.29', '29.3', '29.32', '29.33', '29.34', '29.35', '29.36', '29.37', '29.38', '29.39', '29.4', '29.41', '29.42', '29.43', '29.44', '29.46', '29.47', '29.48', '29.49', '29.5', '29.52', '29.53', '29.54', '29.55', '29.56', '29.57', '29.58', '29.59', '29.6', '29.61', '29.64', '29.65', '29.66', '29.67', '29.68', '29.69', '29.7', '29.71', '29.72', '29.73', '29.74', '29.75', '29.76', '29.77', '29.78', '29.79', '29.8', '29.81', '29.82', '29.83', '29.84', '29.85', '29.86', '29.87', '29.88', '29.89', '29.9', '29.91', '29.92', '29.93', '29.94', '29.95', '29.96', '29.97', '29.99', '3', '3.01', '3.02', '3.03', '3.05', '3.13', '3.18', '3.19', '3.21', '3.24', '3.3', '3.35', '3.4', '3.43', '3.45', '3.55', '3.56', '3.57', '3.58', '3.59', '3.61', '3.68', '3.72', '3.73', '3.76', '3.82', '3.86', '3.92', '3.93', '3.94', '3.96', '3.97', '3.98', '30', '30.01', '30.02', '30.03', '30.04', '30.05', '30.06', '30.07', '30.08', '30.09', '30.1', '30.11', '30.12', '30.13', '30.14', '30.15', '30.16', '30.17', '30.18', '30.19', '30.21', '30.22', '30.23', '30.24', '30.25', '30.26', '30.27', '30.28', '30.31', '30.32', '30.33', '30.35', '30.36', '30.37', '30.38', '30.39', '30.4', '30.41', '30.42', '30.43', '30.44', '30.45', '30.46', '30.47', '30.48', '30.5', '30.51', '30.52', '30.53', '30.55', '30.57', '30.58', '30.59', '30.61', '30.62', '30.63', '30.64', '30.65', '30.66', '30.67', '30.68', '30.69', '30.7', '30.72', '30.73', '30.74', '30.75', '30.76', '30.77', '30.78', '30.79', '30.8', '30.81', '30.84', '30.85', '30.86', '30.87', '30.88', '30.89', '30.9', '30.91', '30.92', '30.93', '30.95', '30.96', '30.97', '30.98', '30.99', '31.01', '31.02', '31.03', '31.04', '31.05', '31.06', '31.07', '31.08', '31.09', '31.1', '31.12', '31.13', '31.14', '31.15', '31.16', '31.17', '31.18', '31.19', '31.2', '31.21', '31.22', '31.23', '31.24', '31.25', '31.26', '31.27', '31.28', '31.29', '31.3', '31.31', '31.32', '31.33', '31.34', '31.35', '31.36', '31.37', '31.38', '31.39', '31.4', '31.41', '31.42', '31.43', '31.44', '31.45', '31.46', '31.47', '31.48', '31.49', '31.5', '31.52', '31.53', '31.55', '31.56', '31.57', '31.58', '31.59', '31.6', '31.61', '31.62', '31.63', '31.64', '31.65', '31.66', '31.67', '31.68', '31.69', '31.7', '31.71', '31.72', '31.73', '31.74', '31.75', '31.76', '31.78', '31.79', '31.8', '31.81', '31.82', '31.83', '31.84', '31.85', '31.86', '31.87', '31.88', '31.89', '31.9', '31.91', '31.92', '31.93', '31.94', '31.96', '31.97', '31.98', '31.99', '32', '32.01', '32.02', '32.03', '32.04', '32.05', '32.06', '32.07', '32.08', '32.1', '32.12', '32.13', '32.14', '32.15', '32.16', '32.17', '32.18', '32.19', '32.2', '32.21', '32.22', '32.23', '32.24', '32.25', '32.26', '32.27', '32.28', '32.29', '32.3', '32.31', '32.32', '32.33', '32.34', '32.35', '32.36', '32.37', '32.38', '32.39', '32.4', '32.41', '32.42', '32.43', '32.44', '32.45', '32.46', '32.47', '32.48', '32.49', '32.5', '32.51', '32.52', '32.53', '32.54', '32.55', '32.56', '32.57', '32.59', '32.61', '32.62', '32.63', '32.64', '32.65', '32.66', '32.67', '32.68', '32.69', '32.7', '32.72', '32.73', '32.74', '32.75', '32.76', '32.77', '32.78', '32.79', '32.8', '32.81', '32.82', '32.83', '32.84', '32.85', '32.86', '32.87', '32.88', '32.89', '32.9', '32.91', '32.92', '32.93', '32.94', '32.95', '32.96', '32.97', '32.98', '32.99', '33', '33.01', '33.02', '33.03', '33.06', '33.07', '33.09', '33.1', '33.11', '33.12', '33.13', '33.14', '33.15', '33.16', '33.17', '33.18', '33.19', '33.21', '33.22', '33.23', '33.24', '33.25', '33.26', '33.27', '33.28', '33.3', '33.31', '33.32', '33.33', '33.34', '33.36', '33.37', '33.38', '33.39', '33.4', '33.41', '33.42', '33.43', '33.44', '33.45', '33.46', '33.47', '33.48', '33.49', '33.5', '33.51', '33.52', '33.54', '33.55', '33.56', '33.57', '33.58', '33.59', '33.6', '33.61', '33.62', '33.63', '33.64', '33.65', '33.66', '33.67', '33.68', '33.7', '33.71', '33.72', '33.73', '33.74', '33.75', '33.76', '33.77', '33.78', '33.81', '33.82', '33.83', '33.84', '33.86', '33.87', '33.88', '33.89', '33.9', '33.91', '33.92', '33.93', '33.94', '33.95', '33.96', '33.97', '33.98', '33.99', '34', '34.01', '34.02', '34.03', '34.04', '34.05', '34.06', '34.07', '34.08', '34.09', '34.1', '34.11', '34.12', '34.13', '34.14', '34.15', '34.16', '34.17', '34.18', '34.19', '34.2', '34.21', '34.23', '34.24', '34.25', '34.26', '34.27', '34.28', '34.29', '34.3', '34.31', '34.32', '34.33', '34.34', '34.35', '34.37', '34.38', '34.39', '34.4', '34.41', '34.43', '34.44', '34.45', '34.46', '34.47', '34.48', '34.49', '34.5', '34.51', '34.52', '34.53', '34.54', '34.55', '34.56', '34.57', '34.58', '34.59', '34.6', '34.61', '34.62', '34.63', '34.65', '34.67', '34.68', '34.7', '34.71', '34.72', '34.73', '34.74', '34.75', '34.76', '34.77', '34.78', '34.79', '34.8', '34.82', '34.83', '34.84', '34.85', '34.86', '34.87', '34.89', '34.93', '34.94', '34.95', '34.97', '34.98', '34.99', '35', '35.01', '35.02', '35.03', '35.04', '35.05', '35.06', '35.07', '35.08', '35.1', '35.11', '35.12', '35.13', '35.14', '35.15', '35.16', '35.18', '35.19', '35.2', '35.21', '35.22', '35.23', '35.24', '35.25', '35.26', '35.27', '35.28', '35.29', '35.3', '35.31', '35.32', '35.33', '35.34', '35.35', '35.36', '35.37', '35.38', '35.39', '35.4', '35.41', '35.42', '35.43', '35.44', '35.45', '35.47', '35.48', '35.49', '35.5', '35.51', '35.53', '35.54', '35.55', '35.56', '35.58', '35.59', '35.6', '35.61', '35.62', '35.63', '35.64', '35.65', '35.66', '35.67', '35.68', '35.69', '35.7', '35.71', '35.72', '35.73', '35.74', '35.75', '35.76', '35.78', '35.79', '35.8', '35.81', '35.82', '35.83', '35.84', '35.85', '35.86', '35.88', '35.89', '35.9', '35.91', '35.92', '35.93', '35.94', '35.95', '35.96', '35.97', '35.98', '35.99', '36', '36.01', '36.02', '36.03', '36.04', '36.05', '36.06', '36.07', '36.09', '36.1', '36.11', '36.12', '36.13', '36.15', '36.16', '36.18', '36.2', '36.21', '36.23', '36.24', '36.26', '36.27', '36.28', '36.29', '36.3', '36.31', '36.32', '36.33', '36.34', '36.35', '36.36', '36.37', '36.38', '36.39', '36.4', '36.42', '36.43', '36.44', '36.45', '36.46', '36.47', '36.48', '36.49', '36.5', '36.52', '36.53', '36.54', '36.55', '36.56', '36.57', '36.58', '36.59', '36.6', '36.61', '36.62', '36.63', '36.64', '36.65', '36.66', '36.67', '36.68', '36.69', '36.7', '36.71', '36.72', '36.73', '36.74', '36.75', '36.76', '36.78', '36.79', '36.8', '36.81', '36.82', '36.83', '36.84', '36.85', '36.86', '36.87', '36.88', '36.89', '36.9', '36.91', '36.92', '36.93', '36.94', '36.96', '36.97', '36.98', '36.99', '37.01', '37.02', '37.03', '37.04', '37.06', '37.07', '37.08', '37.09', '37.1', '37.11', '37.12', '37.13', '37.14', '37.15', '37.16', '37.17', '37.18', '37.19', '37.2', '37.21', '37.22', '37.23', '37.24', '37.25', '37.26', '37.27', '37.28', '37.29', '37.3', '37.31', '37.32', '37.33', '37.35', '37.36', '37.38', '37.39', '37.4', '37.41', '37.42', '37.43', '37.44', '37.45', '37.46', '37.47', '37.48', '37.49', '37.5', '37.51', '37.52', '37.53', '37.54', '37.55', '37.56', '37.57', '37.58', '37.59', '37.6', '37.61', '37.62', '37.63', '37.64', '37.66', '37.68', '37.69', '37.7', '37.71', '37.72', '37.73', '37.74', '37.75', '37.76', '37.77', '37.79', '37.8', '37.81', '37.82', '37.83', '37.84', '37.85', '37.86', '37.88', '37.89', '37.9', '37.92', '37.93', '37.94', '37.95', '37.96', '37.97', '37.98', '37.99', '38.01', '38.02', '38.03', '38.04', '38.05', '38.06', '38.07', '38.08', '38.09', '38.1', '38.11', '38.12', '38.14', '38.15', '38.16', '38.17', '38.18', '38.19', '38.2', '38.21', '38.22', '38.23', '38.24', '38.25', '38.26', '38.27', '38.28', '38.29', '38.3', '38.31', '38.32', '38.33', '38.34', '38.36', '38.38', '38.39', '38.4', '38.41', '38.42', '38.44', '38.46', '38.47', '38.48', '38.49', '38.5', '38.51', '38.52', '38.53', '38.55', '38.56', '38.57', '38.59', '38.6', '38.61', '38.62', '38.63', '38.64', '38.66', '38.67', '38.68', '38.69', '38.7', '38.71', '38.72', '38.73', '38.74', '38.75', '38.77', '38.78', '38.79', '38.8', '38.81', '38.82', '38.83', '38.84', '38.85', '38.86', '38.87', '38.88', '38.89', '38.9', '38.91', '38.92', '38.93', '38.94', '38.95', '38.96', '38.97', '38.99', '39', '39.01', '39.02', '39.03', '39.04', '39.05', '39.06', '39.07', '39.08', '39.09', '39.1', '39.11', '39.12', '39.13', '39.14', '39.15', '39.16', '39.18', '39.19', '39.2', '39.21', '39.22', '39.24', '39.25', '39.26', '39.27', '39.28', '39.29', '39.3', '39.31', '39.32', '39.33', '39.34', '39.35', '39.36', '39.37', '39.38', '39.39', '39.41', '39.42', '39.43', '39.44', '39.45', '39.46', '39.47', '39.48', '39.49', '39.5', '39.51', '39.52', '39.53', '39.54', '39.55', '39.56', '39.57', '39.58', '39.59', '39.6', '39.61', '39.62', '39.63', '39.64', '39.65', '39.67', '39.68', '39.69', '39.7', '39.71', '39.73', '39.74', '39.75', '39.76', '39.77', '39.78', '39.79', '39.81', '39.82', '39.83', '39.84', '39.85', '39.86', '39.87', '39.88', '39.89', '39.9', '39.93', '39.94', '39.95', '39.96', '39.97', '39.98', '39.99', '4.02', '4.04', '4.05', '4.06', '4.12', '4.14', '4.15', '4.16', '4.21', '4.23', '4.25', '4.26', '4.28', '4.32', '4.33', '4.35', '4.39', '4.41', '4.42', '4.43', '4.44', '4.47', '4.5', '4.52', '4.54', '4.55', '4.56', '4.6', '4.61', '4.62', '4.63', '4.64', '4.66', '4.67', '4.71', '4.72', '4.73', '4.76', '4.78', '4.79', '4.8', '4.81', '4.83', '4.85', '4.86', '4.87', '4.88', '4.9', '4.92', '4.96', '4.98', '4.99', '40', '40.01', '40.02', '40.03', '40.04', '40.05', '40.07', '40.08', '40.1', '40.11', '40.12', '40.13', '40.14', '40.15', '40.16', '40.17', '40.19', '40.2', '40.22', '40.23', '40.24', '40.25', '40.26', '40.27', '40.28', '40.3', '40.31', '40.32', '40.33', '40.34', '40.35', '40.36', '40.37', '40.39', '40.4', '40.41', '40.42', '40.43', '40.44', '40.45', '40.46', '40.47', '40.48', '40.49', '40.5', '40.51', '40.52', '40.53', '40.54', '40.55', '40.56', '40.57', '40.59', '40.6', '40.61', '40.63', '40.64', '40.65', '40.66', '40.67', '40.68', '40.69', '40.7', '40.71', '40.72', '40.73', '40.74', '40.75', '40.76', '40.77', '40.78', '40.8', '40.81', '40.82', '40.83', '40.84', '40.85', '40.86', '40.87', '40.88', '40.89', '40.9', '40.91', '40.92', '40.93', '40.94', '40.95', '40.96', '40.97', '40.98', '41', '41.01', '41.02', '41.03', '41.04', '41.05', '41.06', '41.07', '41.09', '41.1', '41.11', '41.12', '41.13', '41.14', '41.15', '41.16', '41.17', '41.18', '41.19', '41.2', '41.21', '41.22', '41.23', '41.24', '41.25', '41.26', '41.27', '41.28', '41.29', '41.3', '41.31', '41.32', '41.33', '41.34', '41.35', '41.36', '41.38', '41.39', '41.4', '41.41', '41.42', '41.44', '41.46', '41.47', '41.48', '41.49', '41.5', '41.51', '41.52', '41.53', '41.54', '41.55', '41.56', '41.57', '41.58', '41.59', '41.6', '41.61', '41.62', '41.63', '41.64', '41.65', '41.66', '41.67', '41.68', '41.69', '41.7', '41.72', '41.73', '41.74', '41.75', '41.76', '41.77', '41.78', '41.79', '41.8', '41.81', '41.82', '41.83', '41.84', '41.85', '41.86', '41.87', '41.88', '41.89', '41.9', '41.91', '41.92', '41.93', '41.96', '41.98', '41.99', '42', '42.01', '42.02', '42.03', '42.05', '42.06', '42.07', '42.08', '42.09', '42.11', '42.12', '42.13', '42.15', '42.16', '42.17', '42.18', '42.19', '42.21', '42.22', '42.23', '42.26', '42.27', '42.28', '42.29', '42.3', '42.31', '42.32', '42.33', '42.34', '42.35', '42.36', '42.37', '42.38', '42.39', '42.4', '42.43', '42.45', '42.46', '42.47', '42.48', '42.49', '42.5', '42.51', '42.52', '42.53', '42.54', '42.55', '42.56', '42.57', '42.58', '42.59', '42.6', '42.61', '42.62', '42.63', '42.65', '42.66', '42.67', '42.68', '42.69', '42.7', '42.72', '42.73', '42.74', '42.75', '42.76', '42.77', '42.78', '42.79', '42.8', '42.81', '42.82', '42.84', '42.85', '42.86', '42.87', '42.88', '42.89', '42.9', '42.91', '42.92', '42.93', '42.94', '42.95', '42.96', '42.97', '42.98', '42.99', '43', '43.01', '43.02', '43.03', '43.04', '43.05', '43.06', '43.07', '43.08', '43.1', '43.11', '43.12', '43.13', '43.14', '43.15', '43.16', '43.17', '43.18', '43.19', '43.2', '43.21', '43.22', '43.23', '43.25', '43.26', '43.27', '43.28', '43.29', '43.3', '43.31', '43.32', '43.33', '43.34', '43.35', '43.36', '43.37', '43.38', '43.39', '43.4', '43.41', '43.42', '43.43', '43.44', '43.45', '43.46', '43.49', '43.5', '43.52', '43.53', '43.54', '43.55', '43.56', '43.57', '43.58', '43.59', '43.6', '43.61', '43.62', '43.63', '43.64', '43.65', '43.67', '43.68', '43.69', '43.7', '43.71', '43.72', '43.73', '43.74', '43.75', '43.76', '43.77', '43.78', '43.79', '43.81', '43.82', '43.83', '43.84', '43.85', '43.87', '43.88', '43.89', '43.9', '43.91', '43.93', '43.94', '43.95', '43.96', '43.97', '43.98', '43.99', '44', '44.01', '44.02', '44.03', '44.04', '44.05', '44.06', '44.08', '44.09', '44.1', '44.12', '44.14', '44.15', '44.16', '44.17', '44.18', '44.2', '44.22', '44.24', '44.25', '44.27', '44.28', '44.29', '44.3', '44.31', '44.32', '44.33', '44.34', '44.35', '44.36', '44.37', '44.38', '44.39', '44.4', '44.41', '44.42', '44.43', '44.44', '44.45', '44.46', '44.47', '44.48', '44.49', '44.5', '44.51', '44.52', '44.54', '44.55', '44.56', '44.57', '44.58', '44.59', '44.6', '44.61', '44.62', '44.63', '44.65', '44.66', '44.67', '44.68', '44.69', '44.7', '44.71', '44.72', '44.73', '44.74', '44.75', '44.76', '44.77', '44.78', '44.79', '44.8', '44.81', '44.82', '44.83', '44.84', '44.85', '44.86', '44.87', '44.88', '44.89', '44.9', '44.92', '44.93', '44.96', '44.97', '44.98', '44.99', '45.01', '45.04', '45.06', '45.07', '45.08', '45.09', '45.1', '45.11', '45.12', '45.13', '45.14', '45.15', '45.16', '45.17', '45.18', '45.19', '45.2', '45.22', '45.23', '45.24', '45.25', '45.27', '45.3', '45.32', '45.33', '45.34', '45.35', '45.36', '45.37', '45.38', '45.39', '45.4', '45.41', '45.42', '45.43', '45.44', '45.45', '45.46', '45.47', '45.48', '45.5', '45.51', '45.52', '45.53', '45.54', '45.55', '45.57', '45.58', '45.59', '45.6', '45.61', '45.62', '45.64', '45.65', '45.66', '45.67', '45.68', '45.69', '45.7', '45.71', '45.73', '45.74', '45.75', '45.76', '45.77', '45.78', '45.79', '45.8', '45.82', '45.83', '45.84', '45.85', '45.86', '45.88', '45.89', '45.9', '45.92', '45.93', '45.94', '45.95', '45.96', '45.97', '45.99', '46', '46.01', '46.02', '46.03', '46.04', '46.05', '46.06', '46.07', '46.08', '46.09', '46.1', '46.11', '46.12', '46.13', '46.14', '46.15', '46.16', '46.17', '46.18', '46.19', '46.21', '46.22', '46.24', '46.25', '46.26', '46.27', '46.28', '46.29', '46.3', '46.31', '46.32', '46.33', '46.34', '46.35', '46.36', '46.37', '46.38', '46.4', '46.41', '46.42', '46.43', '46.44', '46.45', '46.46', '46.47', '46.48', '46.49', '46.5', '46.51', '46.52', '46.53', '46.54', '46.55', '46.56', '46.57', '46.58', '46.59', '46.6', '46.62', '46.65', '46.67', '46.68', '46.69', '46.7', '46.71', '46.72', '46.73', '46.76', '46.77', '46.78', '46.79', '46.8', '46.81', '46.82', '46.83', '46.84', '46.85', '46.86', '46.87', '46.88', '46.89', '46.9', '46.91', '46.93', '46.95', '46.96', '46.97', '46.98', '46.99', '47', '47.01', '47.02', '47.03', '47.04', '47.05', '47.06', '47.07', '47.08', '47.09', '47.1', '47.11', '47.13', '47.14', '47.15', '47.16', '47.17', '47.18', '47.19', '47.2', '47.21', '47.22', '47.23', '47.24', '47.25', '47.26', '47.27', '47.29', '47.3', '47.31', '47.32', '47.33', '47.37', '47.38', '47.4', '47.41', '47.42', '47.43', '47.44', '47.45', '47.46', '47.47', '47.5', '47.52', '47.53', '47.54', '47.56', '47.58', '47.59', '47.61', '47.62', '47.63', '47.64', '47.65', '47.67', '47.68', '47.69', '47.7', '47.71', '47.72', '47.73', '47.74', '47.75', '47.76', '47.78', '47.79', '47.8', '47.81', '47.82', '47.83', '47.84', '47.85', '47.86', '47.88', '47.89', '47.9', '47.91', '47.92', '47.93', '47.94', '47.95', '47.96', '47.97', '47.98', '47.99', '48', '48.02', '48.03', '48.04', '48.05', '48.06', '48.08', '48.09', '48.1', '48.11', '48.13', '48.15', '48.16', '48.18', '48.19', '48.2', '48.21', '48.22', '48.23', '48.25', '48.26', '48.27', '48.3', '48.31', '48.32', '48.33', '48.34', '48.35', '48.36', '48.37', '48.38', '48.41', '48.42', '48.43', '48.44', '48.45', '48.46', '48.47', '48.48', '48.5', '48.52', '48.53', '48.55', '48.57', '48.58', '48.59', '48.61', '48.62', '48.63', '48.64', '48.65', '48.66', '48.67', '48.68', '48.69', '48.7', '48.71', '48.72', '48.73', '48.74', '48.75', '48.77', '48.78', '48.79', '48.81', '48.82', '48.84', '48.85', '48.86', '48.87', '48.88', '48.89', '48.92', '48.93', '48.94', '48.96', '48.97', '48.98', '48.99', '49', '49.02', '49.03', '49.04', '49.05', '49.06', '49.07', '49.08', '49.09', '49.1', '49.11', '49.12', '49.13', '49.14', '49.15', '49.16', '49.17', '49.18', '49.19', '49.2', '49.21', '49.22', '49.23', '49.24', '49.25', '49.26', '49.27', '49.28', '49.29', '49.3', '49.32', '49.33', '49.34', '49.35', '49.36', '49.37', '49.38', '49.4', '49.41', '49.42', '49.43', '49.44', '49.45', '49.46', '49.47', '49.48', '49.51', '49.52', '49.53', '49.55', '49.56', '49.58', '49.6', '49.61', '49.62', '49.63', '49.64', '49.65', '49.66', '49.67', '49.68', '49.69', '49.7', '49.71', '49.72', '49.73', '49.74', '49.75', '49.76', '49.77', '49.78', '49.79', '49.8', '49.81', '49.84', '49.85', '49.86', '49.87', '49.88', '49.89', '49.9', '49.91', '49.92', '49.94', '49.95', '49.96', </t>
         </is>
@@ -958,7 +981,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1021,12 +1044,15 @@
         <v>3058</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>51122</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>4932</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['0', '0.25', '10.9', '100', '1000', '10000', '10005.8', '10006', '10011.6', '10012.95', '10018.8', '10020', '10021.75', '10022.6', '10025', '10027.35', '1003.75', '10030', '10031', '10035', '10035.4', '10036', '10036.11', '10040', '10045', '10045.05', '10049.11', '10050', '10051.7', '10055', '10057', '10057.85', '10058.3', '10060', '10063.6', '10065', '10066.15', '10070', '10079.37', '10079.81', '10080', '10080.02', '10083.3', '10084.6', '10085', '10085.24', '10085.3', '10086.25', '10087', '10090', '10096', '10100', '10100.4', '10101.7', '10103.88', '10105', '10107.15', '10110', '10112.7', '10120', '10121.4', '10124.58', '10125', '10135', '10139', '10140', '10140.8', '10145', '10145.45', '1015', '10150', '10152.15', '10152.7', '10155', '10157.35', '10160', '10161.37', '10162.12', '10163.95', '10165.75', '10169', '10170', '10171', '10175', '1018', '1018.51', '10180', '10184.55', '10187.8', '10190.8', '102.85', '1020', '10200', '10201.2', '10205', '10205.35', '10206', '10211.75', '10215.92', '10220', '10220.14', '10224.45', '10225.28', '10229', '10230', '10231', '10234', '10234.16', '10239', '10240', '10240.41', '1025', '10250', '10252.99', '10257.3', '10259.9', '10261.95', '10265.7', '10270', '10273', '10275', '10282', '10282.42', '10290', '10291.8', '10292', '10292.5', '10294.95', '10299.37', '1030', '1030.86', '10300', '10301.57', '10304', '10304.92', '10307.7', '10310', '10310.4', '10311', '10318.88', '10322.36', '10322.9', '10326', '10326.35', '10326.7', '10329.1', '10329.55', '1033', '10330', '10332.16', '10339.34', '10339.66', '10340', '10340.4', '10340.8', '10345.88', '10346.7', '10349', '10350', '10358.06', '10360', '10361.7', '10370.2', '10374.1', '10377.06', '10380', '10384.45', '1039.11', '10390.8', '1040', '10400', '10400.71', '10408.84', '10412.26', '10415', '10417', '10417.29', '10419.4', '10420', '10427', '10428.59', '1043', '10432', '10435', '10438.93', '10439.94', '1044.72', '10440', '10440.1', '10443.33', '10443.93', '10445.16', '10452.1', '10457.88', '10465', '10466.24', '10468.5', '10471.4', '10471.7', '10472.92', '10478.83', '10479', '1049.95', '10495', '10497.1', '10498', '10498.75', '10499.95', '10499.99', '1050', '10500', '10500.01', '10509.75', '10513.4', '10517', '10517.2', '10518', '10518.03', '10520.3', '10520.8', '10525', '10526.78', '10530', '10530.5', '10533', '10533.55', '10537', '10537.91', '1054.07', '10540', '10541', '10544', '10545.41', '10545.94', '10550', '10556.8', '10557', '10566', '10570', '10575', '10575.24', '10578.79', '10579', '10580', '10582.99', '10586.6', '10589.79', '10590.2', '10594', '10596.79', '10596.92', '10599', '1060', '10600', '10605', '10605.4', '10612.5', '10619.85', '10630', '10630.3', '10631.66', '10639', '1064', '10641.4', '10642', '10644.7', '1065', '10653.25', '10656.36', '10658.45', '1066.4', '10660', '10661', '10661.55', '10662', '10664.64', '10665', '10665.21', '10667.45', '10672.7', '10674.3', '10678', '10682.85', '10683.04', '1069.2', '10690', '10691.75', '10700', '10702.68', '10711.36', '10720.41', '10721.9', '10723.24', '10727', '10732', '10738.8', '10746', '10748.24', '10750', '10752.14', '10755.25', '10756.97', '10759', '10764.44', '10764.57', '10770.1', '10775.09', '10778.41', '10786.4', '10787.1', '10788.32', '10790', '10794.4', '10795.95', '10798', '1080', '10806.6', '10806.82', '10807.4', '10810.4', '10811.3', '10818', '10820.1', '10821.99', '10822.02', '1083.5', '10832.4', '10832.69', '10833.1', '10833.84', '10835.2', '10848.49', '10857.22', '10862.3', '10863.65', '10865', '10867', '10875.62', '10877', '10881.22', '10884.1', '10890', '10893.6', '10897.23', '10898.2', '1090', '10900', '10901.55', '10905.7', '10905.95', '10908.85', '10909.45', '10915', '10923.85', '10924', '10933', '10935', '10937.14', '10939', '10948', '10949.9', '10953.48', '10955', '10957.04', '10964.65', '1097', '1099', '10990', '10997', '10997.52', '10998.52', '1100', '11000', '11001.04', '11002.78', '11011.55', '11016.4', '11017', '11019.05', '11021.19', '11025.64', '1103', '11032', '11036.55', '11042.8', '11049.83', '1106.49', '11060.95', '11069.2', '1107.55', '11077', '11079.28', '1108.5', '1108.8', '11080', '1109.98', '11092.34', '1110', '11104.95', '11108.8', '11117.43', '11122', '11122.35', '11139.36', '11144.01', '11144.39', '11145.17', '11145.7', '1115', '11153.16', '11163.55', '11165.8', '11169.96', '11170', '11195.1', '1120', '11200', '11201.14', '11203.6', '11207.5', '11212', '11214.5', '11218.29', '11224', '11224.8', '11233.8', '11244.85', '11246.78', '11246.95', '11247.72', '11249.9', '1125.7', '11250.28', '11259.16', '11259.98', '1126.4', '11260', '11266.8', '11276.74', '11295', '11299', '11299.65', '1130', '11300', '11301', '11302.2', '11304', '11307.25', '11315.35', '11322.7', '11328', '1134', '11340.45', '11344.46', '11345.98', '11346.22', '11354.02', '1136', '11362.55', '11366.12', '11367', '11372', '11385.28', '11389.3', '11390', '11394.1', '11395.9', '11400', '11403.39', '11409.5', '11410', '11410.5', '11413.72', '11420.6', '11430', '11450', '11451.09', '11452.3', '11454.9', '11467.66', '11469', '1147.25', '11470.25', '11477', '1148.65', '11481.35', '11482.47', '11483.5', '11484.35', '11484.93', '11485.2', '11490', '11491', '11495', '11496.68', '11498.5', '1150', '11500', '11511.75', '11521.35', '11525.5', '11525.85', '11530', '11538.04', '11545', '11555.6', '11558.5', '11560', '11570.1', '11575.26', '11583.1', '1160', '11603.38', '11608.8', '11612', '11613.2', '11616.14', '11619.6', '11620', '11634.95', '11643.98', '11649.72', '1165.4', '11650', '11659.66', '11666.15', '11666.87', '11673.8', '11675.89', '11676.15', '11680.4', '1170', '11700', '11701.6', '11702.95', '11710', '11711.94', '11715', '1173.62', '11731.16', '11736.66', '11738', '11742.9', '11746.92', '11757.37', '11758.69', '11769.59', '11770', '11772.58', '11779.1', '11782', '11788', '11791.91', '11793.46', '1180', '11800', '11807.22', '11807.47', '11810', '11814.49', '11828.39', '11829.5', '11830.76', '11830.89', '11832.14', '11836.2', '11836.56', '11838.67', '11842.9', '11847.6', '11848', '1185', '11860.08', '11862.22', '11862.24', '11870', '11872.15', '11878', '11879.9', '11883.76', '11888.7', '11890', '11900.31', '11902', '11907.45', '11909.1', '11909.15', '11918', '11927', '11927.7', '11938.4', '11940', '11940.53', '11946.27', '11946.81', '11948.6', '11948.8', '11949.94', '1195', '11954.2', '11965.5', '11965.75', '11969.72', '1197.14', '11972.8', '11973.79', '1199', '1200', '12000', '12005.67', '12013.91', '12018.04', '12022.25', '12024.76', '1203.2', '12030', '12034.44', '1204.7', '12044', '12049', '1205', '12050.08', '12051.85', '12053.57', '12057.18', '12064.08', '12064.3', '12067.05', '12068.6', '12077.35', '12078.89', '12080.3', '12085.6', '12087', '12087.1', '12104.95', '12108', '12108.8', '12110.79', '12116.2', '12119.2', '12127', '1213.05', '12130.95', '12137.19', '12138.71', '1214.78', '12143.82', '12144.11', '12145.7', '12152.07', '12165.1', '12180', '12184.25', '12185.22', '1219.7', '1220', '12200', '12201.5', '12210.66', '12217.6', '12219.23', '12225.6', '1223.01', '12230', '12243.34', '12244', '12250', '12253.32', '12255.75', '12256.86', '12259.85', '12261.14', '12270', '12270.4', '12271.7', '12272.6', '12275.19', '12277.5', '12284.99', '1229', '12294.16', '12300', '12303.25', '12306.15', '12307.45', '12310.78', '12317.6', '12318.38', '12319.48', '12327.6', '12333.25', '12337.6', '1234.86', '12348', '1235.7', '12382.9', '12385', '12389.75', '1239.51', '12394', '12396.08', '12397', '12400', '12401.6', '12404.63', '12410', '12423', '12424.8', '12432.58', '12440', '12442.25', '12448.73', '1245.25', '12450', '12456.15', '12457.6', '12460', '12464', '12464.46', '12474', '12479.02', '12488.85', '12489.48', '12496.8', '1250', '1250.76', '12500', '12502.36', '12504.97', '12507.25', '12507.5', '12515.06', '12516.96', '12522.61', '12527.45', '1253.55', '12531.9', '12532.5', '12539.35', '1254', '12542.15', '12542.44', '12544', '1255', '12550', '12551', '12552.78', '12556', '12559.86', '12562.42', '12562.96', '1258.8', '12591.6', '12592.63', '12596.82', '1260', '12600.25', '12605.54', '12607.66', '12608.56', '12612', '12617', '12617.5', '12618', '12621.12', '12630', '12634.9', '12637.6', '12637.78', '12641.72', '12643.6', '12654.45', '12658.05', '1266.5', '12661.15', '12664.41', '12670.5', '12673.68', '12676.8', '12677', '12685.91', '12693.16', '12700', '12709.18', '1271.59', '12712.6', '12714.6', '12716.35', '12717.6', '1272', '12725', '12726.64', '12728', '1274', '12747.12', '12756.2', '12770', '12776.39', '12778.65', '12789.75', '12790.17', '12796', '1280', '12800', '12801.47', '12832.3', '12834.55', '12835.6', '12838.58', '12849.85', '1285.71', '1285.83', '12850', '12856.02', '12860', '12877.1', '12878.8', '1288.68', '12883.1', '12883.51', '12889.85', '12891.1', '12900', '12906.97', '12907.6', '12908.55', '12918.06', '12919.57', '12921.21', '12929.73', '12933.4', '12940.92', '12941.44', '12944.4', '1295.95', '12950', '12950.1', '12951.36', '12954', '12979.74', '12983', '12990.25', '12999.15', '1300', '13000', '13001.38', '13003', '13009.5', '1301', '13013', '13018.12', '13022.26', '13031.73', '13032.77', '13033.26', '13044', '13046', '1305', '13050', '13051.78', '13052', '13052.15', '13058.5', '13059.5', '13068.4', '13069.03', '13072.25', '13082.27', '13082.95', '13087.28', '13087.89', '13093.92', '1310', '13100', '13100.88', '13105.9', '13108.88', '13111.1', '1312.76', '13120', '13124.2', '1314', '1314.51', '1315', '1315.85', '13157.5', '13166.5', '1317.75', '1319.5', '13190.4', '13195', '1320', '13200', '13212.3', '13213.15', '13216', '13217.45', '13223.3', '1323.2', '1323.7', '13230.26', '13233.8', '1325', '1325.7', '13261.03', '13266.2', '1327.9', '13281.96', '13286.6', '1329', '1329.95', '13291.2', '13295.2', '1330', '1330.2', '13300', '13313.53', '13314.81', '13315.13', '1332', '13329.95', '1333', '13331.31', '13331.55', '13333.29', '13335.11', '13341.1', '13341.44', '1335', '1336.4', '1336.7', '13370.88', '13379', '13380.3', '1339.8', '13392.85', '13396.52', '1340', '13400', '13416.4', '1343', '13431.95', '13439.68', '13440', '13447.96', '13448.98', '1345', '1345.8', '13450', '13451.6', '13453.26', '13463.2', '1347.7', '13488.91', '13496', '1350', '13500', '13508.72', '13522.64', '13528.85', '13535.65', '13540.55', '1355', '1355.96', '13560', '13562.1', '1357.25', '1358', '13581.42', '13581.45', '13586', '1360', '1360.8', '13601.95', '13619.09', '1362.2', '1363.2', '1363.3', '13630', '13638.5', '13639.95', '1364', '1365', '13656.5', '1366', '13664.31', '13669.47', '1367.85', '13676.01', '1368.3', '13699.15', '1370', '13705', '13708.25', '13719.58', '1372', '1372.16', '13720', '13725.6', '1373.05', '1373.1', '1374.9', '13741.7', '13744.65', '13746', '13747.79', '1375', '13762', '13781.1', '13791.26', '13794', '1380', '13800', '13813.45', '13815.42', '13816.45', '1382.78', '13822.07', '13827.57', '13829.27', '13829.42', '13841.79', '13842.8', '1385', '13850.73', '13859', '1386.64', '13873.35', '13874', '13876.5', '1388', '1389', '1389.55', '1389.9', '1389.95', '13890.51', '13892.5', '13896.93', '1390', '13900.92', '13903', '13906.1', '13918.15', '1392', '1393.32', '13939.9', '13942.5', '13946.55', '1395', '13950.05', '13950.8', '13968.5', '1399', '13991.68', '13991.8', '1400', '14000', '14009.45', '1401.68', '14014.65', '14017.6', '14026.2', '1403.3', '1405', '1405.9', '14055.12', '1407.95', '14082.95', '1409.6', '14096', '1410', '14109.65', '14123', '14128.93', '14134.74', '14135.35', '14146.09', '14147.76', '14158.19', '14169', '14177.65', '14186.05', '1419', '1419.84', '14190.25', '14196', '1420', '14225.35', '14226.75', '14227.9', '14239.25', '1425', '1425.6', '14250', '14273.18', '14282.56', '1429.56', '14292.48', '1430', '14304.54', '14310', '14312.6', '14315.94', '14322.02', '14326.75', '14333.61', '14334', '14345.14', '1435', '14350', '14357.19', '1436.72', '14361', '1437.7', '1438.5', '14388.57', '1439', '1439.95', '14394.95', '144.6', '1440', '1440.4', '14400', '14402.6', '14407.18', '14408.05', '1441.14', '14416.9', '14419.28', '14448.55', '1445.19', '14458.8', '1446.4', '14473.82', '14475.2', '1448', '14485', '14486.35', '1449.06', '14490', '14496.7', '1450', '1450.15', '14500', '14500.77', '14502.74', '14503.46', '14506.28', '14519.1', '1452.25', '1452.87', '14526.65', '14533.9', '14544.22', '1455', '14566.4', '14568.85', '14569.49', '14571', '14571.1', '14571.16', '14577.75', '14578.54', '14579.25', '14583', '1459.17', '14598.2', '1460', '1460.49', '14600.2', '14610.2', '14614', '14625', '14626.9', '14627.42', '1463.6', '14633.9', '14634.46', '14639.63', '1464.42', '14640', '14647.78', '14648.82', '1465', '14655', '14667.5', '1467.22', '14677.92', '14679.93', '1468.2', '1469.2', '14693', '14694.74', '14694.8', '1470', '14705', '1472.4', '14736.84', '14737.8', '14741.08', '14743.1', '14743.65', '14744.93', '14746.5', '1475', '14756.2', '1477.7', '14772.6', '14777.16', '1479', '1480', '14800', '14802.07', '14803.04', '14806.7', '14807', '14810', '14820', '14821.42', '14837.42', '14838.12', '14838.7', '14841', '1485', '1485.32', '14866.32', '14868.88', '1487.5', '14871.49', '14873.49', '14875.35', '1488', '14881.57', '1489', '14899.34', '1490', '14907.92', '1491.74', '1491.78', '14911.07', '14932.85', '14940.82', '14944.8', '1495', '14955.3', '14960.5', '14975', '1500', '15000', '15006', '15014.48', '15014.94', '15019.25', '15025', '15028.41', '1503', '15031.3', '15037.95', '15041', '1505', '15051.24', '15052', '15054.68', '1506.7', '15071', '1508.8', '15080', '15083.86', '15087', '15098.49', '15098.86', '1510', '1510.4', '1511.6', '1511.94', '15114.7', '15132.19', '1514.5', '15141.2', '1515', '1515.4', '15154.95', '15155.47', '15156.21', '15164.9', '15179.55', '15181.15', '15181.41', '1519.52', '15190', '1520', '1520.26', '1520.27', '15205', '15214.79', '1522.66', '15221.46', '15222.29', '15240.05', '15240.52', '1525', '15252.02', '15259.92', '1526', '15265.5', '1527.4', '1528.7', '15285.02', '15286', '15289.38', '15293.63', '1530', '1532.02', '15325', '15335', '1535', '1535.2', '1537.09', '1537.5', '1538', '1538.38', '1539.85', '15393', '15398.59', '1540', '15401', '15430.19', '15441.5', '15455.36', '15459.33', '1546.56', '15460', '15494.19', '15495.21', '15496', '1550', '15502', '15504.95', '15524.56', '1554.95', '15541.9', '1555', '15550.93', '15557.65', '15567.1', '1558.87', '15581.15', '15582', '1559', '1560', '1560.92', '15600', '15607.82', '15621.4', '15628.03', '1563.75', '15632.5', '1565', '15650', '15653.46', '15654', '15655.8', '15660.23', '15666.2', '15670.3', '1568.16', '15687.34', '1569.7', '1569.85', '15694.3', '15696.5', '1570', '15702.22', '1571.79', '15711.95', '1573.45', '15731', '15744', '15745.48', '1575.5', '15750', '15750.08', '15755.21', '15775.5', '15780', '15780.3', '15783.4', '1580', '1580.09', '1583.4', '15840', '15852.56', '15855', '15856.15', '15856.71', '15859.84', '15869', '15898', '1590', '15900', '15908', '1591.95', '15918', '15919.46', '15920.2', '15920.6', '15922.28', '15932', '15932.8', '15943.1', '15943.85', '15955', '15975', '1598.6', '15982.13', '1599.01', '15995', '15996.32', '15998.96', '15999.61', '15999.9', '1600', '16000', '16000.03', '16013.82', '16015.8', '16022.8', '16034.06', '16042', '1605', '1606.55', '1606.64', '16075', '16077.5', '1608.8', '16086.03', '16092.56', '1610', '16109.29', '16115.35', '1612.1', '16131.96', '16133.6', '1614', '16144.33', '16150', '16160', '16179.79', '1619.15', '16199.22', '1620', '16204.93', '16206.5', '16206.7', '16220.68', '16222.5', '16236', '1624.6', '1625', '16251.4', '16253.4', '16255.8', '16261.6', '16281.9', '16282.44', '16282.79', '16288.16', '1629.91', '1630', '16317.06', '16328', '16336', '16336.55', '16337.06', '16340', '16346.39', '16346.44', '1636.6', '16370', '16378.46', '1639.99', '1640', '16413.99', '16443.91', '16447.4', '1645', '16461.26', '16463.24', '16473.63', '16482.65', '16489.42', '1649.35', '16493.28', '165', '1650', '16500', '16516', '16523.05', '16526.45', '1653.16', '16534', '16539', '1654.62', '1655', '1655.33', '1656.9', '16564.49', '1659.44', '16594', '1660', '16603.5', '16623.2', '1664', '16640.74', '16646.2', '1665', '1665.6', '16651.6', '16652.95', '16659.75', '16666.66', '1667.5', '16679.5', '16689.91', '16698.28', '1670', '16700.3', '16707.79', '16728.66', '16730.55', '16733', '1675.5', '16758.81', '1680', '16810', '1682', '16829.72', '1683.6', '16834.61', '16841.8', '16843.89', '1687.85', '16878.19', '16889.1', '1689', '16890.9', '16897.63', '1690', '1690.97', '16910.6', '1692.85', '1692.92', '16925.4', '1693.84', '16949.5', '1695.07', '1697.82', '16976.5', '16977.2', '16980.34', '16986.43', '16998', '1700', '1700.5', '17000.67', '17014.25', '1702.96', '17021.57', '1704', '1705.4', '17057', '17063.7', '17066.22', '1708.7', '17097', '1710', '1711.6', '17117.88', '1713', '17135.11', '17139', '17140', '17149.45', '1715', '1715.6', '17156.93', '17160.6', '17170.8', '17180.66', '17180.9', '1719', '1719.2', '1719.9', '1720', '17225.92', '1723.5', '1725', '17272.75', '17273.02', '17273.58', '17310.41', '17329.95', '1733.2', '17331.1', '17334.89', '17349', '1735', '17364.23', '1737.4', '17375', '17391.65', '1740', '17400', '1745.3', '17453.12', '17455.61', '1748', '1749.35', '17495.6', '1750', '17502.02', '1751.8', '17522.08', '17522.64', '17535.63', '1754.57', '1755', '1755.05', '17569.06', '1757.53', '17571.26', '17573.46', '1758', '17599', '176.4', '1760', '1761.56', '17613.2', '17628.83', '17633.09', '1764.2', '17650', '17656.79', '17657.4', '1767.5', '1768.8', '17681.23', '17694.6', '1770.8', '17700', '1771.72', '1771.93', '17717.61', '17722.71', '1773.92', '17738', '17744.15', '1775', '17759.64', '17784', '17793', '17794.12', '1780', '1780.39', '1782', '17822', '17823.6', '1783.49', '17842', '17842.6', '17848', '17849.85', '17857.7', '17869.35', '17879.23', '17882.17', '17883.77', '17891.6', '1790', '17915.61', '17919.44', '1794.8', '17940.37', '1795', '17957', '17959.82', '17971.67', '17971.68', '17975.87', '17986.94', '17997.18', '180', '1800', '18002', '18026', '18027.35', '18028', '18050.88', '1806.1', '1806.4', '1806.8', '1809.25', '18096.38', '181.2', '181.5', '18109.65', '18122.49', '18134', '18141.59', '18141.85', '18146.08', '18148.44', '1815', '1815.6', '18157.4', '18157.42', '18159.06', '1816.52', '18189', '1819.56', '18190.66', '18199.8', '1822.05', '18220', '18223.22', '18223.6', '1823', '18237.5', '18260', '18263.21', '18263.45', '18266.66', '1827.33', '18274.48', '18289.74', '1829', '1830', '18323.45', '18332.35', '18342.4', '18344', '1835', '18360', '18360.69', '1837', '1837.9', '18380.5', '18387.88', '18389.16', '1840', '1841', '18417.69', '18421.65', '18431.6', '18436.13', '18436.91', '18439', '1844.5', '18453.33', '18474.74', '1848', '1849.05', '1850', '1852.3', '18520', '18524.08', '18527.75', '18539.38', '1854.8', '18544.3', '1855.15', '18589.5', '1860', '1860.7', '1860.8', '18615.5', '18635.07', '18665.2', '18695.42', '1870', '18707.65', '1871', '18713', '18737.82', '1874.2', '1875', '1876.86', '1877.2', '1877.84', '1880.61', '18805', '1881.33', '18816.14', '1884.99', '18842.64', '1885', '1888', '18885', '189.5', '1892.1', '18921.21', '1893.28', '18938.15', '18943.68', '18957.76', '18978.2', '18980.03', '18999.91', '1900', '19031.46', '19033.4', '19048.92', '1905', '19067.06', '1907.18', '19079.2', '1910', '1911.5', '1913', '1914.4', '1917.57', '19197.58', '1920', '1922.4', '1922.95', '19223.15', '19242.5', '19283.9', '19283.99', '19298.88', '1930', '19317.45', '19338.6', '1934.1', '1934.43', '1938.9', '19393.05', '19393.08', '1940', '1940.5', '1942.9', '19426.2', '1943.75', '1944.5', '1948.7', '1949', '19490.37', '1950', '1950.1', '1950.75', '19509.64', '19519.52', '1956.95', '19588.95', '1960', '1961', '19627.47', '1963', '19630.99', '1964.27', '1965', '1966.9', '19671.24', '19672.8', '1969.08', '19702.55', '1971.25', '1972.95', '19727.2', '1973.7', '1973.85', '1974', '1975.12', '19761.4', '19762', '19767.3', '19773.36', '19776.55', '1978.3', '1979.93', '19796.06', '1980', '1980.69', '19804.4', '1981.5', '1983.4', '19831.4', '19850', '1987.03', '1987.61', '1987.89', '19884.2', '19886.4', '1990', '19910.84', '19920.49', '19957', '1997.7', '19971.4', '19987.31', '1999.52', '200', '2000', '2000.45', '20000', '20004.7', '20029.5', '2006', '20068.44', '20074.5', '2008.7', '20087.02', '20087.94', '2010', '20101.01', '20114.25', '20116.95', '2014.5', '20145.48', '2015.67', '20163.95', '20178.9', '2020', '2021.68', '20214.8', '2022', '20226', '20251.38', '2028.7', '2029', '203.25', '2030', '20311.61', '2032', '2032.8', '2035', '2035.25', '20361.4', '2038.66', '20385', '20390.4', '2040', '2040.25', '2040.38', '20415.43', '2043.47', '20432.98', '2045', '2046', '2049.36', '20491.6', '2050', '20500', '20502.82', '20532.5', '2054.24', '20547.32', '20562.5', '2058', '20583.28', '2060', '20602.31', '2061.12', '20617.88', '20625.65', '20637.82', '2064.16', '20640', '20650', '20650.02', '2069.05', '2069.8', '20695.52', '2070', '2071.55', '20736.75', '20756.74', '20764.6', '20780.62', '2080', '20800', '20821.15', '20835.72', '20844.91', '2085', '20860.5', '20872.27', '20897.25', '209.5', '2090', '2090.89', '20900', '2094.95', '2096', '2096.8', '20985.7', '20997.42', '2100', '2100.67', '21000', '21007', '21008.32', '21010.97', '21036.88', '21050.17', '2108.8', '21083', '2109.87', '2112.14', '21135.91', '21138.5', '21140', '2115.7', '2116.4', '21168.09', '21179.7', '2118.55', '2120.87', '21215.3', '2122.85', '2125', '21288.93', '21293.1', '21300', '2132.06', '21326.58', '21330', '2136.34', '2136.4', '21364.54', '2140', '21400', '21406.63', '2142', '21453.5', '21456.68', '21463.84', '21466.9', '21472.57', '2150', '21500', '2151.84', '21514.24', '2153', '2153.1', '2155.5', '21555.36', '2156', '2158.3', '2160', '21611.16', '2165.38', '21652.11', '2166.1', '21685.45', '2169.4', '217.94', '2170', '2171.15', '21719.68', '21720.32', '21725', '21727.4', '21754.72', '21755.05', '21770.5', '2179.4', '21790', '21796.48', '2180', '21801.01', '21806.9', '21808.47', '2181.27', '2181.55', '21810.84', '21812.45', '2182', '2182.07', '2183.2', '2184.7', '2185.75', '21850', '21890.73', '21915', '2192.96', '21929.75', '21943.39', '2195.1', '21982.86', '2200', '22000', '22014', '22020', '2203.76', '22035.55', '22041.14', '2205', '2209.25', '22090', '22093.36', '2215.95', '22166', '2217.6', '2220', '22202.5', '22219.64', '2223.89', '2225', '2228', '2230', '2233.6', '2235.96', '2236.4', '2239.55', '22394.02', '2240', '2242.46', '22429.06', '2244', '22442.27', '2246', '2246.28', '2248', '2248.1', '2249.77', '22494.09', '2250', '22500', '22503.23', '22505.7', '2253.55', '22530.2', '22531.52', '2254.19', '2255', '2255.7', '2255.95', '2256.7', '22573.45', '22604.54', '2261.6', '22614.77', '22630', '2265', '2268', '2268.3', '2270', '22720.96', '22731', '22739.13', '2274.7', '22750', '22760.8', '2280', '22800', '2283.5', '2286.2', '2289', '22893.79', '2291.4', '22910.14', '22926.7', '2293.21', '2296', '2297.84', '2300', '23000', '23029.85', '23053.72', '23084.86', '23090', '23090.34', '2310.7', '23101.37', '23102.35', '23103.6', '23108.7', '23110.16', '23125.45', '23138.97', '2315.8', '23169.48', '2317.6', '23185', '23186.99', '23188.85', '2320', '23213', '23220.17', '23223.55', '23248', '2325', '23260', '23270', '2329.7', '23302.25', '2331', '23337.5', '23338.49', '23340', '2335.1', '2336.7', '23369.78', '23381.48', '2340', '2341.72', '23427.64', '2344.15', '2344.25', '2344.9', '23467.28', '2347.3', '23472.97', '2350', '23500', '23508.36', '23512.02', '2352', '23533.7', '23540', '23542.99', '2355.79', '23550', '23575', '23608.33', '2361.4', '23630', '23633.39', '23650.68', '2366.9', '23666.45', '23667', '23670.05', '23675.91', '23690', '237.23', '23707.86', '2371.54', '23730.07', '23740', '23743.83', '23744.02', '2375.08', '23755.55', '23756.61', '23759.8', '2376.85', '23780', '23785.74', '2380.15', '2382.02', '23833.37', '23847.55', '23848.4', '2385.17', '23850', '23861.72', '23864.05', '23874.3', '23890.85', '2391.5', '23918.5', '23923.25', '23923.5', '2393.9', '23935.18', '23935.74', '23939.82', '2394', '2394.95', '23957.15', '23960', '23975.47', '23979.65', '2399.99', '2400', '2402.8', '24028.98', '2403.95', '24030', '24047.21', '2405', '24059', '2408.8', '24080.93', '2409.2', '24101.61', '24143.1', '24159', '2418.75', '24190', '24199.35', '24199.92', '2420', '24210', '2422', '24226.03', '24248.65', '2428.35', '2428.8', '24283.68', '24285.9', '24288.48', '2429', '24298.5', '24395.2', '24397.35', '2441.57', '24414.05', '24429.64', '24441.6', '2445.76', '2446.7', '24467.45', '24478.44', '24479.22', '2448.95', '2449.29', '2451', '24535.2', '24535.41', '2454', '2457.99', '2458.8', '24583.7', '246', '2461.8', '2461.94', '24621.45', '24630.84', '24639.06', '24658.5', '2467.98', '2468.8', '2469.5', '24708.4', '2471.44', '2472.99', '2474.74', '2476.08', '24799.95', '2480', '2480.54', '2482', '24840.8', '24862.8', '24891.82', '2490', '24902.94', '24935.01', '2496.4', '24971.25', '2498.8', '2500', '2507.48', '25099.1', '2511.6', '25118.45', '2513.75', '2516.95', '2518.07', '2519.44', '2520', '25200', '25237.05', '2524.95', '2525', '2525.86', '2526.8', '2527.92', '2530', '25311.34', '25311.61', '2532.35', '2534.45', '2535', '2537', '2538.3', '2541.4', '2542.4', '25423.8', '2544', '25447.53', '25464.43', '25478.1', '2548', '2550', '2550.92', '25511.51', '25535.35', '2554.93', '2558', '2558.9', '2560', '25600.9', '25635.36', '2564.76', '25641.64', '25648', '2567.5', '2567.52', '25678.2', '2568', '2570', '2572', '2573.23', '2573.48', '2574.35', '25744', '2575', '2575.37', '2578.88', '2580', '25807.75', '25812', '25813.23', '2582.85', '25839.4', '2584.95', '2585.6', '25854.05', '2587.33', '2588', '2590', '2590.2', '25901.5', '2591.55', '2592.73', '25926.3', '25929.2', '2594', '2595.58', '25990.56', '2600', '26005.72', '26006.91', '2601', '26013.84', '2602', '26022.4', '26045.61', '2606.02', '2606.17', '26096.65', '2610', '26108.88', '26158.4', '2617.47', '2617.56', '2618', '2620', '26204.07', '26207.52', '26219', '2623.25', '2623.9', '2625', '2625.48', '2627', '26280.98', '2629.1', '2630', '26311.5', '26345.7', '2636.41', '26366.56', '2638.4', '2639', '26396.67', '2640', '2640.2', '2640.6', '2641.35', '2642.45', '26423.95', '26433.15', '26439.24', '2644', '26497.2', '2650', '2652.25', '2653.6', '26546.12', '2660', '2660.69', '2662.94', '2664.2', '2664.24', '2665', '2665.26', '2665.7', '2665.95', '26657.09', '26676.34', '26677', '2668', '2669.98', '2670', '26702.54', '2672', '26741.8', '2675', '2678.8', '268.43', '268.7', '2680', '26832.7', '2685.4', '2686.48', '2686.5', '2687.31', '2688.09', '26905.17', '2692.7', '2694.9', '26950', '2696.05', '270', '2700', '27000', '2703.08', '2706', '2708.32', '2708.37', '2710', '2714.2', '2714.8', '272.3', '2720', '2725', '2725.36', '27253', '27275.54', '2729', '27305.69', '2733.05', '27359.36', '27370', '2739', '2740', '27406.84', '27410.04', '2743.92', '2744', '27455.78', '2749.75', '2750', '27500', '27503.7', '27528.81', '2754', '2757', '2757.33', '27571.67', '2759.52', '2760.93', '2763.25', '2765', '2768.22', '27688.65', '2771.78', '2773.95', '27740.05', '2776.98', '27786.18', '2779', '2780', '2780.58', '27813.8', '27819', '2782', '27831.53', '2784.6', '2785', '27858.78', '2790', '27915', '2792.1', '27937.57', '2794', '27968.01', '2799.65', '2799.84', '2800', '28000.24', '2801.05', '28014.6', '28026.9', '2805.9', '2807.61', '28070.19', '2808.25', '28095.25', '2810', '2810.3', '28106.16', '2812.95', '2813.45', '2817.58', '28182', '2819.6', '2821.58', '2825', '2825.7', '2827.02', '28277.23', '28279.63', '2828.1', '2830', '2835', '28366', '2838.9', '2839', '2840', '28414.8', '28419.93', '2842.8', '2843', '2844.9', '28442.1', '2846.5', '2850', '2853', '2854', '28540', '2856', '28597.01', '2860', '28611.96', '2863.25', '2867.6', '2868.6', '2869.96', '2870', '28702.1', '28730.76', '28732', '2877.84', '2878.43', '2880', '2880.82', '28807.32', '2890', '28928.23', '2894', '28972.35', '2899', '2900', '29005.6', '2905.98', '2906', '2907.26', '2910', '29140', '29144.78', '2916', '2916.15', '2920', '2920.75', '29201.65', '2925', '29263.2', '2928.6', '2929', '29293.73', '2934.02', '2936', '2937', '29370.71', '2938.95', '2939.2', '2939.5', '2940', '2944.04', '2945', '2950', '2951.43', '2951.45', '2953.6', '2956.4', '2958.35', '29588.67', '2959.9', '2960', '2960.76', '29629.28', '2965.47', '29687.46', '2969', '2970', '2972.2', '2973.81', '2978.43', '2981.99', '2983.8', '29854.29', '2988.15', '2990', '2991', '2991.1', '2991.9', '2994', '2995', '300', '3000', '30000', '30006', '3001.17', '3002.45', '3004.3', '30040', '30043.8', '30044.13', '30080', '3010', '3010.91', '30108.8', '3013.24', '30139.3', '3015.6', '30171.39', '3019', '3020', '3020.85', '3022.4', '30224.45', '3023.4', '30240.92', '3025', '30251.23', '3026', '3026.65', '3027.83', '3030', '3030.4', '3030.7', '30300.6', '3032', '3033.4', '3034', '30358.4', '3036.2', '30377.86', '30395.94', '3040', '30410', '3043.05', '3043.45', '3043.99', '3044.6', '3046.49', '30466.91', '3049.95', '3050', '30500', '3053.76', '3054.88', '3055', '3056.74', '3058', '3059.2', '3059.85', '3059.95', '3060', '3060.5', '30608.71', '30612.14', '30687.07', '3069.73', '3069.85', '30690.29', '307.43', '3070', '3071', '3072.05', '3072.85', '3074.7', '30740', '3075', '3075.43', '30758.75', '3077.95', '30770.57', '3079.8', '308.25', '3080', '3080.9', '3082', '30848.7', '3085', '3090', '3095.1', '30950.83', '3097.34', '3098.65', '31.95', '3100', '31066.86', '3108.2', '3109.13', '31092', '3111', '31112.85', '31119', '3115.5', '3119.14', '312.75', '3120.13', '3126.2', '3129.05', '3130', '3132.45', '31339.65', '3134', '31340', '3135', '3137.89', '31373.77', '3138.8', '3139.5', '3140', '3141.02', '3141.6', '3142.98', '31429.24', '3143.1', '3145', '3146', '3147', '31478.18', '3148', '31490.49', '3150', '3150.75', '31503.64', '31583.7', '3160', '31607', '31639.2', '3164.47', '3164.8', '3166.35', '3167.7', '317.75', '3170', '31708.37', '3176.54', '3177.5', '3179', '3180', '3180.12', '3180.31', '31808.25', '31813.15', '3185', '3186.14', '31866.5', '31885.5', '3190', '3190.21', '31916.11', '3192.8', '3193.4', '3194.75', '3195', '31952.47', '31952.5', '3196.44', '3200', '3201.04', '3201.3', '3202', '3202.6', '32034.95', '3207.2', '32081.26', '3209.95', '3210', '3211.85', '3212.46', '32133.62', '32139.14', '32149', '32153.23', '3216.05', '3219.65', '3220', '32218.02', '32240.85', '3225', '32263.68', '3227.47', '3227.5', '3230', '3230.15', '32302.81', '3232.25', '32365.5', '32399.75', '3240', '3240.25', '3240.34', '3241.96', '32423.76', '32493.78', '325', '3250', '3250.2', '3250.4', '32547.79', '3256', '32568.71', '3259', '3260', '3261.55', '3262.2', '3266.6', '3267', '3270', '3270.48', '3271.47', '32720.1', '3274.78', '3275', '3279.91', '32796.2', '3280', '32809.65', '32891.92', '3290', '3290.33', '3290.78', '3292.95', '3295', '32975.04', '3300', '33000', '33061.15', '3311', '33134.4', '3314.15', '3320', '33201.6', '3324.08', '33241.89', '3328.5', '3328.8', '3329.8', '3330', '33330.15', '3335', '33364.35', '3340', '3347.28', '33479.25', '3348', '3350', '3350.49', '3353.59', '33555.73', '3360', '3363.15', '33647.98', '3368.2', '3369.7', '3375.86', '33754.6', '3379', '3380', '33801.64', '3381.3', '3384', '33842.32', '3387', '3390', '3392.72', '3394', '34.7', '340.5', '3400', '3410', '34125.35', '3413.11', '3416.2', '3417.5', '3419', '3419.24', '342', '3420', '34207.71', '3421.8', '3426.55', '3438.07', '3439', '3440', '3441.16', '34434.04', '34437.6', '3444', '3445', '3445.85', '3446.1', '3450', '3453.7', '3454.9', '3460', '3466', '3469.95', '347.36', '347.45', '3470', '3475', '34766.08', '34774', '3478.1', '3480', '34848.59', '3487.28', '3488.12', '34893.92', '34897.54', '3491.5', '34927.96', '3493.75', '34931.86', '3499.95', '3500', '35011.05', '3502', '3503', '3505', '3505.6', '3508.05', '3509', '35094.05', '3510', '3513', '3514.25', '3515', '3517.6', '3518', '3520', '35208.2', '35217.99', '3522.4', '35235.68', '3525', '35256.09', '3526.5', '3527', '3527.25', '35284.62', '3530', '3530.21', '3532', '3532.6', '3532.9', '3533.15', '3533.88', '3534.18', '3534.19', '3535.2', '3536.4', '3538.4', '3539', '3540', '3543.03', '35439.56', '3544', '3545', '3547.6', '3548', '3549', '355.35', '3550', '3554.99', '3555', '3555.7', '3556.8', '3558', '3560', '3562.5', '3562.65', '3564.29', '3565', '3567.6', '35681.6', '3570', '3571.9', '3572', '3575.15', '3575.4', '3576.23', '3577', '3577.16', '3579.2', '3580', '35801.39', '3586.6', '3588', '3589.45', '359.19', '3590', '3590.25', '3592', '3592.18', '3595', '3596.83', '3597.66', '3600', '36032.07', '3605', '36054.8', '3608.8', '36086.75', '3610', '36129.28', '36149.84', '3617.9', '3619.15', '3620', '3623.1', '3624', '3625', '3626.2', '3629', '3629.96', '3629.99', '3630', '36331.35', '3636.8', '3640', '3641.1', '36436.36', '364</t>
         </is>
